--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_19_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_19_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2468954.625258891</v>
+        <v>-2470705.194177527</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6661238.247473555</v>
+        <v>6661238.247473559</v>
       </c>
     </row>
     <row r="8">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>228.6645314018986</v>
       </c>
       <c r="C11" t="n">
-        <v>230.7566485153328</v>
+        <v>261.6808958849511</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>278.3383741862053</v>
       </c>
       <c r="F11" t="n">
         <v>303.284049855655</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>308.9234123546363</v>
       </c>
       <c r="H11" t="n">
-        <v>207.3370702978283</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>41.9118078588345</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>107.3023197792036</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>224.1602625840785</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>266.1391047924126</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>62.94118776381087</v>
+        <v>62.9411877638109</v>
       </c>
       <c r="C12" t="n">
-        <v>93.18137099628512</v>
+        <v>69.1165031022593</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>43.85306967858232</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>54.05308456934451</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>41.47721650732744</v>
       </c>
       <c r="G12" t="n">
-        <v>32.26016863753156</v>
+        <v>135.852164523588</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>31.62801798308291</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,16 +1494,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>7.563150089057132</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>40.3899540388264</v>
+        <v>40.38995403882643</v>
       </c>
       <c r="T12" t="n">
-        <v>90.56153510783017</v>
+        <v>194.1535309938866</v>
       </c>
       <c r="U12" t="n">
-        <v>122.25127088968</v>
+        <v>225.8432667757365</v>
       </c>
       <c r="V12" t="n">
         <v>129.2085912633688</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>76.23998429588083</v>
+        <v>76.23998429588086</v>
       </c>
       <c r="C13" t="n">
-        <v>63.65482521257137</v>
+        <v>63.6548252125714</v>
       </c>
       <c r="D13" t="n">
-        <v>45.02347713215589</v>
+        <v>45.02347713215592</v>
       </c>
       <c r="E13" t="n">
-        <v>42.8419667605127</v>
+        <v>42.84196676051273</v>
       </c>
       <c r="F13" t="n">
-        <v>41.82905213687478</v>
+        <v>41.82905213687481</v>
       </c>
       <c r="G13" t="n">
-        <v>63.14868351712479</v>
+        <v>63.14868351712482</v>
       </c>
       <c r="H13" t="n">
-        <v>47.51887338264308</v>
+        <v>47.51887338264311</v>
       </c>
       <c r="I13" t="n">
-        <v>14.25854947703822</v>
+        <v>14.25854947703824</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>17.48336295654438</v>
+        <v>17.48336295654439</v>
       </c>
       <c r="S13" t="n">
-        <v>98.63528383939777</v>
+        <v>98.6352838393978</v>
       </c>
       <c r="T13" t="n">
-        <v>119.0114028242211</v>
+        <v>119.0114028242212</v>
       </c>
       <c r="U13" t="n">
         <v>182.6588352910557</v>
@@ -1594,7 +1594,7 @@
         <v>122.1176595029807</v>
       </c>
       <c r="Y13" t="n">
-        <v>114.9926574660383</v>
+        <v>114.9926574660384</v>
       </c>
     </row>
     <row r="14">
@@ -1607,19 +1607,19 @@
         <v>279.1418457774241</v>
       </c>
       <c r="C14" t="n">
-        <v>261.6808958849511</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>251.0910457346265</v>
       </c>
       <c r="E14" t="n">
-        <v>278.3383741862053</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>303.284049855655</v>
       </c>
       <c r="G14" t="n">
-        <v>198.6311873683939</v>
+        <v>308.9234123546363</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1658,19 +1658,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>107.3023197792036</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>147.5306706798247</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>172.7719579201734</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>245.6489728313566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>266.1391047924126</v>
       </c>
       <c r="Y14" t="n">
         <v>282.6459427699971</v>
@@ -1698,13 +1698,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>32.26016863753156</v>
+        <v>125.4785064581317</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>38.04962311002274</v>
+        <v>38.04962311002273</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,16 +1731,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>7.563150089057132</v>
+        <v>7.563150089057117</v>
       </c>
       <c r="S15" t="n">
-        <v>40.3899540388264</v>
+        <v>40.38995403882643</v>
       </c>
       <c r="T15" t="n">
-        <v>90.56153510783017</v>
+        <v>90.5615351078302</v>
       </c>
       <c r="U15" t="n">
-        <v>215.4696087102798</v>
+        <v>122.2512708896801</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>76.23998429588083</v>
+        <v>76.23998429588086</v>
       </c>
       <c r="C16" t="n">
-        <v>63.65482521257137</v>
+        <v>63.6548252125714</v>
       </c>
       <c r="D16" t="n">
-        <v>45.02347713215589</v>
+        <v>45.02347713215592</v>
       </c>
       <c r="E16" t="n">
-        <v>42.8419667605127</v>
+        <v>42.84196676051273</v>
       </c>
       <c r="F16" t="n">
-        <v>41.82905213687478</v>
+        <v>41.82905213687481</v>
       </c>
       <c r="G16" t="n">
-        <v>63.14868351712479</v>
+        <v>63.14868351712482</v>
       </c>
       <c r="H16" t="n">
-        <v>47.51887338264308</v>
+        <v>47.51887338264311</v>
       </c>
       <c r="I16" t="n">
-        <v>14.25854947703822</v>
+        <v>14.25854947703824</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>17.48336295654438</v>
+        <v>17.48336295654439</v>
       </c>
       <c r="S16" t="n">
-        <v>98.63528383939777</v>
+        <v>98.6352838393978</v>
       </c>
       <c r="T16" t="n">
-        <v>119.0114028242211</v>
+        <v>119.0114028242212</v>
       </c>
       <c r="U16" t="n">
         <v>182.6588352910557</v>
@@ -1831,7 +1831,7 @@
         <v>122.1176595029807</v>
       </c>
       <c r="Y16" t="n">
-        <v>114.9926574660383</v>
+        <v>114.9926574660384</v>
       </c>
     </row>
     <row r="17">
@@ -1844,16 +1844,16 @@
         <v>199.8331492527603</v>
       </c>
       <c r="C17" t="n">
-        <v>182.3721993602872</v>
+        <v>182.3721993602873</v>
       </c>
       <c r="D17" t="n">
-        <v>171.7823492099626</v>
+        <v>171.7823492099627</v>
       </c>
       <c r="E17" t="n">
         <v>199.0296776615415</v>
       </c>
       <c r="F17" t="n">
-        <v>223.9753533309911</v>
+        <v>201.4107726597029</v>
       </c>
       <c r="G17" t="n">
         <v>229.6147158299724</v>
@@ -1895,10 +1895,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>5.429042583252365</v>
+        <v>27.99362325453981</v>
       </c>
       <c r="U17" t="n">
-        <v>68.22197415516078</v>
+        <v>68.22197415516081</v>
       </c>
       <c r="V17" t="n">
         <v>144.8515660594146</v>
@@ -1935,13 +1935,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>135.852164523588</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>97.83211742750971</v>
       </c>
       <c r="I18" t="n">
-        <v>38.04962311002274</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,16 +1968,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>7.563150089057132</v>
+        <v>7.563150089057117</v>
       </c>
       <c r="S18" t="n">
-        <v>141.5851611355653</v>
+        <v>128.851194705211</v>
       </c>
       <c r="T18" t="n">
-        <v>11.25283858316631</v>
+        <v>11.25283858316634</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8432667757365</v>
+        <v>42.94257436501619</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -1999,31 +1999,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>36.43249919707519</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.7406794031812</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>151.1108692686995</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>4.962973278552994</v>
+        <v>4.96297327855298</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2053,22 +2053,22 @@
         <v>202.2272797254543</v>
       </c>
       <c r="T19" t="n">
-        <v>39.70270629955728</v>
+        <v>127.2794666414737</v>
       </c>
       <c r="U19" t="n">
         <v>103.3501387663918</v>
       </c>
       <c r="V19" t="n">
-        <v>69.23695091310768</v>
+        <v>69.23695091310771</v>
       </c>
       <c r="W19" t="n">
         <v>103.6223059258707</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>42.80896297831686</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>35.68396094137449</v>
       </c>
     </row>
     <row r="20">
@@ -2081,10 +2081,10 @@
         <v>199.8331492527603</v>
       </c>
       <c r="C20" t="n">
-        <v>182.3721993602872</v>
+        <v>182.3721993602873</v>
       </c>
       <c r="D20" t="n">
-        <v>171.7823492099626</v>
+        <v>171.7823492099627</v>
       </c>
       <c r="E20" t="n">
         <v>199.0296776615415</v>
@@ -2132,19 +2132,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>27.99362325453978</v>
+        <v>27.99362325453981</v>
       </c>
       <c r="U20" t="n">
-        <v>68.22197415516078</v>
+        <v>68.22197415516081</v>
       </c>
       <c r="V20" t="n">
-        <v>144.8515660594146</v>
+        <v>122.286985388127</v>
       </c>
       <c r="W20" t="n">
         <v>166.3402763066927</v>
       </c>
       <c r="X20" t="n">
-        <v>164.2658275964611</v>
+        <v>186.8304082677487</v>
       </c>
       <c r="Y20" t="n">
         <v>203.3372462453333</v>
@@ -2178,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>38.04962311002274</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,13 +2205,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>7.563150089057132</v>
+        <v>4.297241923925507</v>
       </c>
       <c r="S21" t="n">
-        <v>141.5851611355653</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>11.25283858316631</v>
+        <v>194.1535309938866</v>
       </c>
       <c r="U21" t="n">
         <v>225.8432667757365</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,16 +2251,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.7406794031812</v>
       </c>
       <c r="H22" t="n">
-        <v>55.28079550444872</v>
+        <v>151.1108692686995</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>4.962973278552994</v>
+        <v>4.96297327855298</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>19.32658731473392</v>
+        <v>202.2272797254543</v>
       </c>
       <c r="T22" t="n">
-        <v>39.70270629955728</v>
+        <v>127.2794666414737</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2508311771121</v>
+        <v>103.3501387663918</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>69.23695091310771</v>
       </c>
       <c r="W22" t="n">
         <v>103.6223059258707</v>
       </c>
       <c r="X22" t="n">
-        <v>42.80896297831683</v>
+        <v>42.80896297831686</v>
       </c>
       <c r="Y22" t="n">
-        <v>35.68396094137447</v>
+        <v>35.68396094137449</v>
       </c>
     </row>
     <row r="23">
@@ -2318,10 +2318,10 @@
         <v>199.8331492527603</v>
       </c>
       <c r="C23" t="n">
-        <v>182.3721993602872</v>
+        <v>182.3721993602873</v>
       </c>
       <c r="D23" t="n">
-        <v>171.7823492099626</v>
+        <v>171.7823492099627</v>
       </c>
       <c r="E23" t="n">
         <v>199.0296776615415</v>
@@ -2369,10 +2369,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>27.99362325453978</v>
+        <v>27.99362325453981</v>
       </c>
       <c r="U23" t="n">
-        <v>68.22197415516078</v>
+        <v>68.22197415516081</v>
       </c>
       <c r="V23" t="n">
         <v>144.8515660594146</v>
@@ -2409,13 +2409,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>135.852164523588</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>19.29867250615589</v>
       </c>
       <c r="I24" t="n">
-        <v>38.04962311002274</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,13 +2442,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>7.563150089057132</v>
+        <v>7.563150089057117</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>39.55041586643199</v>
+        <v>194.1535309938866</v>
       </c>
       <c r="U24" t="n">
         <v>225.8432667757365</v>
@@ -2473,31 +2473,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>55.15508273795045</v>
+        <v>166.7406794031812</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>151.1108692686995</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>4.962973278552994</v>
+        <v>4.96297327855298</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>121.0753588426008</v>
       </c>
       <c r="S25" t="n">
-        <v>19.32658731473392</v>
+        <v>19.32658731473395</v>
       </c>
       <c r="T25" t="n">
-        <v>39.70270629955728</v>
+        <v>39.7027062995573</v>
       </c>
       <c r="U25" t="n">
         <v>103.3501387663918</v>
       </c>
       <c r="V25" t="n">
-        <v>69.23695091310768</v>
+        <v>72.20508217657449</v>
       </c>
       <c r="W25" t="n">
         <v>103.6223059258707</v>
       </c>
       <c r="X25" t="n">
-        <v>42.80896297831683</v>
+        <v>42.80896297831686</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>35.68396094137449</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>231.6203696592209</v>
       </c>
       <c r="I26" t="n">
-        <v>23.70868119280452</v>
+        <v>23.70868119280451</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>66.19510722022713</v>
+        <v>66.1951072202271</v>
       </c>
       <c r="T26" t="n">
         <v>131.5856191405963</v>
@@ -2652,7 +2652,7 @@
         <v>97.83211742750971</v>
       </c>
       <c r="I27" t="n">
-        <v>38.04962311002274</v>
+        <v>38.04962311002273</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>7.563150089057132</v>
+        <v>7.563150089057117</v>
       </c>
       <c r="S27" t="n">
         <v>143.9819499248829</v>
@@ -2731,7 +2731,7 @@
         <v>71.8021727440357</v>
       </c>
       <c r="I28" t="n">
-        <v>38.54184883843084</v>
+        <v>38.54184883843083</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.766662317937</v>
+        <v>41.76666231793698</v>
       </c>
       <c r="S28" t="n">
         <v>122.9185832007904</v>
@@ -2810,7 +2810,7 @@
         <v>231.6203696592209</v>
       </c>
       <c r="I29" t="n">
-        <v>23.70868119280453</v>
+        <v>23.70868119280451</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>66.19510722022713</v>
+        <v>66.1951072202271</v>
       </c>
       <c r="T29" t="n">
         <v>131.5856191405963</v>
@@ -2886,10 +2886,10 @@
         <v>135.852164523588</v>
       </c>
       <c r="H30" t="n">
-        <v>97.83211742750973</v>
+        <v>97.83211742750971</v>
       </c>
       <c r="I30" t="n">
-        <v>38.04962311002275</v>
+        <v>38.04962311002273</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>7.563150089057146</v>
+        <v>7.563150089057117</v>
       </c>
       <c r="S30" t="n">
         <v>143.9819499248829</v>
@@ -2965,7 +2965,7 @@
         <v>87.4319828785174</v>
       </c>
       <c r="H31" t="n">
-        <v>71.8021727440357</v>
+        <v>71.80217274403569</v>
       </c>
       <c r="I31" t="n">
         <v>38.54184883843084</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.766662317937</v>
+        <v>41.76666231793698</v>
       </c>
       <c r="S31" t="n">
         <v>122.9185832007904</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>303.4251451388168</v>
+        <v>303.4251451388167</v>
       </c>
       <c r="C32" t="n">
-        <v>285.9641952463438</v>
+        <v>285.9641952463437</v>
       </c>
       <c r="D32" t="n">
-        <v>275.3743450960192</v>
+        <v>275.3743450960191</v>
       </c>
       <c r="E32" t="n">
-        <v>302.621673547598</v>
+        <v>302.6216735475979</v>
       </c>
       <c r="F32" t="n">
         <v>327.5673492170476</v>
       </c>
       <c r="G32" t="n">
-        <v>333.206711716029</v>
+        <v>333.2067117160289</v>
       </c>
       <c r="H32" t="n">
-        <v>231.620369659221</v>
+        <v>231.6203696592209</v>
       </c>
       <c r="I32" t="n">
-        <v>23.70868119280459</v>
+        <v>23.70868119280449</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.19510722022719</v>
+        <v>66.19510722022709</v>
       </c>
       <c r="T32" t="n">
-        <v>131.5856191405963</v>
+        <v>131.5856191405962</v>
       </c>
       <c r="U32" t="n">
         <v>171.8139700412173</v>
@@ -3095,7 +3095,7 @@
         <v>290.4224041538052</v>
       </c>
       <c r="Y32" t="n">
-        <v>306.9292421313898</v>
+        <v>306.9292421313897</v>
       </c>
     </row>
     <row r="33">
@@ -3123,10 +3123,10 @@
         <v>135.852164523588</v>
       </c>
       <c r="H33" t="n">
-        <v>97.83211742750973</v>
+        <v>97.83211742750971</v>
       </c>
       <c r="I33" t="n">
-        <v>38.04962311002275</v>
+        <v>38.04962311002273</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>7.563150089057146</v>
+        <v>7.563150089057117</v>
       </c>
       <c r="S33" t="n">
         <v>143.9819499248829</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>100.5232836572735</v>
+        <v>100.5232836572734</v>
       </c>
       <c r="C34" t="n">
-        <v>87.93812457396405</v>
+        <v>87.93812457396398</v>
       </c>
       <c r="D34" t="n">
-        <v>69.30677649354857</v>
+        <v>69.3067764935485</v>
       </c>
       <c r="E34" t="n">
-        <v>67.12526612190538</v>
+        <v>67.12526612190531</v>
       </c>
       <c r="F34" t="n">
-        <v>66.11235149826746</v>
+        <v>66.11235149826739</v>
       </c>
       <c r="G34" t="n">
-        <v>87.43198287851746</v>
+        <v>87.43198287851739</v>
       </c>
       <c r="H34" t="n">
-        <v>71.80217274403576</v>
+        <v>71.80217274403569</v>
       </c>
       <c r="I34" t="n">
-        <v>38.5418488384309</v>
+        <v>38.54184883843082</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.76666231793706</v>
+        <v>41.76666231793697</v>
       </c>
       <c r="S34" t="n">
-        <v>122.9185832007905</v>
+        <v>122.9185832007904</v>
       </c>
       <c r="T34" t="n">
-        <v>143.2947021856138</v>
+        <v>143.2947021856137</v>
       </c>
       <c r="U34" t="n">
         <v>206.9421346524483</v>
@@ -3250,10 +3250,10 @@
         <v>207.2143018119272</v>
       </c>
       <c r="X34" t="n">
-        <v>146.4009588643734</v>
+        <v>146.4009588643733</v>
       </c>
       <c r="Y34" t="n">
-        <v>139.275956827431</v>
+        <v>139.2759568274309</v>
       </c>
     </row>
     <row r="35">
@@ -3360,10 +3360,10 @@
         <v>135.852164523588</v>
       </c>
       <c r="H36" t="n">
-        <v>97.83211742750973</v>
+        <v>97.83211742750971</v>
       </c>
       <c r="I36" t="n">
-        <v>38.04962311002275</v>
+        <v>38.04962311002273</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>7.563150089057146</v>
+        <v>7.563150089057117</v>
       </c>
       <c r="S36" t="n">
         <v>143.9819499248829</v>
@@ -3421,13 +3421,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>27.42491719274372</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>14.83975810943426</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>14.33361641398768</v>
+        <v>52.14048337359577</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3445,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>4.96297327855298</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3469,19 +3469,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>15.22972606254874</v>
+        <v>121.0753588426008</v>
       </c>
       <c r="S37" t="n">
-        <v>49.82021673626068</v>
+        <v>49.82021673626066</v>
       </c>
       <c r="T37" t="n">
         <v>70.19633572108403</v>
       </c>
       <c r="U37" t="n">
-        <v>133.8437681879185</v>
+        <v>286.2508311771121</v>
       </c>
       <c r="V37" t="n">
-        <v>99.73058033463442</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>134.1159353473974</v>
@@ -3597,10 +3597,10 @@
         <v>135.852164523588</v>
       </c>
       <c r="H39" t="n">
-        <v>97.83211742750973</v>
+        <v>97.83211742750971</v>
       </c>
       <c r="I39" t="n">
-        <v>38.04962311002275</v>
+        <v>38.04962311002273</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>7.563150089057146</v>
+        <v>7.563150089057117</v>
       </c>
       <c r="S39" t="n">
         <v>143.9819499248829</v>
@@ -3658,22 +3658,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>27.42491719274372</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>14.83975810943426</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>6.4751628130153</v>
       </c>
       <c r="G40" t="n">
-        <v>14.33361641398768</v>
+        <v>166.7406794031812</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3682,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>4.962973278553008</v>
+        <v>4.96297327855298</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>49.82021673626068</v>
+        <v>49.82021673626066</v>
       </c>
       <c r="T40" t="n">
         <v>70.19633572108403</v>
       </c>
       <c r="U40" t="n">
-        <v>133.8437681879185</v>
+        <v>286.2508311771121</v>
       </c>
       <c r="V40" t="n">
         <v>99.73058033463442</v>
       </c>
       <c r="W40" t="n">
-        <v>134.1159353473974</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>73.30259239984358</v>
       </c>
       <c r="Y40" t="n">
-        <v>76.444343146897</v>
+        <v>66.17759036290121</v>
       </c>
     </row>
     <row r="41">
@@ -3834,10 +3834,10 @@
         <v>135.852164523588</v>
       </c>
       <c r="H42" t="n">
-        <v>97.83211742750973</v>
+        <v>97.83211742751082</v>
       </c>
       <c r="I42" t="n">
-        <v>38.04962311002275</v>
+        <v>38.04962311002273</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>7.563150089057146</v>
+        <v>7.563150089057117</v>
       </c>
       <c r="S42" t="n">
         <v>143.9819499248829</v>
@@ -3898,28 +3898,28 @@
         <v>27.42491719274372</v>
       </c>
       <c r="C43" t="n">
-        <v>38.06562620231691</v>
+        <v>14.83975810943426</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>14.33361641398768</v>
+        <v>55.36529685310174</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>117.8505453630947</v>
       </c>
       <c r="J43" t="n">
-        <v>4.962973278553008</v>
+        <v>4.96297327855298</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3946,10 +3946,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>49.82021673626068</v>
+        <v>202.2272797254543</v>
       </c>
       <c r="T43" t="n">
-        <v>70.19633572108403</v>
+        <v>222.6033987102776</v>
       </c>
       <c r="U43" t="n">
         <v>133.8437681879185</v>
@@ -4071,10 +4071,10 @@
         <v>135.852164523588</v>
       </c>
       <c r="H45" t="n">
-        <v>97.83211742750973</v>
+        <v>97.83211742750971</v>
       </c>
       <c r="I45" t="n">
-        <v>38.04962311002275</v>
+        <v>38.04962311002273</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>7.563150089057146</v>
+        <v>7.563150089057117</v>
       </c>
       <c r="S45" t="n">
         <v>143.9819499248829</v>
@@ -4132,22 +4132,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>27.42491719274372</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>14.83975810943426</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>10.26675278399577</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>14.33361641398768</v>
+        <v>33.76789453588947</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4156,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>4.962973278553008</v>
+        <v>4.96297327855298</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>49.82021673626068</v>
+        <v>202.2272797254543</v>
       </c>
       <c r="T46" t="n">
         <v>70.19633572108403</v>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>777.3325485148498</v>
+        <v>1192.331501658922</v>
       </c>
       <c r="C11" t="n">
-        <v>544.2450247619878</v>
+        <v>928.0073644013953</v>
       </c>
       <c r="D11" t="n">
-        <v>544.2450247619878</v>
+        <v>928.0073644013953</v>
       </c>
       <c r="E11" t="n">
-        <v>544.2450247619878</v>
+        <v>646.8574914860365</v>
       </c>
       <c r="F11" t="n">
-        <v>237.8974996552656</v>
+        <v>340.5099663793141</v>
       </c>
       <c r="G11" t="n">
-        <v>237.8974996552656</v>
+        <v>28.46611551604506</v>
       </c>
       <c r="H11" t="n">
         <v>28.46611551604506</v>
@@ -5039,19 +5039,19 @@
         <v>28.46611551604506</v>
       </c>
       <c r="J11" t="n">
-        <v>83.43604716125765</v>
+        <v>83.4360471612577</v>
       </c>
       <c r="K11" t="n">
-        <v>216.5602434586312</v>
+        <v>216.5602434586308</v>
       </c>
       <c r="L11" t="n">
-        <v>418.6143424701345</v>
+        <v>418.6143424701346</v>
       </c>
       <c r="M11" t="n">
-        <v>675.1078967214453</v>
+        <v>675.1078967214454</v>
       </c>
       <c r="N11" t="n">
-        <v>940.3655932151303</v>
+        <v>940.3655932151304</v>
       </c>
       <c r="O11" t="n">
         <v>1177.505652943962</v>
@@ -5066,25 +5066,25 @@
         <v>1423.305775802253</v>
       </c>
       <c r="S11" t="n">
-        <v>1380.970616348885</v>
+        <v>1423.305775802253</v>
       </c>
       <c r="T11" t="n">
-        <v>1272.58443475373</v>
+        <v>1423.305775802253</v>
       </c>
       <c r="U11" t="n">
-        <v>1272.58443475373</v>
+        <v>1423.305775802253</v>
       </c>
       <c r="V11" t="n">
-        <v>1046.159927093044</v>
+        <v>1423.305775802253</v>
       </c>
       <c r="W11" t="n">
-        <v>1046.159927093044</v>
+        <v>1423.305775802253</v>
       </c>
       <c r="X11" t="n">
-        <v>777.3325485148498</v>
+        <v>1423.305775802253</v>
       </c>
       <c r="Y11" t="n">
-        <v>777.3325485148498</v>
+        <v>1423.305775802253</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>609.881164048611</v>
+        <v>408.2439502273426</v>
       </c>
       <c r="C12" t="n">
-        <v>515.7585670826664</v>
+        <v>338.4293006291009</v>
       </c>
       <c r="D12" t="n">
-        <v>366.8241574214152</v>
+        <v>294.1332706507349</v>
       </c>
       <c r="E12" t="n">
-        <v>207.5867024159596</v>
+        <v>239.5341953281646</v>
       </c>
       <c r="F12" t="n">
-        <v>61.05214444284462</v>
+        <v>197.6380170379349</v>
       </c>
       <c r="G12" t="n">
-        <v>28.46611551604506</v>
+        <v>60.41360842825003</v>
       </c>
       <c r="H12" t="n">
-        <v>28.46611551604506</v>
+        <v>60.41360842825003</v>
       </c>
       <c r="I12" t="n">
         <v>28.46611551604506</v>
       </c>
       <c r="J12" t="n">
-        <v>42.38798326520924</v>
+        <v>42.38798326520927</v>
       </c>
       <c r="K12" t="n">
-        <v>144.3374974159254</v>
+        <v>343.25052181869</v>
       </c>
       <c r="L12" t="n">
-        <v>327.7437416982004</v>
+        <v>526.6567661009651</v>
       </c>
       <c r="M12" t="n">
-        <v>561.1270462342089</v>
+        <v>760.0400706369737</v>
       </c>
       <c r="N12" t="n">
-        <v>815.0959573033365</v>
+        <v>1014.008981706101</v>
       </c>
       <c r="O12" t="n">
-        <v>1025.208098878737</v>
+        <v>1224.121123281502</v>
       </c>
       <c r="P12" t="n">
-        <v>1174.508550063332</v>
+        <v>1373.421574466096</v>
       </c>
       <c r="Q12" t="n">
         <v>1423.305775802253</v>
       </c>
       <c r="R12" t="n">
-        <v>1415.666230257751</v>
+        <v>1423.305775802253</v>
       </c>
       <c r="S12" t="n">
-        <v>1374.868296885199</v>
+        <v>1382.507842429701</v>
       </c>
       <c r="T12" t="n">
-        <v>1283.391998796482</v>
+        <v>1186.393164658099</v>
       </c>
       <c r="U12" t="n">
-        <v>1159.905866584684</v>
+        <v>958.2686527634153</v>
       </c>
       <c r="V12" t="n">
-        <v>1029.392138035826</v>
+        <v>827.7549242145578</v>
       </c>
       <c r="W12" t="n">
-        <v>879.7931609905097</v>
+        <v>678.1559471692415</v>
       </c>
       <c r="X12" t="n">
-        <v>776.5800404678622</v>
+        <v>574.942826646594</v>
       </c>
       <c r="Y12" t="n">
-        <v>673.4581213857937</v>
+        <v>471.8209075645253</v>
       </c>
     </row>
     <row r="13">
@@ -5173,49 +5173,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>349.9564464442481</v>
+        <v>349.9564464442487</v>
       </c>
       <c r="C13" t="n">
-        <v>285.6586431992264</v>
+        <v>285.6586431992271</v>
       </c>
       <c r="D13" t="n">
-        <v>240.180383469776</v>
+        <v>240.1803834697766</v>
       </c>
       <c r="E13" t="n">
-        <v>196.9056695702683</v>
+        <v>196.9056695702688</v>
       </c>
       <c r="F13" t="n">
-        <v>154.6541017552433</v>
+        <v>154.6541017552437</v>
       </c>
       <c r="G13" t="n">
-        <v>90.86755274804659</v>
+        <v>90.86755274804696</v>
       </c>
       <c r="H13" t="n">
-        <v>42.8686907453766</v>
+        <v>42.86869074537663</v>
       </c>
       <c r="I13" t="n">
         <v>28.46611551604506</v>
       </c>
       <c r="J13" t="n">
-        <v>28.46611551604506</v>
+        <v>54.10813317477627</v>
       </c>
       <c r="K13" t="n">
-        <v>150.2288194644399</v>
+        <v>278.426913050367</v>
       </c>
       <c r="L13" t="n">
-        <v>464.1256696168242</v>
+        <v>489.7676872755553</v>
       </c>
       <c r="M13" t="n">
-        <v>697.3440069686969</v>
+        <v>722.986024627428</v>
       </c>
       <c r="N13" t="n">
-        <v>930.4515499488099</v>
+        <v>1058.649643534737</v>
       </c>
       <c r="O13" t="n">
-        <v>1129.747799925601</v>
+        <v>1257.945893511529</v>
       </c>
       <c r="P13" t="n">
-        <v>1379.315564970149</v>
+        <v>1404.957582628881</v>
       </c>
       <c r="Q13" t="n">
         <v>1423.305775802253</v>
@@ -5224,25 +5224,25 @@
         <v>1405.645813219885</v>
       </c>
       <c r="S13" t="n">
-        <v>1306.014213382109</v>
+        <v>1306.01421338211</v>
       </c>
       <c r="T13" t="n">
-        <v>1185.800675175825</v>
+        <v>1185.800675175826</v>
       </c>
       <c r="U13" t="n">
-        <v>1001.296801144456</v>
+        <v>1001.296801144457</v>
       </c>
       <c r="V13" t="n">
-        <v>851.2506926214544</v>
+        <v>851.2506926214553</v>
       </c>
       <c r="W13" t="n">
-        <v>666.4719022673792</v>
+        <v>666.47190226738</v>
       </c>
       <c r="X13" t="n">
-        <v>543.1207310522473</v>
+        <v>543.1207310522479</v>
       </c>
       <c r="Y13" t="n">
-        <v>426.9665315916025</v>
+        <v>426.966531591603</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1349.575312935437</v>
+        <v>915.5075906274431</v>
       </c>
       <c r="C14" t="n">
-        <v>1085.251175677911</v>
+        <v>915.5075906274431</v>
       </c>
       <c r="D14" t="n">
-        <v>831.6238567540456</v>
+        <v>661.8802717035778</v>
       </c>
       <c r="E14" t="n">
-        <v>550.4739838386868</v>
+        <v>661.8802717035778</v>
       </c>
       <c r="F14" t="n">
-        <v>244.1264587319642</v>
+        <v>355.5327465968555</v>
       </c>
       <c r="G14" t="n">
-        <v>43.4888957335865</v>
+        <v>43.48889573358652</v>
       </c>
       <c r="H14" t="n">
-        <v>43.4888957335865</v>
+        <v>43.48889573358652</v>
       </c>
       <c r="I14" t="n">
-        <v>43.4888957335865</v>
+        <v>43.48889573358652</v>
       </c>
       <c r="J14" t="n">
-        <v>265.864476399152</v>
+        <v>98.45882737879899</v>
       </c>
       <c r="K14" t="n">
-        <v>398.988672696525</v>
+        <v>231.5830236761721</v>
       </c>
       <c r="L14" t="n">
-        <v>937.163757399658</v>
+        <v>433.6371226876756</v>
       </c>
       <c r="M14" t="n">
-        <v>1401.278657549925</v>
+        <v>690.1306769389864</v>
       </c>
       <c r="N14" t="n">
-        <v>1666.53635404361</v>
+        <v>1137.763792200537</v>
       </c>
       <c r="O14" t="n">
-        <v>1903.676413772441</v>
+        <v>1374.903851929368</v>
       </c>
       <c r="P14" t="n">
-        <v>2071.568967462859</v>
+        <v>1861.377126709554</v>
       </c>
       <c r="Q14" t="n">
         <v>2149.476536630733</v>
       </c>
       <c r="R14" t="n">
-        <v>2174.444786679325</v>
+        <v>2174.444786679326</v>
       </c>
       <c r="S14" t="n">
-        <v>2174.444786679325</v>
+        <v>2174.444786679326</v>
       </c>
       <c r="T14" t="n">
-        <v>2066.05860508417</v>
+        <v>2174.444786679326</v>
       </c>
       <c r="U14" t="n">
-        <v>1917.0377256096</v>
+        <v>2174.444786679326</v>
       </c>
       <c r="V14" t="n">
-        <v>1917.0377256096</v>
+        <v>1999.927657467029</v>
       </c>
       <c r="W14" t="n">
-        <v>1917.0377256096</v>
+        <v>1751.7973818798</v>
       </c>
       <c r="X14" t="n">
-        <v>1917.0377256096</v>
+        <v>1482.970003301606</v>
       </c>
       <c r="Y14" t="n">
-        <v>1631.536773316674</v>
+        <v>1197.46905100868</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>743.6683393187316</v>
+        <v>837.8282765112569</v>
       </c>
       <c r="C15" t="n">
-        <v>569.2153100376046</v>
+        <v>663.37524723013</v>
       </c>
       <c r="D15" t="n">
-        <v>420.2809003763533</v>
+        <v>514.4408375688787</v>
       </c>
       <c r="E15" t="n">
-        <v>261.0434453708978</v>
+        <v>355.2033825634232</v>
       </c>
       <c r="F15" t="n">
-        <v>114.5088873977828</v>
+        <v>208.6688245903082</v>
       </c>
       <c r="G15" t="n">
         <v>81.92285847098321</v>
@@ -5352,34 +5352,34 @@
         <v>81.92285847098321</v>
       </c>
       <c r="I15" t="n">
-        <v>43.4888957335865</v>
+        <v>43.48889573358652</v>
       </c>
       <c r="J15" t="n">
-        <v>182.2408884697554</v>
+        <v>182.2408884697555</v>
       </c>
       <c r="K15" t="n">
-        <v>546.0109872629245</v>
+        <v>546.0109872629246</v>
       </c>
       <c r="L15" t="n">
-        <v>754.541121166009</v>
+        <v>785.6130884855413</v>
       </c>
       <c r="M15" t="n">
-        <v>987.9244257020175</v>
+        <v>1018.99639302155</v>
       </c>
       <c r="N15" t="n">
-        <v>1241.893336771145</v>
+        <v>1557.171477724683</v>
       </c>
       <c r="O15" t="n">
-        <v>1452.005478346546</v>
+        <v>1767.283619300084</v>
       </c>
       <c r="P15" t="n">
         <v>1916.584070484678</v>
       </c>
       <c r="Q15" t="n">
-        <v>2174.444786679325</v>
+        <v>2174.444786679326</v>
       </c>
       <c r="R15" t="n">
-        <v>2166.805241134823</v>
+        <v>2166.805241134824</v>
       </c>
       <c r="S15" t="n">
         <v>2126.007307762271</v>
@@ -5388,19 +5388,19 @@
         <v>2034.531009673554</v>
       </c>
       <c r="U15" t="n">
-        <v>1816.884940269231</v>
+        <v>1911.044877461756</v>
       </c>
       <c r="V15" t="n">
-        <v>1581.732832037488</v>
+        <v>1675.892769230013</v>
       </c>
       <c r="W15" t="n">
-        <v>1327.495475309286</v>
+        <v>1421.655412501812</v>
       </c>
       <c r="X15" t="n">
-        <v>1119.643975103754</v>
+        <v>1213.803912296279</v>
       </c>
       <c r="Y15" t="n">
-        <v>911.8836763387997</v>
+        <v>1006.043613531325</v>
       </c>
     </row>
     <row r="16">
@@ -5410,49 +5410,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>364.9792266617893</v>
+        <v>364.9792266617896</v>
       </c>
       <c r="C16" t="n">
-        <v>300.6814234167678</v>
+        <v>300.681423416768</v>
       </c>
       <c r="D16" t="n">
-        <v>255.2031636873174</v>
+        <v>255.2031636873175</v>
       </c>
       <c r="E16" t="n">
-        <v>211.9284497878096</v>
+        <v>211.9284497878097</v>
       </c>
       <c r="F16" t="n">
-        <v>169.6768819727846</v>
+        <v>169.6768819727847</v>
       </c>
       <c r="G16" t="n">
-        <v>105.8903329655878</v>
+        <v>105.8903329655879</v>
       </c>
       <c r="H16" t="n">
-        <v>57.89147096291804</v>
+        <v>57.89147096291807</v>
       </c>
       <c r="I16" t="n">
-        <v>43.4888957335865</v>
+        <v>43.48889573358652</v>
       </c>
       <c r="J16" t="n">
         <v>141.1316281150149</v>
       </c>
       <c r="K16" t="n">
-        <v>262.8943320634098</v>
+        <v>293.4496932679083</v>
       </c>
       <c r="L16" t="n">
-        <v>504.7904674930968</v>
+        <v>504.7904674930966</v>
       </c>
       <c r="M16" t="n">
-        <v>738.0088048449695</v>
+        <v>840.5648807721652</v>
       </c>
       <c r="N16" t="n">
-        <v>971.1163478250825</v>
+        <v>1073.672423752278</v>
       </c>
       <c r="O16" t="n">
-        <v>1170.412597801874</v>
+        <v>1272.96867372907</v>
       </c>
       <c r="P16" t="n">
-        <v>1317.424286919226</v>
+        <v>1419.980362846422</v>
       </c>
       <c r="Q16" t="n">
         <v>1438.328556019795</v>
@@ -5470,16 +5470,16 @@
         <v>1016.319581361998</v>
       </c>
       <c r="V16" t="n">
-        <v>866.2734728389959</v>
+        <v>866.2734728389962</v>
       </c>
       <c r="W16" t="n">
-        <v>681.4946824849205</v>
+        <v>681.4946824849209</v>
       </c>
       <c r="X16" t="n">
-        <v>558.1435112697885</v>
+        <v>558.1435112697889</v>
       </c>
       <c r="Y16" t="n">
-        <v>441.9893118091437</v>
+        <v>441.989311809144</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1189.754218123404</v>
+        <v>1166.961712394831</v>
       </c>
       <c r="C17" t="n">
-        <v>1005.539875335235</v>
+        <v>982.747369606662</v>
       </c>
       <c r="D17" t="n">
-        <v>832.0223508807273</v>
+        <v>809.2298451521542</v>
       </c>
       <c r="E17" t="n">
-        <v>630.9822724347259</v>
+        <v>608.1897667061527</v>
       </c>
       <c r="F17" t="n">
         <v>404.7445417973611</v>
       </c>
       <c r="G17" t="n">
-        <v>172.8104854034495</v>
+        <v>172.8104854034496</v>
       </c>
       <c r="H17" t="n">
-        <v>43.4888957335865</v>
+        <v>43.48889573358652</v>
       </c>
       <c r="I17" t="n">
-        <v>43.4888957335865</v>
+        <v>43.48889573358652</v>
       </c>
       <c r="J17" t="n">
         <v>265.864476399152</v>
       </c>
       <c r="K17" t="n">
-        <v>438.9266924926294</v>
+        <v>719.8926311419782</v>
       </c>
       <c r="L17" t="n">
-        <v>640.9807915041329</v>
+        <v>921.9467301534818</v>
       </c>
       <c r="M17" t="n">
-        <v>897.4743457554437</v>
+        <v>1178.440284404793</v>
       </c>
       <c r="N17" t="n">
-        <v>1162.732042249129</v>
+        <v>1443.697980898478</v>
       </c>
       <c r="O17" t="n">
-        <v>1399.87210197796</v>
+        <v>1680.838040627309</v>
       </c>
       <c r="P17" t="n">
-        <v>1886.345376758146</v>
+        <v>1861.377126709554</v>
       </c>
       <c r="Q17" t="n">
-        <v>2174.444786679325</v>
+        <v>2149.476536630733</v>
       </c>
       <c r="R17" t="n">
-        <v>2174.444786679325</v>
+        <v>2174.444786679326</v>
       </c>
       <c r="S17" t="n">
-        <v>2174.444786679325</v>
+        <v>2174.444786679326</v>
       </c>
       <c r="T17" t="n">
-        <v>2168.960905282101</v>
+        <v>2146.168399553528</v>
       </c>
       <c r="U17" t="n">
-        <v>2100.049820276889</v>
+        <v>2077.257314548315</v>
       </c>
       <c r="V17" t="n">
-        <v>1953.735107085561</v>
+        <v>1930.942601356987</v>
       </c>
       <c r="W17" t="n">
-        <v>1785.714625967689</v>
+        <v>1762.922120239116</v>
       </c>
       <c r="X17" t="n">
-        <v>1596.997041858852</v>
+        <v>1574.204536130279</v>
       </c>
       <c r="Y17" t="n">
-        <v>1391.605884035283</v>
+        <v>1368.81337830671</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>711.082310391932</v>
+        <v>908.6930768980684</v>
       </c>
       <c r="C18" t="n">
-        <v>536.629281110805</v>
+        <v>734.2400476169414</v>
       </c>
       <c r="D18" t="n">
-        <v>387.6948714495537</v>
+        <v>585.3056379556901</v>
       </c>
       <c r="E18" t="n">
-        <v>228.4574164440982</v>
+        <v>426.0681829502346</v>
       </c>
       <c r="F18" t="n">
-        <v>81.92285847098321</v>
+        <v>279.5336249771196</v>
       </c>
       <c r="G18" t="n">
-        <v>81.92285847098321</v>
+        <v>142.3092163674347</v>
       </c>
       <c r="H18" t="n">
-        <v>81.92285847098321</v>
+        <v>43.48889573358652</v>
       </c>
       <c r="I18" t="n">
-        <v>43.4888957335865</v>
+        <v>43.48889573358652</v>
       </c>
       <c r="J18" t="n">
-        <v>182.2408884697554</v>
+        <v>182.2408884697555</v>
       </c>
       <c r="K18" t="n">
-        <v>546.0109872629245</v>
+        <v>546.0109872629246</v>
       </c>
       <c r="L18" t="n">
-        <v>754.541121166009</v>
+        <v>729.4172315451997</v>
       </c>
       <c r="M18" t="n">
-        <v>987.9244257020175</v>
+        <v>1267.592316248333</v>
       </c>
       <c r="N18" t="n">
-        <v>1241.893336771145</v>
+        <v>1521.56122731746</v>
       </c>
       <c r="O18" t="n">
-        <v>1452.005478346546</v>
+        <v>1731.673368892861</v>
       </c>
       <c r="P18" t="n">
         <v>1916.584070484678</v>
       </c>
       <c r="Q18" t="n">
-        <v>2174.444786679325</v>
+        <v>2174.444786679326</v>
       </c>
       <c r="R18" t="n">
-        <v>2166.805241134823</v>
+        <v>2166.805241134824</v>
       </c>
       <c r="S18" t="n">
-        <v>2023.789926856474</v>
+        <v>2036.652519210368</v>
       </c>
       <c r="T18" t="n">
-        <v>2012.423423237114</v>
+        <v>2025.286015591008</v>
       </c>
       <c r="U18" t="n">
-        <v>1784.298911342431</v>
+        <v>1981.909677848567</v>
       </c>
       <c r="V18" t="n">
-        <v>1549.146803110688</v>
+        <v>1746.757569616825</v>
       </c>
       <c r="W18" t="n">
-        <v>1294.909446382487</v>
+        <v>1492.520212888623</v>
       </c>
       <c r="X18" t="n">
-        <v>1087.057946176954</v>
+        <v>1284.66871268309</v>
       </c>
       <c r="Y18" t="n">
-        <v>879.2976474120001</v>
+        <v>1076.908413918136</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>198.6186394676929</v>
+        <v>516.4541179289048</v>
       </c>
       <c r="C19" t="n">
-        <v>198.6186394676929</v>
+        <v>516.4541179289048</v>
       </c>
       <c r="D19" t="n">
-        <v>48.5020000553572</v>
+        <v>516.4541179289048</v>
       </c>
       <c r="E19" t="n">
-        <v>48.5020000553572</v>
+        <v>516.4541179289048</v>
       </c>
       <c r="F19" t="n">
-        <v>48.5020000553572</v>
+        <v>369.5641704309944</v>
       </c>
       <c r="G19" t="n">
-        <v>48.5020000553572</v>
+        <v>201.1392417409123</v>
       </c>
       <c r="H19" t="n">
         <v>48.5020000553572</v>
@@ -5671,7 +5671,7 @@
         <v>48.5020000553572</v>
       </c>
       <c r="J19" t="n">
-        <v>43.4888957335865</v>
+        <v>43.48889573358652</v>
       </c>
       <c r="K19" t="n">
         <v>165.2515996819814</v>
@@ -5683,7 +5683,7 @@
         <v>609.8107112590424</v>
       </c>
       <c r="N19" t="n">
-        <v>842.9182542391553</v>
+        <v>842.9182542391554</v>
       </c>
       <c r="O19" t="n">
         <v>1042.214504215947</v>
@@ -5701,22 +5701,22 @@
         <v>1003.304406986011</v>
       </c>
       <c r="T19" t="n">
-        <v>963.2006632490842</v>
+        <v>874.7392891663408</v>
       </c>
       <c r="U19" t="n">
-        <v>858.8065836870722</v>
+        <v>770.3452096043288</v>
       </c>
       <c r="V19" t="n">
-        <v>788.8702696334282</v>
+        <v>700.4088955506846</v>
       </c>
       <c r="W19" t="n">
-        <v>684.2012737487103</v>
+        <v>595.7398996659667</v>
       </c>
       <c r="X19" t="n">
-        <v>456.2117228506929</v>
+        <v>552.4985229201922</v>
       </c>
       <c r="Y19" t="n">
-        <v>235.4191437071628</v>
+        <v>516.4541179289048</v>
       </c>
     </row>
     <row r="20">
@@ -5732,52 +5732,52 @@
         <v>1005.539875335235</v>
       </c>
       <c r="D20" t="n">
-        <v>832.0223508807271</v>
+        <v>832.0223508807275</v>
       </c>
       <c r="E20" t="n">
-        <v>630.9822724347257</v>
+        <v>630.9822724347259</v>
       </c>
       <c r="F20" t="n">
-        <v>404.7445417973609</v>
+        <v>404.7445417973611</v>
       </c>
       <c r="G20" t="n">
-        <v>172.8104854034495</v>
+        <v>172.8104854034496</v>
       </c>
       <c r="H20" t="n">
-        <v>43.4888957335865</v>
+        <v>43.48889573358652</v>
       </c>
       <c r="I20" t="n">
-        <v>43.4888957335865</v>
+        <v>43.48889573358652</v>
       </c>
       <c r="J20" t="n">
         <v>265.864476399152</v>
       </c>
       <c r="K20" t="n">
-        <v>475.825883130575</v>
+        <v>450.8576330819828</v>
       </c>
       <c r="L20" t="n">
-        <v>677.8799821420785</v>
+        <v>652.9117320934864</v>
       </c>
       <c r="M20" t="n">
-        <v>1216.055066845212</v>
+        <v>1191.08681679662</v>
       </c>
       <c r="N20" t="n">
-        <v>1481.312763338897</v>
+        <v>1456.344513290305</v>
       </c>
       <c r="O20" t="n">
-        <v>1718.452823067728</v>
+        <v>1693.484573019136</v>
       </c>
       <c r="P20" t="n">
-        <v>1886.345376758146</v>
+        <v>1861.377126709554</v>
       </c>
       <c r="Q20" t="n">
-        <v>2174.444786679325</v>
+        <v>2149.476536630733</v>
       </c>
       <c r="R20" t="n">
-        <v>2174.444786679325</v>
+        <v>2174.444786679326</v>
       </c>
       <c r="S20" t="n">
-        <v>2174.444786679325</v>
+        <v>2174.444786679326</v>
       </c>
       <c r="T20" t="n">
         <v>2146.168399553528</v>
@@ -5786,10 +5786,10 @@
         <v>2077.257314548315</v>
       </c>
       <c r="V20" t="n">
-        <v>1930.942601356987</v>
+        <v>1953.735107085561</v>
       </c>
       <c r="W20" t="n">
-        <v>1762.922120239115</v>
+        <v>1785.714625967689</v>
       </c>
       <c r="X20" t="n">
         <v>1596.997041858852</v>
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>711.082310391932</v>
+        <v>672.6483476545353</v>
       </c>
       <c r="C21" t="n">
-        <v>536.629281110805</v>
+        <v>498.1953183734083</v>
       </c>
       <c r="D21" t="n">
-        <v>387.6948714495537</v>
+        <v>349.2609087121571</v>
       </c>
       <c r="E21" t="n">
-        <v>228.4574164440982</v>
+        <v>190.0234537067016</v>
       </c>
       <c r="F21" t="n">
-        <v>81.92285847098321</v>
+        <v>43.48889573358652</v>
       </c>
       <c r="G21" t="n">
-        <v>81.92285847098321</v>
+        <v>43.48889573358652</v>
       </c>
       <c r="H21" t="n">
-        <v>81.92285847098321</v>
+        <v>43.48889573358652</v>
       </c>
       <c r="I21" t="n">
-        <v>43.4888957335865</v>
+        <v>43.48889573358652</v>
       </c>
       <c r="J21" t="n">
-        <v>182.2408884697554</v>
+        <v>182.2408884697555</v>
       </c>
       <c r="K21" t="n">
-        <v>546.0109872629245</v>
+        <v>546.0109872629246</v>
       </c>
       <c r="L21" t="n">
-        <v>754.541121166009</v>
+        <v>754.5411211660089</v>
       </c>
       <c r="M21" t="n">
         <v>987.9244257020175</v>
@@ -5850,31 +5850,31 @@
         <v>1916.584070484678</v>
       </c>
       <c r="Q21" t="n">
-        <v>2174.444786679325</v>
+        <v>2174.444786679326</v>
       </c>
       <c r="R21" t="n">
-        <v>2166.805241134823</v>
+        <v>2170.10413827132</v>
       </c>
       <c r="S21" t="n">
-        <v>2023.789926856474</v>
+        <v>2170.10413827132</v>
       </c>
       <c r="T21" t="n">
-        <v>2012.423423237114</v>
+        <v>1973.989460499718</v>
       </c>
       <c r="U21" t="n">
-        <v>1784.298911342431</v>
+        <v>1745.864948605034</v>
       </c>
       <c r="V21" t="n">
-        <v>1549.146803110688</v>
+        <v>1510.712840373292</v>
       </c>
       <c r="W21" t="n">
-        <v>1294.909446382487</v>
+        <v>1256.47548364509</v>
       </c>
       <c r="X21" t="n">
-        <v>1087.057946176954</v>
+        <v>1048.623983439557</v>
       </c>
       <c r="Y21" t="n">
-        <v>879.2976474120001</v>
+        <v>840.8636846746033</v>
       </c>
     </row>
     <row r="22">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>420.1673178594055</v>
+        <v>516.4541179289048</v>
       </c>
       <c r="C22" t="n">
-        <v>251.2311349314986</v>
+        <v>516.4541179289048</v>
       </c>
       <c r="D22" t="n">
-        <v>251.2311349314986</v>
+        <v>516.4541179289048</v>
       </c>
       <c r="E22" t="n">
-        <v>251.2311349314986</v>
+        <v>516.4541179289048</v>
       </c>
       <c r="F22" t="n">
-        <v>104.3411874335882</v>
+        <v>369.5641704309944</v>
       </c>
       <c r="G22" t="n">
-        <v>104.3411874335882</v>
+        <v>201.1392417409123</v>
       </c>
       <c r="H22" t="n">
         <v>48.5020000553572</v>
@@ -5908,7 +5908,7 @@
         <v>48.5020000553572</v>
       </c>
       <c r="J22" t="n">
-        <v>43.4888957335865</v>
+        <v>43.48889573358652</v>
       </c>
       <c r="K22" t="n">
         <v>165.2515996819814</v>
@@ -5920,7 +5920,7 @@
         <v>609.8107112590424</v>
       </c>
       <c r="N22" t="n">
-        <v>842.9182542391553</v>
+        <v>842.9182542391554</v>
       </c>
       <c r="O22" t="n">
         <v>1042.214504215947</v>
@@ -5935,25 +5935,25 @@
         <v>1207.574386506672</v>
       </c>
       <c r="S22" t="n">
-        <v>1188.052581138253</v>
+        <v>1003.304406986011</v>
       </c>
       <c r="T22" t="n">
-        <v>1147.948837401327</v>
+        <v>874.7392891663408</v>
       </c>
       <c r="U22" t="n">
-        <v>858.8065836870721</v>
+        <v>770.3452096043288</v>
       </c>
       <c r="V22" t="n">
-        <v>604.1220954811853</v>
+        <v>700.4088955506846</v>
       </c>
       <c r="W22" t="n">
-        <v>499.4530995964674</v>
+        <v>595.7398996659667</v>
       </c>
       <c r="X22" t="n">
-        <v>456.2117228506929</v>
+        <v>552.4985229201922</v>
       </c>
       <c r="Y22" t="n">
-        <v>420.1673178594055</v>
+        <v>516.4541179289048</v>
       </c>
     </row>
     <row r="23">
@@ -5972,7 +5972,7 @@
         <v>832.4875040588615</v>
       </c>
       <c r="E23" t="n">
-        <v>631.4474256128601</v>
+        <v>631.4474256128603</v>
       </c>
       <c r="F23" t="n">
         <v>405.2096949754955</v>
@@ -5981,40 +5981,40 @@
         <v>173.2756385815837</v>
       </c>
       <c r="H23" t="n">
-        <v>43.95404891172068</v>
+        <v>43.95404891172067</v>
       </c>
       <c r="I23" t="n">
-        <v>43.95404891172068</v>
+        <v>43.95404891172067</v>
       </c>
       <c r="J23" t="n">
-        <v>266.3296295772861</v>
+        <v>266.3296295772862</v>
       </c>
       <c r="K23" t="n">
-        <v>399.4538258746592</v>
+        <v>468.3590214092803</v>
       </c>
       <c r="L23" t="n">
-        <v>601.5079248861626</v>
+        <v>670.4131204207839</v>
       </c>
       <c r="M23" t="n">
-        <v>858.0014791374733</v>
+        <v>1214.344475703327</v>
       </c>
       <c r="N23" t="n">
-        <v>1123.259175631158</v>
+        <v>1479.602172197012</v>
       </c>
       <c r="O23" t="n">
-        <v>1423.129760884669</v>
+        <v>1716.742231925844</v>
       </c>
       <c r="P23" t="n">
-        <v>1909.603035664854</v>
+        <v>1884.634785616262</v>
       </c>
       <c r="Q23" t="n">
-        <v>2197.702445586034</v>
+        <v>2172.734195537441</v>
       </c>
       <c r="R23" t="n">
-        <v>2197.702445586034</v>
+        <v>2197.702445586033</v>
       </c>
       <c r="S23" t="n">
-        <v>2197.702445586034</v>
+        <v>2197.702445586033</v>
       </c>
       <c r="T23" t="n">
         <v>2169.426058460236</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>848.7718721797511</v>
+        <v>692.6071094247461</v>
       </c>
       <c r="C24" t="n">
-        <v>674.3188428986241</v>
+        <v>518.1540801436191</v>
       </c>
       <c r="D24" t="n">
-        <v>525.3844332373728</v>
+        <v>369.2196704823679</v>
       </c>
       <c r="E24" t="n">
-        <v>366.1469782319173</v>
+        <v>209.9822154769124</v>
       </c>
       <c r="F24" t="n">
-        <v>219.6124202588023</v>
+        <v>63.44765750379733</v>
       </c>
       <c r="G24" t="n">
-        <v>82.38801164911739</v>
+        <v>63.44765750379733</v>
       </c>
       <c r="H24" t="n">
-        <v>82.38801164911739</v>
+        <v>43.95404891172067</v>
       </c>
       <c r="I24" t="n">
-        <v>43.95404891172068</v>
+        <v>43.95404891172067</v>
       </c>
       <c r="J24" t="n">
-        <v>182.7060416478896</v>
+        <v>76.63787857765793</v>
       </c>
       <c r="K24" t="n">
-        <v>546.4761404410586</v>
+        <v>178.5873927283742</v>
       </c>
       <c r="L24" t="n">
-        <v>782.5288702797204</v>
+        <v>361.9936370106493</v>
       </c>
       <c r="M24" t="n">
-        <v>1326.460225562264</v>
+        <v>595.3769415466578</v>
       </c>
       <c r="N24" t="n">
-        <v>1580.429136631391</v>
+        <v>1139.308296829201</v>
       </c>
       <c r="O24" t="n">
-        <v>1790.541278206792</v>
+        <v>1683.239652111744</v>
       </c>
       <c r="P24" t="n">
-        <v>1939.841729391386</v>
+        <v>2147.818244249876</v>
       </c>
       <c r="Q24" t="n">
-        <v>2197.702445586034</v>
+        <v>2197.702445586033</v>
       </c>
       <c r="R24" t="n">
-        <v>2190.062900041532</v>
+        <v>2190.062900041531</v>
       </c>
       <c r="S24" t="n">
-        <v>2190.062900041532</v>
+        <v>2190.062900041531</v>
       </c>
       <c r="T24" t="n">
-        <v>2150.112985024934</v>
+        <v>1993.948222269928</v>
       </c>
       <c r="U24" t="n">
-        <v>1921.98847313025</v>
+        <v>1765.823710375245</v>
       </c>
       <c r="V24" t="n">
-        <v>1686.836364898507</v>
+        <v>1530.671602143502</v>
       </c>
       <c r="W24" t="n">
-        <v>1432.599008170306</v>
+        <v>1276.434245415301</v>
       </c>
       <c r="X24" t="n">
-        <v>1224.747507964773</v>
+        <v>1068.582745209768</v>
       </c>
       <c r="Y24" t="n">
-        <v>1016.987209199819</v>
+        <v>860.8224464448142</v>
       </c>
     </row>
     <row r="25">
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>423.7321803595426</v>
+        <v>664.832364689432</v>
       </c>
       <c r="C25" t="n">
-        <v>254.7959974316356</v>
+        <v>664.832364689432</v>
       </c>
       <c r="D25" t="n">
-        <v>104.6793580192999</v>
+        <v>664.832364689432</v>
       </c>
       <c r="E25" t="n">
-        <v>104.6793580192999</v>
+        <v>516.9192711070389</v>
       </c>
       <c r="F25" t="n">
-        <v>104.6793580192999</v>
+        <v>370.0293236091285</v>
       </c>
       <c r="G25" t="n">
-        <v>48.96715323349137</v>
+        <v>201.6043949190465</v>
       </c>
       <c r="H25" t="n">
-        <v>48.96715323349137</v>
+        <v>48.96715323349136</v>
       </c>
       <c r="I25" t="n">
-        <v>48.96715323349137</v>
+        <v>48.96715323349136</v>
       </c>
       <c r="J25" t="n">
-        <v>43.95404891172068</v>
+        <v>43.95404891172067</v>
       </c>
       <c r="K25" t="n">
         <v>165.7167528601155</v>
@@ -6157,7 +6157,7 @@
         <v>610.2758644371766</v>
       </c>
       <c r="N25" t="n">
-        <v>843.3834074172895</v>
+        <v>843.3834074172896</v>
       </c>
       <c r="O25" t="n">
         <v>1042.679657394081</v>
@@ -6169,28 +6169,28 @@
         <v>1208.039539684806</v>
       </c>
       <c r="R25" t="n">
-        <v>1208.039539684806</v>
+        <v>1085.741197419553</v>
       </c>
       <c r="S25" t="n">
-        <v>1188.517734316388</v>
+        <v>1066.219392051135</v>
       </c>
       <c r="T25" t="n">
-        <v>1148.413990579461</v>
+        <v>1026.115648314208</v>
       </c>
       <c r="U25" t="n">
-        <v>1044.019911017449</v>
+        <v>921.7215687521962</v>
       </c>
       <c r="V25" t="n">
-        <v>974.0835969638049</v>
+        <v>848.7871423112118</v>
       </c>
       <c r="W25" t="n">
-        <v>869.414601079087</v>
+        <v>744.1181464264939</v>
       </c>
       <c r="X25" t="n">
-        <v>826.1732243333124</v>
+        <v>700.8767696807193</v>
       </c>
       <c r="Y25" t="n">
-        <v>605.3806451897823</v>
+        <v>664.832364689432</v>
       </c>
     </row>
     <row r="26">
@@ -6200,46 +6200,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1871.612319227323</v>
+        <v>1871.612319227322</v>
       </c>
       <c r="C26" t="n">
         <v>1582.759596756268</v>
       </c>
       <c r="D26" t="n">
-        <v>1304.603692618876</v>
+        <v>1304.603692618875</v>
       </c>
       <c r="E26" t="n">
-        <v>998.9252344899887</v>
+        <v>998.9252344899883</v>
       </c>
       <c r="F26" t="n">
-        <v>668.0491241697387</v>
+        <v>668.0491241697382</v>
       </c>
       <c r="G26" t="n">
-        <v>331.4766880929412</v>
+        <v>331.4766880929415</v>
       </c>
       <c r="H26" t="n">
-        <v>97.51671874019291</v>
+        <v>97.5167187401929</v>
       </c>
       <c r="I26" t="n">
         <v>73.56855591917825</v>
       </c>
       <c r="J26" t="n">
-        <v>295.9441365847437</v>
+        <v>128.5384875643907</v>
       </c>
       <c r="K26" t="n">
-        <v>749.9722913275698</v>
+        <v>582.5666423072169</v>
       </c>
       <c r="L26" t="n">
-        <v>1365.510992744019</v>
+        <v>1198.105343723666</v>
       </c>
       <c r="M26" t="n">
-        <v>2067.022945153234</v>
+        <v>1899.617296132882</v>
       </c>
       <c r="N26" t="n">
-        <v>2583.335343119773</v>
+        <v>2597.848447794431</v>
       </c>
       <c r="O26" t="n">
-        <v>3197.467582298723</v>
+        <v>3197.467582298722</v>
       </c>
       <c r="P26" t="n">
         <v>3365.36013598914</v>
@@ -6251,10 +6251,10 @@
         <v>3678.427795958912</v>
       </c>
       <c r="S26" t="n">
-        <v>3611.564051292015</v>
+        <v>3611.564051292016</v>
       </c>
       <c r="T26" t="n">
-        <v>3478.649284483332</v>
+        <v>3478.649284483333</v>
       </c>
       <c r="U26" t="n">
         <v>3305.099819795234</v>
@@ -6294,10 +6294,10 @@
         <v>348.047247900108</v>
       </c>
       <c r="G27" t="n">
-        <v>210.8228392904232</v>
+        <v>210.8228392904231</v>
       </c>
       <c r="H27" t="n">
-        <v>112.002518656575</v>
+        <v>112.0025186565749</v>
       </c>
       <c r="I27" t="n">
         <v>73.56855591917825</v>
@@ -6312,7 +6312,7 @@
         <v>1126.628833581216</v>
       </c>
       <c r="M27" t="n">
-        <v>1441.217988060473</v>
+        <v>1360.012138117224</v>
       </c>
       <c r="N27" t="n">
         <v>1695.186899129601</v>
@@ -6391,16 +6391,16 @@
         <v>637.3055192252455</v>
       </c>
       <c r="M28" t="n">
-        <v>949.0394661365353</v>
+        <v>949.0394661365355</v>
       </c>
       <c r="N28" t="n">
-        <v>1260.662618676065</v>
+        <v>1260.662618676066</v>
       </c>
       <c r="O28" t="n">
-        <v>1538.474478212273</v>
+        <v>1538.474478212274</v>
       </c>
       <c r="P28" t="n">
-        <v>1764.001776889043</v>
+        <v>1764.001776889044</v>
       </c>
       <c r="Q28" t="n">
         <v>1860.865579621832</v>
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1871.612319227323</v>
+        <v>1871.612319227322</v>
       </c>
       <c r="C29" t="n">
-        <v>1582.759596756269</v>
+        <v>1582.759596756268</v>
       </c>
       <c r="D29" t="n">
-        <v>1304.603692618876</v>
+        <v>1304.603692618875</v>
       </c>
       <c r="E29" t="n">
-        <v>998.925234489989</v>
+        <v>998.9252344899883</v>
       </c>
       <c r="F29" t="n">
-        <v>668.0491241697389</v>
+        <v>668.0491241697381</v>
       </c>
       <c r="G29" t="n">
-        <v>331.4766880929419</v>
+        <v>331.4766880929412</v>
       </c>
       <c r="H29" t="n">
-        <v>97.5167187401929</v>
+        <v>97.51671874019287</v>
       </c>
       <c r="I29" t="n">
         <v>73.56855591917822</v>
@@ -6464,16 +6464,16 @@
         <v>295.9441365847437</v>
       </c>
       <c r="K29" t="n">
-        <v>749.9722913275698</v>
+        <v>749.9722913275699</v>
       </c>
       <c r="L29" t="n">
-        <v>1242.003697409359</v>
+        <v>1297.984973127104</v>
       </c>
       <c r="M29" t="n">
-        <v>1943.515649818573</v>
+        <v>1999.496925536319</v>
       </c>
       <c r="N29" t="n">
-        <v>2641.746801480122</v>
+        <v>2264.754622030004</v>
       </c>
       <c r="O29" t="n">
         <v>2878.886861208954</v>
@@ -6488,19 +6488,19 @@
         <v>3678.427795958911</v>
       </c>
       <c r="S29" t="n">
-        <v>3611.564051292015</v>
+        <v>3611.564051292014</v>
       </c>
       <c r="T29" t="n">
-        <v>3478.649284483332</v>
+        <v>3478.649284483331</v>
       </c>
       <c r="U29" t="n">
-        <v>3305.099819795234</v>
+        <v>3305.099819795233</v>
       </c>
       <c r="V29" t="n">
-        <v>3054.146726921021</v>
+        <v>3054.14672692102</v>
       </c>
       <c r="W29" t="n">
-        <v>2781.487866120264</v>
+        <v>2781.487866120263</v>
       </c>
       <c r="X29" t="n">
         <v>2488.131902328541</v>
@@ -6531,7 +6531,7 @@
         <v>348.047247900108</v>
       </c>
       <c r="G30" t="n">
-        <v>210.8228392904232</v>
+        <v>210.8228392904231</v>
       </c>
       <c r="H30" t="n">
         <v>112.0025186565749</v>
@@ -6540,7 +6540,7 @@
         <v>73.56855591917822</v>
       </c>
       <c r="J30" t="n">
-        <v>212.3205486553471</v>
+        <v>212.3205486553472</v>
       </c>
       <c r="K30" t="n">
         <v>576.0906474485162</v>
@@ -6595,49 +6595,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>566.7589833420766</v>
+        <v>566.7589833420768</v>
       </c>
       <c r="C31" t="n">
-        <v>477.9325948835271</v>
+        <v>477.9325948835274</v>
       </c>
       <c r="D31" t="n">
-        <v>407.9257499405488</v>
+        <v>407.9257499405491</v>
       </c>
       <c r="E31" t="n">
-        <v>340.1224508275131</v>
+        <v>340.1224508275134</v>
       </c>
       <c r="F31" t="n">
-        <v>273.3422977989602</v>
+        <v>273.3422977989604</v>
       </c>
       <c r="G31" t="n">
-        <v>185.0271635782356</v>
+        <v>185.0271635782358</v>
       </c>
       <c r="H31" t="n">
-        <v>112.4997163620379</v>
+        <v>112.4997163620377</v>
       </c>
       <c r="I31" t="n">
         <v>73.56855591917822</v>
       </c>
       <c r="J31" t="n">
-        <v>147.1708219328282</v>
+        <v>147.1708219328281</v>
       </c>
       <c r="K31" t="n">
-        <v>347.4491354406402</v>
+        <v>347.4491354406401</v>
       </c>
       <c r="L31" t="n">
-        <v>637.3055192252455</v>
+        <v>637.3055192252456</v>
       </c>
       <c r="M31" t="n">
-        <v>949.0394661365353</v>
+        <v>949.0394661365351</v>
       </c>
       <c r="N31" t="n">
-        <v>1260.662618676066</v>
+        <v>1260.662618676065</v>
       </c>
       <c r="O31" t="n">
         <v>1538.474478212274</v>
       </c>
       <c r="P31" t="n">
-        <v>1764.001776889044</v>
+        <v>1764.001776889043</v>
       </c>
       <c r="Q31" t="n">
         <v>1860.865579621833</v>
@@ -6646,25 +6646,25 @@
         <v>1818.677031825937</v>
       </c>
       <c r="S31" t="n">
-        <v>1694.516846774633</v>
+        <v>1694.516846774634</v>
       </c>
       <c r="T31" t="n">
-        <v>1549.774723354821</v>
+        <v>1549.774723354822</v>
       </c>
       <c r="U31" t="n">
-        <v>1340.742264109924</v>
+        <v>1340.742264109925</v>
       </c>
       <c r="V31" t="n">
         <v>1166.167570373395</v>
       </c>
       <c r="W31" t="n">
-        <v>956.8601948057915</v>
+        <v>956.8601948057919</v>
       </c>
       <c r="X31" t="n">
-        <v>808.9804383771316</v>
+        <v>808.980438377132</v>
       </c>
       <c r="Y31" t="n">
-        <v>668.2976537029589</v>
+        <v>668.2976537029591</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1871.612319227323</v>
+        <v>1871.612319227322</v>
       </c>
       <c r="C32" t="n">
         <v>1582.759596756268</v>
@@ -6683,16 +6683,16 @@
         <v>1304.603692618875</v>
       </c>
       <c r="E32" t="n">
-        <v>998.9252344899886</v>
+        <v>998.925234489988</v>
       </c>
       <c r="F32" t="n">
-        <v>668.0491241697384</v>
+        <v>668.049124169738</v>
       </c>
       <c r="G32" t="n">
-        <v>331.4766880929415</v>
+        <v>331.4766880929411</v>
       </c>
       <c r="H32" t="n">
-        <v>97.51671874019297</v>
+        <v>97.51671874019286</v>
       </c>
       <c r="I32" t="n">
         <v>73.56855591917822</v>
@@ -6701,49 +6701,49 @@
         <v>295.9441365847437</v>
       </c>
       <c r="K32" t="n">
-        <v>749.9722913275698</v>
+        <v>749.9722913275699</v>
       </c>
       <c r="L32" t="n">
-        <v>1365.510992744019</v>
+        <v>952.0263903390735</v>
       </c>
       <c r="M32" t="n">
-        <v>2067.022945153234</v>
+        <v>1653.538342748288</v>
       </c>
       <c r="N32" t="n">
-        <v>2765.254096814783</v>
+        <v>2351.769494409838</v>
       </c>
       <c r="O32" t="n">
-        <v>3002.394156543614</v>
+        <v>2965.901733588787</v>
       </c>
       <c r="P32" t="n">
-        <v>3488.8674313238</v>
+        <v>3452.375008368973</v>
       </c>
       <c r="Q32" t="n">
-        <v>3678.427795958911</v>
+        <v>3653.459545910319</v>
       </c>
       <c r="R32" t="n">
         <v>3678.427795958911</v>
       </c>
       <c r="S32" t="n">
-        <v>3611.564051292015</v>
+        <v>3611.564051292014</v>
       </c>
       <c r="T32" t="n">
-        <v>3478.649284483332</v>
+        <v>3478.649284483331</v>
       </c>
       <c r="U32" t="n">
-        <v>3305.099819795234</v>
+        <v>3305.099819795233</v>
       </c>
       <c r="V32" t="n">
-        <v>3054.146726921021</v>
+        <v>3054.14672692102</v>
       </c>
       <c r="W32" t="n">
-        <v>2781.487866120264</v>
+        <v>2781.487866120263</v>
       </c>
       <c r="X32" t="n">
-        <v>2488.131902328541</v>
+        <v>2488.13190232854</v>
       </c>
       <c r="Y32" t="n">
-        <v>2178.102364822087</v>
+        <v>2178.102364822086</v>
       </c>
     </row>
     <row r="33">
@@ -6768,7 +6768,7 @@
         <v>348.047247900108</v>
       </c>
       <c r="G33" t="n">
-        <v>210.8228392904232</v>
+        <v>210.8228392904231</v>
       </c>
       <c r="H33" t="n">
         <v>112.0025186565749</v>
@@ -6777,7 +6777,7 @@
         <v>73.56855591917822</v>
       </c>
       <c r="J33" t="n">
-        <v>212.3205486553471</v>
+        <v>212.3205486553472</v>
       </c>
       <c r="K33" t="n">
         <v>576.0906474485162</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>566.7589833420768</v>
+        <v>566.7589833420764</v>
       </c>
       <c r="C34" t="n">
-        <v>477.9325948835273</v>
+        <v>477.9325948835269</v>
       </c>
       <c r="D34" t="n">
-        <v>407.9257499405489</v>
+        <v>407.9257499405486</v>
       </c>
       <c r="E34" t="n">
-        <v>340.1224508275132</v>
+        <v>340.1224508275129</v>
       </c>
       <c r="F34" t="n">
-        <v>273.3422977989602</v>
+        <v>273.34229779896</v>
       </c>
       <c r="G34" t="n">
-        <v>185.0271635782355</v>
+        <v>185.0271635782353</v>
       </c>
       <c r="H34" t="n">
-        <v>112.4997163620377</v>
+        <v>112.4997163620376</v>
       </c>
       <c r="I34" t="n">
         <v>73.56855591917822</v>
       </c>
       <c r="J34" t="n">
-        <v>147.1708219328279</v>
+        <v>147.170821932828</v>
       </c>
       <c r="K34" t="n">
-        <v>347.4491354406399</v>
+        <v>347.4491354406401</v>
       </c>
       <c r="L34" t="n">
-        <v>637.3055192252452</v>
+        <v>637.3055192252456</v>
       </c>
       <c r="M34" t="n">
-        <v>949.0394661365351</v>
+        <v>949.0394661365356</v>
       </c>
       <c r="N34" t="n">
-        <v>1260.662618676065</v>
+        <v>1260.662618676066</v>
       </c>
       <c r="O34" t="n">
-        <v>1538.474478212274</v>
+        <v>1538.474478212273</v>
       </c>
       <c r="P34" t="n">
-        <v>1764.001776889043</v>
+        <v>1764.001776889042</v>
       </c>
       <c r="Q34" t="n">
-        <v>1860.865579621833</v>
+        <v>1860.865579621832</v>
       </c>
       <c r="R34" t="n">
-        <v>1818.677031825937</v>
+        <v>1818.677031825936</v>
       </c>
       <c r="S34" t="n">
-        <v>1694.516846774634</v>
+        <v>1694.516846774633</v>
       </c>
       <c r="T34" t="n">
-        <v>1549.774723354822</v>
+        <v>1549.774723354821</v>
       </c>
       <c r="U34" t="n">
-        <v>1340.742264109925</v>
+        <v>1340.742264109924</v>
       </c>
       <c r="V34" t="n">
-        <v>1166.167570373395</v>
+        <v>1166.167570373394</v>
       </c>
       <c r="W34" t="n">
-        <v>956.8601948057918</v>
+        <v>956.8601948057913</v>
       </c>
       <c r="X34" t="n">
-        <v>808.9804383771318</v>
+        <v>808.9804383771313</v>
       </c>
       <c r="Y34" t="n">
-        <v>668.2976537029591</v>
+        <v>668.2976537029587</v>
       </c>
     </row>
     <row r="35">
@@ -6917,43 +6917,43 @@
         <v>1168.185123148577</v>
       </c>
       <c r="D35" t="n">
-        <v>963.8659528137389</v>
+        <v>963.8659528137396</v>
       </c>
       <c r="E35" t="n">
-        <v>732.0242284874073</v>
+        <v>732.024228487408</v>
       </c>
       <c r="F35" t="n">
-        <v>474.9848519697125</v>
+        <v>474.9848519697132</v>
       </c>
       <c r="G35" t="n">
         <v>212.2491496954707</v>
       </c>
       <c r="H35" t="n">
-        <v>52.12591414527761</v>
+        <v>52.12591414527763</v>
       </c>
       <c r="I35" t="n">
-        <v>52.12591414527761</v>
+        <v>52.12591414527763</v>
       </c>
       <c r="J35" t="n">
-        <v>274.501494810843</v>
+        <v>274.5014948108432</v>
       </c>
       <c r="K35" t="n">
-        <v>407.625691108216</v>
+        <v>407.6256911082162</v>
       </c>
       <c r="L35" t="n">
-        <v>609.6797901197194</v>
+        <v>1023.164392524666</v>
       </c>
       <c r="M35" t="n">
-        <v>1254.73797766753</v>
+        <v>1279.657946775977</v>
       </c>
       <c r="N35" t="n">
-        <v>1899.79616521534</v>
+        <v>1544.915643269662</v>
       </c>
       <c r="O35" t="n">
-        <v>2136.936224944172</v>
+        <v>1831.723022562516</v>
       </c>
       <c r="P35" t="n">
-        <v>2318.196297342701</v>
+        <v>2318.196297342702</v>
       </c>
       <c r="Q35" t="n">
         <v>2606.295707263881</v>
@@ -6965,13 +6965,13 @@
         <v>2606.295707263881</v>
       </c>
       <c r="T35" t="n">
-        <v>2547.217674257753</v>
+        <v>2547.217674257754</v>
       </c>
       <c r="U35" t="n">
-        <v>2447.50494337221</v>
+        <v>2447.504943372211</v>
       </c>
       <c r="V35" t="n">
-        <v>2270.388584300552</v>
+        <v>2270.388584300553</v>
       </c>
       <c r="W35" t="n">
         <v>2071.566457302351</v>
@@ -6990,10 +6990,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>955.7640580471561</v>
+        <v>955.7640580471563</v>
       </c>
       <c r="C36" t="n">
-        <v>781.3110287660292</v>
+        <v>781.3110287660293</v>
       </c>
       <c r="D36" t="n">
         <v>632.376619104778</v>
@@ -7002,28 +7002,28 @@
         <v>473.1391640993224</v>
       </c>
       <c r="F36" t="n">
-        <v>326.6046061262075</v>
+        <v>326.6046061262074</v>
       </c>
       <c r="G36" t="n">
-        <v>189.3801975165229</v>
+        <v>189.3801975165225</v>
       </c>
       <c r="H36" t="n">
         <v>90.55987688267433</v>
       </c>
       <c r="I36" t="n">
-        <v>52.12591414527761</v>
+        <v>52.12591414527763</v>
       </c>
       <c r="J36" t="n">
-        <v>190.8779068814465</v>
+        <v>190.8779068814466</v>
       </c>
       <c r="K36" t="n">
-        <v>554.6480056746155</v>
+        <v>554.6480056746157</v>
       </c>
       <c r="L36" t="n">
         <v>1105.186191807315</v>
       </c>
       <c r="M36" t="n">
-        <v>1419.775346286573</v>
+        <v>1419.775346286572</v>
       </c>
       <c r="N36" t="n">
         <v>1673.7442573557</v>
@@ -7050,7 +7050,7 @@
         <v>2028.980658997655</v>
       </c>
       <c r="V36" t="n">
-        <v>1793.828550765913</v>
+        <v>1793.828550765912</v>
       </c>
       <c r="W36" t="n">
         <v>1539.591194037711</v>
@@ -7069,43 +7069,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>385.6571369036897</v>
+        <v>124.7958280458665</v>
       </c>
       <c r="C37" t="n">
-        <v>216.7209539757827</v>
+        <v>109.8061733898723</v>
       </c>
       <c r="D37" t="n">
-        <v>66.60431456344698</v>
+        <v>109.8061733898723</v>
       </c>
       <c r="E37" t="n">
-        <v>66.60431456344698</v>
+        <v>109.8061733898723</v>
       </c>
       <c r="F37" t="n">
-        <v>66.60431456344698</v>
+        <v>109.8061733898723</v>
       </c>
       <c r="G37" t="n">
-        <v>52.12591414527761</v>
+        <v>57.13901846704832</v>
       </c>
       <c r="H37" t="n">
-        <v>52.12591414527761</v>
+        <v>57.13901846704832</v>
       </c>
       <c r="I37" t="n">
-        <v>52.12591414527761</v>
+        <v>57.13901846704832</v>
       </c>
       <c r="J37" t="n">
-        <v>52.12591414527761</v>
+        <v>52.12591414527763</v>
       </c>
       <c r="K37" t="n">
-        <v>173.8886180936724</v>
+        <v>173.8886180936725</v>
       </c>
       <c r="L37" t="n">
-        <v>385.2293923188607</v>
+        <v>385.2293923188608</v>
       </c>
       <c r="M37" t="n">
-        <v>618.4477296707333</v>
+        <v>618.4477296707336</v>
       </c>
       <c r="N37" t="n">
-        <v>851.5552726508463</v>
+        <v>851.5552726508465</v>
       </c>
       <c r="O37" t="n">
         <v>1050.851522627638</v>
@@ -7114,31 +7114,31 @@
         <v>1197.86321174499</v>
       </c>
       <c r="Q37" t="n">
-        <v>1216.211404918362</v>
+        <v>1216.211404918363</v>
       </c>
       <c r="R37" t="n">
-        <v>1200.82784323902</v>
+        <v>1093.91306265311</v>
       </c>
       <c r="S37" t="n">
-        <v>1150.504391990272</v>
+        <v>1043.589611404361</v>
       </c>
       <c r="T37" t="n">
-        <v>1079.599002373016</v>
+        <v>972.6842217871049</v>
       </c>
       <c r="U37" t="n">
-        <v>944.4032769306735</v>
+        <v>683.5419680728503</v>
       </c>
       <c r="V37" t="n">
-        <v>843.6653169966994</v>
+        <v>428.8574798669634</v>
       </c>
       <c r="W37" t="n">
-        <v>708.1946752316514</v>
+        <v>293.3868381019155</v>
       </c>
       <c r="X37" t="n">
-        <v>634.1516526055468</v>
+        <v>219.3438154758109</v>
       </c>
       <c r="Y37" t="n">
-        <v>567.3056017339294</v>
+        <v>152.4977646041935</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1383.201111817075</v>
+        <v>1383.201111817076</v>
       </c>
       <c r="C38" t="n">
-        <v>1168.185123148576</v>
+        <v>1168.185123148577</v>
       </c>
       <c r="D38" t="n">
-        <v>963.8659528137384</v>
+        <v>963.8659528137389</v>
       </c>
       <c r="E38" t="n">
         <v>732.0242284874073</v>
@@ -7172,28 +7172,28 @@
         <v>52.12591414527761</v>
       </c>
       <c r="J38" t="n">
-        <v>274.501494810843</v>
+        <v>107.0958457904901</v>
       </c>
       <c r="K38" t="n">
-        <v>728.5296495536691</v>
+        <v>240.2200420878632</v>
       </c>
       <c r="L38" t="n">
-        <v>1072.831712088689</v>
+        <v>855.7587435043126</v>
       </c>
       <c r="M38" t="n">
-        <v>1329.325266339999</v>
+        <v>1500.816931052123</v>
       </c>
       <c r="N38" t="n">
-        <v>1594.582962833684</v>
+        <v>1766.074627545808</v>
       </c>
       <c r="O38" t="n">
-        <v>1831.723022562516</v>
+        <v>2003.21468727464</v>
       </c>
       <c r="P38" t="n">
-        <v>2318.196297342701</v>
+        <v>2293.228047294109</v>
       </c>
       <c r="Q38" t="n">
-        <v>2606.295707263881</v>
+        <v>2581.327457215288</v>
       </c>
       <c r="R38" t="n">
         <v>2606.295707263881</v>
@@ -7211,13 +7211,13 @@
         <v>2270.388584300552</v>
       </c>
       <c r="W38" t="n">
-        <v>2071.56645730235</v>
+        <v>2071.566457302351</v>
       </c>
       <c r="X38" t="n">
-        <v>1852.047227313183</v>
+        <v>1852.047227313184</v>
       </c>
       <c r="Y38" t="n">
-        <v>1615.854423609284</v>
+        <v>1615.854423609285</v>
       </c>
     </row>
     <row r="39">
@@ -7227,40 +7227,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>955.7640580471557</v>
+        <v>955.7640580471552</v>
       </c>
       <c r="C39" t="n">
-        <v>781.3110287660287</v>
+        <v>781.3110287660282</v>
       </c>
       <c r="D39" t="n">
-        <v>632.3766191047775</v>
+        <v>632.3766191047771</v>
       </c>
       <c r="E39" t="n">
-        <v>473.139164099322</v>
+        <v>473.1391640993215</v>
       </c>
       <c r="F39" t="n">
-        <v>326.604606126207</v>
+        <v>326.6046061262066</v>
       </c>
       <c r="G39" t="n">
         <v>189.3801975165225</v>
       </c>
       <c r="H39" t="n">
-        <v>90.55987688267433</v>
+        <v>90.5598768826743</v>
       </c>
       <c r="I39" t="n">
         <v>52.12591414527761</v>
       </c>
       <c r="J39" t="n">
-        <v>190.8779068814465</v>
+        <v>190.8779068814466</v>
       </c>
       <c r="K39" t="n">
-        <v>554.6480056746155</v>
+        <v>554.6480056746157</v>
       </c>
       <c r="L39" t="n">
         <v>1105.186191807315</v>
       </c>
       <c r="M39" t="n">
-        <v>1419.775346286573</v>
+        <v>1419.775346286572</v>
       </c>
       <c r="N39" t="n">
         <v>1673.7442573557</v>
@@ -7278,13 +7278,13 @@
         <v>2598.656161719378</v>
       </c>
       <c r="S39" t="n">
-        <v>2453.219848663941</v>
+        <v>2453.21984866394</v>
       </c>
       <c r="T39" t="n">
         <v>2257.105170892338</v>
       </c>
       <c r="U39" t="n">
-        <v>2028.980658997655</v>
+        <v>2028.980658997654</v>
       </c>
       <c r="V39" t="n">
         <v>1793.828550765912</v>
@@ -7293,10 +7293,10 @@
         <v>1539.59119403771</v>
       </c>
       <c r="X39" t="n">
-        <v>1331.739693832178</v>
+        <v>1331.739693832177</v>
       </c>
       <c r="Y39" t="n">
-        <v>1123.979395067224</v>
+        <v>1123.979395067223</v>
       </c>
     </row>
     <row r="40">
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>390.6702412254604</v>
+        <v>247.0941703111198</v>
       </c>
       <c r="C40" t="n">
-        <v>221.7340582975534</v>
+        <v>232.1045156551256</v>
       </c>
       <c r="D40" t="n">
-        <v>71.6174188852177</v>
+        <v>232.1045156551256</v>
       </c>
       <c r="E40" t="n">
-        <v>71.6174188852177</v>
+        <v>232.1045156551256</v>
       </c>
       <c r="F40" t="n">
-        <v>71.6174188852177</v>
+        <v>225.5639471571304</v>
       </c>
       <c r="G40" t="n">
-        <v>57.13901846704833</v>
+        <v>57.1390184670483</v>
       </c>
       <c r="H40" t="n">
-        <v>57.13901846704833</v>
+        <v>57.1390184670483</v>
       </c>
       <c r="I40" t="n">
-        <v>57.13901846704833</v>
+        <v>57.1390184670483</v>
       </c>
       <c r="J40" t="n">
         <v>52.12591414527761</v>
       </c>
       <c r="K40" t="n">
-        <v>173.8886180936724</v>
+        <v>173.8886180936725</v>
       </c>
       <c r="L40" t="n">
         <v>385.2293923188607</v>
       </c>
       <c r="M40" t="n">
-        <v>618.4477296707333</v>
+        <v>618.4477296707335</v>
       </c>
       <c r="N40" t="n">
-        <v>851.5552726508463</v>
+        <v>851.5552726508465</v>
       </c>
       <c r="O40" t="n">
         <v>1050.851522627638</v>
@@ -7351,31 +7351,31 @@
         <v>1197.86321174499</v>
       </c>
       <c r="Q40" t="n">
-        <v>1216.211404918362</v>
+        <v>1216.211404918363</v>
       </c>
       <c r="R40" t="n">
-        <v>1216.211404918362</v>
+        <v>1216.211404918363</v>
       </c>
       <c r="S40" t="n">
-        <v>1165.887953669614</v>
+        <v>1165.887953669615</v>
       </c>
       <c r="T40" t="n">
         <v>1094.982564052358</v>
       </c>
       <c r="U40" t="n">
-        <v>959.7868386100157</v>
+        <v>805.8403103381036</v>
       </c>
       <c r="V40" t="n">
-        <v>859.0488786760416</v>
+        <v>705.1023504041294</v>
       </c>
       <c r="W40" t="n">
-        <v>723.5782369109936</v>
+        <v>415.6851803671688</v>
       </c>
       <c r="X40" t="n">
-        <v>649.535214284889</v>
+        <v>341.6421577410642</v>
       </c>
       <c r="Y40" t="n">
-        <v>572.3187060557001</v>
+        <v>274.7961068694468</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1383.201111817076</v>
+        <v>1383.201111817075</v>
       </c>
       <c r="C41" t="n">
-        <v>1168.185123148578</v>
+        <v>1168.185123148576</v>
       </c>
       <c r="D41" t="n">
-        <v>963.8659528137398</v>
+        <v>963.8659528137387</v>
       </c>
       <c r="E41" t="n">
-        <v>732.0242284874082</v>
+        <v>732.0242284874071</v>
       </c>
       <c r="F41" t="n">
-        <v>474.9848519697134</v>
+        <v>474.9848519697123</v>
       </c>
       <c r="G41" t="n">
         <v>212.2491496954707</v>
@@ -7409,22 +7409,22 @@
         <v>52.12591414527763</v>
       </c>
       <c r="J41" t="n">
-        <v>274.5014948108431</v>
+        <v>274.5014948108432</v>
       </c>
       <c r="K41" t="n">
-        <v>482.2129797806863</v>
+        <v>728.5296495536693</v>
       </c>
       <c r="L41" t="n">
-        <v>684.2670787921896</v>
+        <v>930.5837485651729</v>
       </c>
       <c r="M41" t="n">
-        <v>1329.32526634</v>
+        <v>1187.077302816484</v>
       </c>
       <c r="N41" t="n">
-        <v>1594.582962833685</v>
+        <v>1452.334999310169</v>
       </c>
       <c r="O41" t="n">
-        <v>1831.723022562517</v>
+        <v>1831.723022562516</v>
       </c>
       <c r="P41" t="n">
         <v>2318.196297342702</v>
@@ -7442,19 +7442,19 @@
         <v>2547.217674257754</v>
       </c>
       <c r="U41" t="n">
-        <v>2447.504943372211</v>
+        <v>2447.50494337221</v>
       </c>
       <c r="V41" t="n">
-        <v>2270.388584300553</v>
+        <v>2270.388584300552</v>
       </c>
       <c r="W41" t="n">
-        <v>2071.566457302352</v>
+        <v>2071.56645730235</v>
       </c>
       <c r="X41" t="n">
-        <v>1852.047227313185</v>
+        <v>1852.047227313183</v>
       </c>
       <c r="Y41" t="n">
-        <v>1615.854423609286</v>
+        <v>1615.854423609284</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>955.7640580471563</v>
+        <v>955.7640580471573</v>
       </c>
       <c r="C42" t="n">
-        <v>781.3110287660293</v>
+        <v>781.3110287660303</v>
       </c>
       <c r="D42" t="n">
-        <v>632.376619104778</v>
+        <v>632.376619104779</v>
       </c>
       <c r="E42" t="n">
-        <v>473.1391640993224</v>
+        <v>473.1391640993235</v>
       </c>
       <c r="F42" t="n">
-        <v>326.6046061262074</v>
+        <v>326.6046061262085</v>
       </c>
       <c r="G42" t="n">
-        <v>189.3801975165226</v>
+        <v>189.3801975165237</v>
       </c>
       <c r="H42" t="n">
-        <v>90.55987688267436</v>
+        <v>90.55987688267433</v>
       </c>
       <c r="I42" t="n">
         <v>52.12591414527763</v>
@@ -7491,49 +7491,49 @@
         <v>190.8779068814466</v>
       </c>
       <c r="K42" t="n">
-        <v>554.6480056746155</v>
+        <v>554.6480056746157</v>
       </c>
       <c r="L42" t="n">
         <v>1105.186191807315</v>
       </c>
       <c r="M42" t="n">
-        <v>1419.775346286573</v>
+        <v>1338.569496343324</v>
       </c>
       <c r="N42" t="n">
-        <v>1673.7442573557</v>
+        <v>1592.538407412452</v>
       </c>
       <c r="O42" t="n">
-        <v>1883.856398931101</v>
+        <v>1883.856398931102</v>
       </c>
       <c r="P42" t="n">
-        <v>2348.434991069233</v>
+        <v>2348.434991069234</v>
       </c>
       <c r="Q42" t="n">
         <v>2606.295707263881</v>
       </c>
       <c r="R42" t="n">
-        <v>2598.656161719378</v>
+        <v>2598.656161719379</v>
       </c>
       <c r="S42" t="n">
-        <v>2453.219848663941</v>
+        <v>2453.219848663942</v>
       </c>
       <c r="T42" t="n">
-        <v>2257.105170892339</v>
+        <v>2257.10517089234</v>
       </c>
       <c r="U42" t="n">
-        <v>2028.980658997655</v>
+        <v>2028.980658997656</v>
       </c>
       <c r="V42" t="n">
-        <v>1793.828550765912</v>
+        <v>1793.828550765914</v>
       </c>
       <c r="W42" t="n">
-        <v>1539.591194037711</v>
+        <v>1539.591194037712</v>
       </c>
       <c r="X42" t="n">
-        <v>1331.739693832178</v>
+        <v>1331.739693832179</v>
       </c>
       <c r="Y42" t="n">
-        <v>1123.979395067224</v>
+        <v>1123.979395067225</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>554.9872268549448</v>
+        <v>247.0941703111197</v>
       </c>
       <c r="C43" t="n">
-        <v>516.537099377857</v>
+        <v>232.1045156551255</v>
       </c>
       <c r="D43" t="n">
-        <v>366.4204599655212</v>
+        <v>232.1045156551255</v>
       </c>
       <c r="E43" t="n">
-        <v>218.5073663831281</v>
+        <v>232.1045156551255</v>
       </c>
       <c r="F43" t="n">
-        <v>71.61741888521772</v>
+        <v>232.1045156551255</v>
       </c>
       <c r="G43" t="n">
-        <v>57.13901846704834</v>
+        <v>176.1799733792652</v>
       </c>
       <c r="H43" t="n">
-        <v>57.13901846704834</v>
+        <v>176.1799733792652</v>
       </c>
       <c r="I43" t="n">
-        <v>57.13901846704834</v>
+        <v>57.13901846704832</v>
       </c>
       <c r="J43" t="n">
         <v>52.12591414527763</v>
@@ -7573,13 +7573,13 @@
         <v>173.8886180936725</v>
       </c>
       <c r="L43" t="n">
-        <v>385.2293923188607</v>
+        <v>385.2293923188608</v>
       </c>
       <c r="M43" t="n">
-        <v>618.4477296707335</v>
+        <v>618.4477296707336</v>
       </c>
       <c r="N43" t="n">
-        <v>851.5552726508464</v>
+        <v>851.5552726508465</v>
       </c>
       <c r="O43" t="n">
         <v>1050.851522627638</v>
@@ -7594,25 +7594,25 @@
         <v>1216.211404918363</v>
       </c>
       <c r="S43" t="n">
-        <v>1165.887953669614</v>
+        <v>1011.941425397702</v>
       </c>
       <c r="T43" t="n">
-        <v>1094.982564052358</v>
+        <v>787.0895075085327</v>
       </c>
       <c r="U43" t="n">
-        <v>959.7868386100159</v>
+        <v>651.8937820661907</v>
       </c>
       <c r="V43" t="n">
-        <v>859.0488786760418</v>
+        <v>551.1558221322166</v>
       </c>
       <c r="W43" t="n">
-        <v>723.5782369109938</v>
+        <v>415.6851803671687</v>
       </c>
       <c r="X43" t="n">
-        <v>649.5352142848892</v>
+        <v>341.6421577410641</v>
       </c>
       <c r="Y43" t="n">
-        <v>582.6891634132718</v>
+        <v>274.7961068694467</v>
       </c>
     </row>
     <row r="44">
@@ -7646,22 +7646,22 @@
         <v>52.12591414527761</v>
       </c>
       <c r="J44" t="n">
-        <v>274.501494810843</v>
+        <v>274.5014948108431</v>
       </c>
       <c r="K44" t="n">
-        <v>728.5296495536691</v>
+        <v>728.5296495536693</v>
       </c>
       <c r="L44" t="n">
-        <v>930.5837485651724</v>
+        <v>930.5837485651729</v>
       </c>
       <c r="M44" t="n">
-        <v>1187.077302816483</v>
+        <v>1187.077302816484</v>
       </c>
       <c r="N44" t="n">
-        <v>1452.334999310168</v>
+        <v>1536.171504473334</v>
       </c>
       <c r="O44" t="n">
-        <v>1831.723022562516</v>
+        <v>2150.303743652283</v>
       </c>
       <c r="P44" t="n">
         <v>2318.196297342701</v>
@@ -7719,25 +7719,25 @@
         <v>189.3801975165225</v>
       </c>
       <c r="H45" t="n">
-        <v>90.55987688267433</v>
+        <v>90.5598768826743</v>
       </c>
       <c r="I45" t="n">
         <v>52.12591414527761</v>
       </c>
       <c r="J45" t="n">
-        <v>190.8779068814465</v>
+        <v>190.8779068814466</v>
       </c>
       <c r="K45" t="n">
-        <v>554.6480056746155</v>
+        <v>554.6480056746157</v>
       </c>
       <c r="L45" t="n">
-        <v>796.4683456666021</v>
+        <v>1105.186191807315</v>
       </c>
       <c r="M45" t="n">
-        <v>1029.85165020261</v>
+        <v>1338.569496343324</v>
       </c>
       <c r="N45" t="n">
-        <v>1283.820561271738</v>
+        <v>1592.538407412452</v>
       </c>
       <c r="O45" t="n">
         <v>1883.856398931101</v>
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>401.0406985830318</v>
+        <v>401.0406985830323</v>
       </c>
       <c r="C46" t="n">
-        <v>232.1045156551249</v>
+        <v>386.0510439270381</v>
       </c>
       <c r="D46" t="n">
-        <v>81.98787624278918</v>
+        <v>386.0510439270381</v>
       </c>
       <c r="E46" t="n">
-        <v>71.6174188852177</v>
+        <v>238.137950344645</v>
       </c>
       <c r="F46" t="n">
-        <v>71.6174188852177</v>
+        <v>91.24800284673464</v>
       </c>
       <c r="G46" t="n">
-        <v>57.13901846704833</v>
+        <v>57.1390184670483</v>
       </c>
       <c r="H46" t="n">
-        <v>57.13901846704833</v>
+        <v>57.1390184670483</v>
       </c>
       <c r="I46" t="n">
-        <v>57.13901846704833</v>
+        <v>57.1390184670483</v>
       </c>
       <c r="J46" t="n">
         <v>52.12591414527761</v>
       </c>
       <c r="K46" t="n">
-        <v>173.8886180936724</v>
+        <v>173.8886180936725</v>
       </c>
       <c r="L46" t="n">
         <v>385.2293923188607</v>
       </c>
       <c r="M46" t="n">
-        <v>618.4477296707333</v>
+        <v>618.4477296707335</v>
       </c>
       <c r="N46" t="n">
-        <v>851.5552726508463</v>
+        <v>851.5552726508465</v>
       </c>
       <c r="O46" t="n">
         <v>1050.851522627638</v>
@@ -7825,31 +7825,31 @@
         <v>1197.86321174499</v>
       </c>
       <c r="Q46" t="n">
-        <v>1216.211404918362</v>
+        <v>1216.211404918363</v>
       </c>
       <c r="R46" t="n">
-        <v>1216.211404918362</v>
+        <v>1216.211404918363</v>
       </c>
       <c r="S46" t="n">
-        <v>1165.887953669614</v>
+        <v>1011.941425397702</v>
       </c>
       <c r="T46" t="n">
-        <v>1094.982564052358</v>
+        <v>941.0360357804454</v>
       </c>
       <c r="U46" t="n">
-        <v>959.7868386100157</v>
+        <v>805.8403103381034</v>
       </c>
       <c r="V46" t="n">
-        <v>859.0488786760416</v>
+        <v>705.1023504041293</v>
       </c>
       <c r="W46" t="n">
-        <v>723.5782369109936</v>
+        <v>569.6317086390814</v>
       </c>
       <c r="X46" t="n">
-        <v>649.535214284889</v>
+        <v>495.5886860129767</v>
       </c>
       <c r="Y46" t="n">
-        <v>582.6891634132716</v>
+        <v>428.7426351413593</v>
       </c>
     </row>
   </sheetData>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>40.49596527844474</v>
+        <v>40.49596527844471</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>200.9222468714793</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8787,7 +8787,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>200.9222468714794</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8924,28 +8924,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>339.5161471632621</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>209.7185312110668</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>184.2175947150155</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9009,19 +9009,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>25.37766628364599</v>
+        <v>56.76349185893099</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>287.076943064652</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9164,7 +9164,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>40.34143413747918</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9179,13 +9179,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>12.77427514325944</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>40.49596527844474</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9246,10 +9246,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>25.37766628364599</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>307.8704850172975</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>35.96994990628548</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9401,7 +9401,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>77.61334387277779</v>
+        <v>52.39288927824012</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>40.49596527844474</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,7 +9483,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>25.37766628364599</v>
+        <v>25.37766628364571</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9638,28 +9638,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>69.60120761072832</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>290.341213162861</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>63.36416719664524</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>40.49596527844474</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>18.95147668360915</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>53.17826823877451</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>313.6848997439745</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>292.8913577913289</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>337.1911249567094</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9884,10 +9884,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>253.5906075483377</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>366.1404795711718</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9960,10 +9960,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>82.02611105378696</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>82.02611105378645</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -10115,16 +10115,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>292.9063707780662</v>
+        <v>349.4531139273038</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10203,7 +10203,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>82.02611105378702</v>
+        <v>82.02611105378645</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10352,7 +10352,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10361,16 +10361,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>112.7806014820584</v>
+        <v>124.4211801752245</v>
       </c>
       <c r="R32" t="n">
-        <v>40.49596527844477</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,7 +10434,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>82.02611105378702</v>
+        <v>82.02611105378639</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10589,25 +10589,25 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>392.489528582323</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>383.6368596506319</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>50.16900966062954</v>
       </c>
       <c r="P35" t="n">
-        <v>13.50254414960759</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>40.49596527844477</v>
+        <v>40.49596527844471</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10671,7 +10671,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>82.02611105378725</v>
+        <v>82.02611105378639</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10820,16 +10820,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>143.6848116399156</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>392.4895285823228</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10838,13 +10838,13 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>123.3543498273247</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>40.49596527844477</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10908,7 +10908,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>82.02611105378725</v>
+        <v>82.02611105378639</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -11060,19 +11060,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>75.34069562875777</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>392.4895285823232</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>143.6848116399152</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>40.49596527844477</v>
+        <v>40.49596527844471</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11145,13 +11145,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>82.02611105378725</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>82.02611105378736</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11306,19 +11306,19 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>84.68333854865148</v>
       </c>
       <c r="O44" t="n">
-        <v>143.6848116399155</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>40.49596527844477</v>
+        <v>40.49596527844471</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,7 +11379,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>59.0041370805167</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11388,7 +11388,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>82.02611105378645</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>279.1418457774241</v>
+        <v>50.4773143755255</v>
       </c>
       <c r="C11" t="n">
-        <v>30.92424736961835</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>251.0910457346265</v>
       </c>
       <c r="E11" t="n">
-        <v>278.3383741862053</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>308.9234123546363</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>207.3370702978283</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>41.91180785883452</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>107.3023197792037</v>
       </c>
       <c r="U11" t="n">
         <v>147.5306706798247</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>224.1602625840785</v>
       </c>
       <c r="W11" t="n">
         <v>245.6489728313566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>266.1391047924126</v>
       </c>
       <c r="Y11" t="n">
         <v>282.6459427699971</v>
@@ -23495,19 +23495,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>261.6808958849511</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>278.3383741862053</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>110.2922249862424</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>207.3370702978283</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>41.9118078588345</v>
+        <v>41.91180785883452</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>107.3023197792037</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>147.5306706798247</v>
       </c>
       <c r="V14" t="n">
-        <v>224.1602625840785</v>
+        <v>51.38830466390506</v>
       </c>
       <c r="W14" t="n">
-        <v>245.6489728313566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>266.1391047924126</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>22.56458067128824</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>22.56458067128741</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -24026,13 +24026,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>22.56458067128762</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>22.56458067128763</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1439943.878236977</v>
+        <v>1439943.878236976</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1399816.031784363</v>
+        <v>1399816.031784362</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1399816.031784363</v>
+        <v>1399816.031784362</v>
       </c>
     </row>
   </sheetData>
@@ -26323,16 +26323,16 @@
         <v>101374.7860099005</v>
       </c>
       <c r="F2" t="n">
-        <v>110076.1215260347</v>
+        <v>110076.1215260348</v>
       </c>
       <c r="G2" t="n">
-        <v>122886.8443864273</v>
+        <v>122886.8443864274</v>
       </c>
       <c r="H2" t="n">
-        <v>122886.8443864273</v>
+        <v>122886.8443864274</v>
       </c>
       <c r="I2" t="n">
-        <v>123156.2654796426</v>
+        <v>123156.2654796425</v>
       </c>
       <c r="J2" t="n">
         <v>123156.2654796426</v>
@@ -26350,7 +26350,7 @@
         <v>123156.2654796426</v>
       </c>
       <c r="O2" t="n">
-        <v>123156.2654796427</v>
+        <v>123156.2654796426</v>
       </c>
       <c r="P2" t="n">
         <v>123156.2654796426</v>
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>746153.5340830687</v>
+        <v>746153.5340830688</v>
       </c>
       <c r="F3" t="n">
-        <v>53805.214057641</v>
+        <v>53805.21405764102</v>
       </c>
       <c r="G3" t="n">
         <v>63446.95721973108</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1546.174978532705</v>
+        <v>1546.174978532644</v>
       </c>
       <c r="J3" t="n">
-        <v>96855.72589324035</v>
+        <v>96855.72589324038</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>63446.95721973104</v>
+        <v>63446.9572197311</v>
       </c>
       <c r="M3" t="n">
-        <v>80357.16505209089</v>
+        <v>80357.1650520909</v>
       </c>
       <c r="N3" t="n">
-        <v>45993.55612927217</v>
+        <v>45993.55612927212</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26433,10 +26433,10 @@
         <v>217171.7787696232</v>
       </c>
       <c r="H4" t="n">
-        <v>217171.7787696233</v>
+        <v>217171.7787696232</v>
       </c>
       <c r="I4" t="n">
-        <v>217964.084634374</v>
+        <v>217964.0846343739</v>
       </c>
       <c r="J4" t="n">
         <v>207063.1162296207</v>
@@ -26451,13 +26451,13 @@
         <v>213872.961061016</v>
       </c>
       <c r="N4" t="n">
-        <v>213872.961061016</v>
+        <v>213872.9610610159</v>
       </c>
       <c r="O4" t="n">
         <v>213872.961061016</v>
       </c>
       <c r="P4" t="n">
-        <v>213872.961061016</v>
+        <v>213872.9610610159</v>
       </c>
     </row>
     <row r="5">
@@ -26482,10 +26482,10 @@
         <v>56875.42608265272</v>
       </c>
       <c r="G5" t="n">
-        <v>63542.82889078468</v>
+        <v>63542.82889078469</v>
       </c>
       <c r="H5" t="n">
-        <v>63542.82889078468</v>
+        <v>63542.82889078469</v>
       </c>
       <c r="I5" t="n">
         <v>63896.34530616664</v>
@@ -26497,10 +26497,10 @@
         <v>77694.4951296895</v>
       </c>
       <c r="L5" t="n">
-        <v>77694.49512968949</v>
+        <v>77694.4951296895</v>
       </c>
       <c r="M5" t="n">
-        <v>67543.39395183159</v>
+        <v>67543.3939518316</v>
       </c>
       <c r="N5" t="n">
         <v>67543.39395183159</v>
@@ -26519,28 +26519,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-357760.7694648371</v>
+        <v>-357765.1830427053</v>
       </c>
       <c r="C6" t="n">
-        <v>-357760.7694648371</v>
+        <v>-357765.1830427052</v>
       </c>
       <c r="D6" t="n">
-        <v>-357760.7694648371</v>
+        <v>-357765.1830427052</v>
       </c>
       <c r="E6" t="n">
-        <v>-833145.6715443335</v>
+        <v>-833508.6962021625</v>
       </c>
       <c r="F6" t="n">
-        <v>-169101.9682180021</v>
+        <v>-169319.9706172289</v>
       </c>
       <c r="G6" t="n">
-        <v>-221274.7204937117</v>
+        <v>-221279.2108452652</v>
       </c>
       <c r="H6" t="n">
-        <v>-157827.7632739806</v>
+        <v>-157832.2536255341</v>
       </c>
       <c r="I6" t="n">
-        <v>-160250.3394394307</v>
+        <v>-160250.3394394306</v>
       </c>
       <c r="J6" t="n">
         <v>-258457.071772908</v>
@@ -26549,19 +26549,19 @@
         <v>-161601.3458796676</v>
       </c>
       <c r="L6" t="n">
-        <v>-225048.3030993986</v>
+        <v>-225048.3030993987</v>
       </c>
       <c r="M6" t="n">
         <v>-238617.2545852959</v>
       </c>
       <c r="N6" t="n">
-        <v>-204253.6456624772</v>
+        <v>-204253.645662477</v>
       </c>
       <c r="O6" t="n">
-        <v>-158260.089533205</v>
+        <v>-158260.0895332049</v>
       </c>
       <c r="P6" t="n">
-        <v>-158260.089533205</v>
+        <v>-158260.0895332049</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="F2" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="G2" t="n">
         <v>182.9006924107203</v>
@@ -26713,7 +26713,7 @@
         <v>79.30869652466384</v>
       </c>
       <c r="L2" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466386</v>
       </c>
       <c r="M2" t="n">
         <v>152.4070629891936</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>693.348157017527</v>
+        <v>693.3481570175271</v>
       </c>
       <c r="F3" t="n">
-        <v>693.348157017527</v>
+        <v>693.3481570175271</v>
       </c>
       <c r="G3" t="n">
-        <v>693.348157017527</v>
+        <v>693.3481570175271</v>
       </c>
       <c r="H3" t="n">
-        <v>693.348157017527</v>
+        <v>693.3481570175271</v>
       </c>
       <c r="I3" t="n">
-        <v>693.348157017527</v>
+        <v>693.3481570175271</v>
       </c>
       <c r="J3" t="n">
-        <v>693.348157017527</v>
+        <v>693.3481570175271</v>
       </c>
       <c r="K3" t="n">
-        <v>693.3481570175269</v>
+        <v>693.3481570175271</v>
       </c>
       <c r="L3" t="n">
-        <v>693.3481570175269</v>
+        <v>693.3481570175271</v>
       </c>
       <c r="M3" t="n">
-        <v>693.3481570175269</v>
+        <v>693.3481570175271</v>
       </c>
       <c r="N3" t="n">
-        <v>693.3481570175269</v>
+        <v>693.3481570175271</v>
       </c>
       <c r="O3" t="n">
-        <v>693.3481570175269</v>
+        <v>693.3481570175271</v>
       </c>
       <c r="P3" t="n">
-        <v>693.3481570175269</v>
+        <v>693.3481570175271</v>
       </c>
     </row>
     <row r="4">
@@ -26799,16 +26799,16 @@
         <v>355.8264439505633</v>
       </c>
       <c r="F4" t="n">
-        <v>543.6111966698313</v>
+        <v>543.6111966698314</v>
       </c>
       <c r="G4" t="n">
-        <v>543.6111966698313</v>
+        <v>543.6111966698314</v>
       </c>
       <c r="H4" t="n">
-        <v>543.6111966698313</v>
+        <v>543.6111966698314</v>
       </c>
       <c r="I4" t="n">
-        <v>549.4256113965084</v>
+        <v>549.4256113965083</v>
       </c>
       <c r="J4" t="n">
         <v>919.606948989728</v>
@@ -26820,7 +26820,7 @@
         <v>919.6069489897278</v>
       </c>
       <c r="M4" t="n">
-        <v>651.5739268159701</v>
+        <v>651.5739268159704</v>
       </c>
       <c r="N4" t="n">
         <v>651.5739268159701</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466387</v>
       </c>
       <c r="M2" t="n">
-        <v>73.09836646452979</v>
+        <v>73.09836646452972</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>693.348157017527</v>
+        <v>693.3481570175271</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>5.814414726677114</v>
+        <v>5.814414726676887</v>
       </c>
       <c r="J4" t="n">
-        <v>370.1813375932196</v>
+        <v>370.1813375932197</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>87.79342177680559</v>
+        <v>87.79342177680587</v>
       </c>
       <c r="N4" t="n">
-        <v>187.7847527192681</v>
+        <v>187.7847527192679</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="C11" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="D11" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="E11" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="F11" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="G11" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="H11" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="I11" t="n">
-        <v>103.0173777174684</v>
+        <v>103.0173777174683</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="T11" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="U11" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="V11" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="W11" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="X11" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="Y11" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
     </row>
     <row r="12">
@@ -28166,28 +28166,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="C12" t="n">
-        <v>79.52712799203061</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="G12" t="n">
-        <v>103.5919958860565</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>97.83211742750971</v>
       </c>
       <c r="I12" t="n">
-        <v>38.04962311002274</v>
+        <v>6.421605126939816</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>7.563150089057117</v>
       </c>
       <c r="S12" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="T12" t="n">
-        <v>103.5919958860565</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>103.5919958860565</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="W12" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="X12" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="Y12" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="C13" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="D13" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="E13" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="F13" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="G13" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="H13" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="I13" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="J13" t="n">
-        <v>4.962973278552994</v>
+        <v>30.86400121666531</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="L13" t="n">
-        <v>103.5919958860565</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>103.5919958860565</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>25.90102793811214</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="S13" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="T13" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="U13" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="V13" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="W13" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="X13" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="Y13" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="C14" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="D14" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="E14" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="F14" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="G14" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="H14" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="I14" t="n">
-        <v>103.0173777174684</v>
+        <v>103.0173777174683</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="T14" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="U14" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="V14" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="W14" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="X14" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="Y14" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
     </row>
     <row r="15">
@@ -28418,7 +28418,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>103.5919958860565</v>
+        <v>10.37365806545633</v>
       </c>
       <c r="H15" t="n">
         <v>97.83211742750971</v>
@@ -28454,13 +28454,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="T15" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="U15" t="n">
-        <v>10.37365806545668</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -28482,40 +28482,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="C16" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="D16" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="E16" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="F16" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="G16" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="H16" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="I16" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="J16" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>30.86400121666514</v>
       </c>
       <c r="L16" t="n">
-        <v>30.86400121666537</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -28527,31 +28527,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>103.5919958860565</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="S16" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="T16" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="U16" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="V16" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="W16" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="X16" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="Y16" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
     </row>
     <row r="17">
@@ -28582,7 +28582,7 @@
         <v>182.9006924107203</v>
       </c>
       <c r="I17" t="n">
-        <v>103.0173777174684</v>
+        <v>103.0173777174683</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>145.503803744891</v>
+        <v>145.5038037448909</v>
       </c>
       <c r="T17" t="n">
         <v>182.9006924107203</v>
@@ -28655,13 +28655,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>135.852164523588</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>97.83211742750971</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>38.04962311002273</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28691,13 +28691,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>2.396788789317583</v>
+        <v>15.13075521967184</v>
       </c>
       <c r="T18" t="n">
         <v>182.9006924107203</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>182.9006924107203</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -28719,25 +28719,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>143.3994809848621</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.7406794031812</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>151.1108692686996</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>117.8505453630947</v>
@@ -28773,7 +28773,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>182.9006924107203</v>
+        <v>95.32393206880393</v>
       </c>
       <c r="U19" t="n">
         <v>182.9006924107203</v>
@@ -28785,10 +28785,10 @@
         <v>182.9006924107203</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>182.9006924107203</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>182.9006924107203</v>
       </c>
     </row>
     <row r="20">
@@ -28819,7 +28819,7 @@
         <v>182.9006924107203</v>
       </c>
       <c r="I20" t="n">
-        <v>103.0173777174684</v>
+        <v>103.0173777174683</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>145.503803744891</v>
+        <v>145.5038037448909</v>
       </c>
       <c r="T20" t="n">
         <v>182.9006924107203</v>
@@ -28898,7 +28898,7 @@
         <v>97.83211742750971</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>38.04962311002273</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,13 +28925,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>3.26590816513161</v>
       </c>
       <c r="S21" t="n">
-        <v>2.396788789317583</v>
+        <v>143.9819499248829</v>
       </c>
       <c r="T21" t="n">
-        <v>182.9006924107203</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -28959,7 +28959,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -28971,10 +28971,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.7406794031812</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>95.83007376425084</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>117.8505453630947</v>
@@ -29007,16 +29007,16 @@
         <v>121.0753588426008</v>
       </c>
       <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>95.32393206880393</v>
+      </c>
+      <c r="U22" t="n">
         <v>182.9006924107203</v>
       </c>
-      <c r="T22" t="n">
+      <c r="V22" t="n">
         <v>182.9006924107203</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>182.9006924107203</v>
@@ -29056,7 +29056,7 @@
         <v>182.9006924107203</v>
       </c>
       <c r="I23" t="n">
-        <v>103.0173777174684</v>
+        <v>103.0173777174683</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>145.503803744891</v>
+        <v>145.5038037448909</v>
       </c>
       <c r="T23" t="n">
         <v>182.9006924107203</v>
@@ -29129,13 +29129,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>135.852164523588</v>
       </c>
       <c r="H24" t="n">
-        <v>97.83211742750971</v>
+        <v>78.53344492135382</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>38.04962311002273</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29168,7 +29168,7 @@
         <v>143.9819499248829</v>
       </c>
       <c r="T24" t="n">
-        <v>154.6031151274546</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -29193,25 +29193,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>111.5855966652308</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>151.1108692686996</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>117.8505453630947</v>
@@ -29241,7 +29241,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>121.0753588426008</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>182.9006924107203</v>
@@ -29253,7 +29253,7 @@
         <v>182.9006924107203</v>
       </c>
       <c r="V25" t="n">
-        <v>182.9006924107203</v>
+        <v>179.9325611472535</v>
       </c>
       <c r="W25" t="n">
         <v>182.9006924107203</v>
@@ -29262,7 +29262,7 @@
         <v>182.9006924107203</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>182.9006924107203</v>
       </c>
     </row>
     <row r="26">
@@ -29469,13 +29469,13 @@
         <v>79.30869652466384</v>
       </c>
       <c r="O28" t="n">
-        <v>79.30869652466285</v>
+        <v>79.30869652466384</v>
       </c>
       <c r="P28" t="n">
         <v>79.30869652466384</v>
       </c>
       <c r="Q28" t="n">
-        <v>79.30869652466384</v>
+        <v>79.30869652466255</v>
       </c>
       <c r="R28" t="n">
         <v>79.30869652466384</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466386</v>
       </c>
       <c r="C32" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466386</v>
       </c>
       <c r="D32" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466386</v>
       </c>
       <c r="E32" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466386</v>
       </c>
       <c r="F32" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466386</v>
       </c>
       <c r="G32" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466386</v>
       </c>
       <c r="H32" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466386</v>
       </c>
       <c r="I32" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466386</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466386</v>
       </c>
       <c r="T32" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466386</v>
       </c>
       <c r="U32" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466386</v>
       </c>
       <c r="V32" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466386</v>
       </c>
       <c r="W32" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466386</v>
       </c>
       <c r="X32" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466386</v>
       </c>
       <c r="Y32" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466386</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466386</v>
       </c>
       <c r="C34" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466386</v>
       </c>
       <c r="D34" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466386</v>
       </c>
       <c r="E34" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466386</v>
       </c>
       <c r="F34" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466386</v>
       </c>
       <c r="G34" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466386</v>
       </c>
       <c r="H34" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466386</v>
       </c>
       <c r="I34" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466386</v>
       </c>
       <c r="J34" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466386</v>
       </c>
       <c r="K34" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466386</v>
       </c>
       <c r="L34" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466386</v>
       </c>
       <c r="M34" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466386</v>
       </c>
       <c r="N34" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466386</v>
       </c>
       <c r="O34" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466214</v>
       </c>
       <c r="P34" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466386</v>
       </c>
       <c r="Q34" t="n">
-        <v>79.30869652466419</v>
+        <v>79.30869652466386</v>
       </c>
       <c r="R34" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466386</v>
       </c>
       <c r="S34" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466386</v>
       </c>
       <c r="T34" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466386</v>
       </c>
       <c r="U34" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466386</v>
       </c>
       <c r="V34" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466386</v>
       </c>
       <c r="W34" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466386</v>
       </c>
       <c r="X34" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466386</v>
       </c>
       <c r="Y34" t="n">
-        <v>79.30869652466379</v>
+        <v>79.30869652466386</v>
       </c>
     </row>
     <row r="35">
@@ -30004,7 +30004,7 @@
         <v>152.4070629891936</v>
       </c>
       <c r="I35" t="n">
-        <v>103.0173777174684</v>
+        <v>103.0173777174683</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>145.503803744891</v>
+        <v>145.5038037448909</v>
       </c>
       <c r="T35" t="n">
         <v>152.4070629891936</v>
@@ -30141,13 +30141,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>152.4070629891936</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>152.4070629891936</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -30156,16 +30156,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>152.4070629891936</v>
+        <v>114.6001960295855</v>
       </c>
       <c r="H37" t="n">
-        <v>151.1108692686996</v>
+        <v>151.1108692686995</v>
       </c>
       <c r="I37" t="n">
         <v>117.8505453630947</v>
       </c>
       <c r="J37" t="n">
-        <v>4.962973278553008</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30189,7 +30189,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>105.8456327800521</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>152.4070629891936</v>
@@ -30198,10 +30198,10 @@
         <v>152.4070629891936</v>
       </c>
       <c r="U37" t="n">
-        <v>152.4070629891936</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>152.4070629891936</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>152.4070629891936</v>
@@ -30241,7 +30241,7 @@
         <v>152.4070629891936</v>
       </c>
       <c r="I38" t="n">
-        <v>103.0173777174684</v>
+        <v>103.0173777174683</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>145.503803744891</v>
+        <v>145.5038037448909</v>
       </c>
       <c r="T38" t="n">
         <v>152.4070629891936</v>
@@ -30378,25 +30378,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>152.4070629891936</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>152.4070629891936</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>138.945885209916</v>
       </c>
       <c r="G40" t="n">
-        <v>152.4070629891936</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>151.1108692686996</v>
+        <v>151.1108692686995</v>
       </c>
       <c r="I40" t="n">
         <v>117.8505453630947</v>
@@ -30435,19 +30435,19 @@
         <v>152.4070629891936</v>
       </c>
       <c r="U40" t="n">
-        <v>152.4070629891936</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>152.4070629891936</v>
       </c>
       <c r="W40" t="n">
-        <v>152.4070629891936</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>152.4070629891936</v>
       </c>
       <c r="Y40" t="n">
-        <v>142.1403102051978</v>
+        <v>152.4070629891936</v>
       </c>
     </row>
     <row r="41">
@@ -30478,7 +30478,7 @@
         <v>152.4070629891936</v>
       </c>
       <c r="I41" t="n">
-        <v>103.0173777174684</v>
+        <v>103.0173777174683</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>145.503803744891</v>
+        <v>145.5038037448909</v>
       </c>
       <c r="T41" t="n">
         <v>152.4070629891936</v>
@@ -30618,25 +30618,25 @@
         <v>152.4070629891936</v>
       </c>
       <c r="C43" t="n">
-        <v>129.1811948963109</v>
+        <v>152.4070629891936</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>152.4070629891936</v>
+        <v>111.3753825500795</v>
       </c>
       <c r="H43" t="n">
-        <v>151.1108692686996</v>
+        <v>151.1108692686995</v>
       </c>
       <c r="I43" t="n">
-        <v>117.8505453630947</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30666,10 +30666,10 @@
         <v>121.0753588426008</v>
       </c>
       <c r="S43" t="n">
-        <v>152.4070629891936</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>152.4070629891936</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>152.4070629891936</v>
@@ -30715,7 +30715,7 @@
         <v>152.4070629891936</v>
       </c>
       <c r="I44" t="n">
-        <v>103.0173777174684</v>
+        <v>103.0173777174683</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,7 +30745,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>145.503803744891</v>
+        <v>145.5038037448909</v>
       </c>
       <c r="T44" t="n">
         <v>152.4070629891936</v>
@@ -30852,25 +30852,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>152.4070629891936</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>152.4070629891936</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>136.1672098625734</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>152.4070629891936</v>
+        <v>132.9727848672918</v>
       </c>
       <c r="H46" t="n">
-        <v>151.1108692686996</v>
+        <v>151.1108692686995</v>
       </c>
       <c r="I46" t="n">
         <v>117.8505453630947</v>
@@ -30903,7 +30903,7 @@
         <v>121.0753588426008</v>
       </c>
       <c r="S46" t="n">
-        <v>152.4070629891936</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>152.4070629891936</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.787329274442317</v>
+        <v>2.787329274442318</v>
       </c>
       <c r="H11" t="n">
-        <v>28.54573593188239</v>
+        <v>28.5457359318824</v>
       </c>
       <c r="I11" t="n">
-        <v>107.4585118529375</v>
+        <v>107.4585118529376</v>
       </c>
       <c r="J11" t="n">
         <v>236.5710880066989</v>
       </c>
       <c r="K11" t="n">
-        <v>354.5587361938422</v>
+        <v>354.5587361938423</v>
       </c>
       <c r="L11" t="n">
-        <v>439.8614644765564</v>
+        <v>439.8614644765565</v>
       </c>
       <c r="M11" t="n">
-        <v>489.4306314609199</v>
+        <v>489.43063146092</v>
       </c>
       <c r="N11" t="n">
-        <v>497.3501307619292</v>
+        <v>497.3501307619293</v>
       </c>
       <c r="O11" t="n">
         <v>469.6336252891934</v>
       </c>
       <c r="P11" t="n">
-        <v>400.8214338263986</v>
+        <v>400.8214338263987</v>
       </c>
       <c r="Q11" t="n">
-        <v>301.000204185433</v>
+        <v>301.0002041854331</v>
       </c>
       <c r="R11" t="n">
         <v>175.0895725356874</v>
@@ -31829,13 +31829,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.491352639622605</v>
+        <v>1.491352639622606</v>
       </c>
       <c r="H12" t="n">
-        <v>14.40332680898674</v>
+        <v>14.40332680898675</v>
       </c>
       <c r="I12" t="n">
-        <v>51.34700974139233</v>
+        <v>51.34700974139235</v>
       </c>
       <c r="J12" t="n">
         <v>140.9001193425901</v>
@@ -31850,7 +31850,7 @@
         <v>377.8747455745522</v>
       </c>
       <c r="N12" t="n">
-        <v>387.8759656885126</v>
+        <v>387.8759656885127</v>
       </c>
       <c r="O12" t="n">
         <v>354.8307308842433</v>
@@ -31859,19 +31859,19 @@
         <v>284.7829439644254</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.3698562437557</v>
+        <v>190.3698562437558</v>
       </c>
       <c r="R12" t="n">
-        <v>92.594684063586</v>
+        <v>92.59468406358602</v>
       </c>
       <c r="S12" t="n">
-        <v>27.70122117895495</v>
+        <v>27.70122117895496</v>
       </c>
       <c r="T12" t="n">
-        <v>6.011197700934972</v>
+        <v>6.011197700934973</v>
       </c>
       <c r="U12" t="n">
-        <v>0.09811530523832933</v>
+        <v>0.09811530523832936</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,16 +31914,16 @@
         <v>11.11630323874003</v>
       </c>
       <c r="I13" t="n">
-        <v>37.5999295641636</v>
+        <v>37.59992956416361</v>
       </c>
       <c r="J13" t="n">
-        <v>88.39620683811978</v>
+        <v>88.3962068381198</v>
       </c>
       <c r="K13" t="n">
         <v>145.2621220767868</v>
       </c>
       <c r="L13" t="n">
-        <v>185.885504260076</v>
+        <v>185.8855042600761</v>
       </c>
       <c r="M13" t="n">
         <v>195.9902011713642</v>
@@ -31941,16 +31941,16 @@
         <v>104.6955717096466</v>
       </c>
       <c r="R13" t="n">
-        <v>56.21803253456864</v>
+        <v>56.21803253456866</v>
       </c>
       <c r="S13" t="n">
         <v>21.78931831151801</v>
       </c>
       <c r="T13" t="n">
-        <v>5.342190718003895</v>
+        <v>5.342190718003896</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06819817937877322</v>
+        <v>0.06819817937877323</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.787329274442317</v>
+        <v>2.787329274442318</v>
       </c>
       <c r="H14" t="n">
-        <v>28.54573593188239</v>
+        <v>28.5457359318824</v>
       </c>
       <c r="I14" t="n">
-        <v>107.4585118529375</v>
+        <v>107.4585118529376</v>
       </c>
       <c r="J14" t="n">
         <v>236.5710880066989</v>
       </c>
       <c r="K14" t="n">
-        <v>354.5587361938422</v>
+        <v>354.5587361938423</v>
       </c>
       <c r="L14" t="n">
-        <v>439.8614644765564</v>
+        <v>439.8614644765565</v>
       </c>
       <c r="M14" t="n">
-        <v>489.4306314609199</v>
+        <v>489.43063146092</v>
       </c>
       <c r="N14" t="n">
-        <v>497.3501307619292</v>
+        <v>497.3501307619293</v>
       </c>
       <c r="O14" t="n">
         <v>469.6336252891934</v>
       </c>
       <c r="P14" t="n">
-        <v>400.8214338263986</v>
+        <v>400.8214338263987</v>
       </c>
       <c r="Q14" t="n">
-        <v>301.000204185433</v>
+        <v>301.0002041854331</v>
       </c>
       <c r="R14" t="n">
         <v>175.0895725356874</v>
@@ -32066,13 +32066,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.491352639622605</v>
+        <v>1.491352639622606</v>
       </c>
       <c r="H15" t="n">
-        <v>14.40332680898674</v>
+        <v>14.40332680898675</v>
       </c>
       <c r="I15" t="n">
-        <v>51.34700974139233</v>
+        <v>51.34700974139235</v>
       </c>
       <c r="J15" t="n">
         <v>140.9001193425901</v>
@@ -32087,7 +32087,7 @@
         <v>377.8747455745522</v>
       </c>
       <c r="N15" t="n">
-        <v>387.8759656885126</v>
+        <v>387.8759656885127</v>
       </c>
       <c r="O15" t="n">
         <v>354.8307308842433</v>
@@ -32096,19 +32096,19 @@
         <v>284.7829439644254</v>
       </c>
       <c r="Q15" t="n">
-        <v>190.3698562437557</v>
+        <v>190.3698562437558</v>
       </c>
       <c r="R15" t="n">
-        <v>92.594684063586</v>
+        <v>92.59468406358602</v>
       </c>
       <c r="S15" t="n">
-        <v>27.70122117895495</v>
+        <v>27.70122117895496</v>
       </c>
       <c r="T15" t="n">
-        <v>6.011197700934972</v>
+        <v>6.011197700934973</v>
       </c>
       <c r="U15" t="n">
-        <v>0.09811530523832933</v>
+        <v>0.09811530523832936</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32151,16 +32151,16 @@
         <v>11.11630323874003</v>
       </c>
       <c r="I16" t="n">
-        <v>37.5999295641636</v>
+        <v>37.59992956416361</v>
       </c>
       <c r="J16" t="n">
-        <v>88.39620683811978</v>
+        <v>88.3962068381198</v>
       </c>
       <c r="K16" t="n">
         <v>145.2621220767868</v>
       </c>
       <c r="L16" t="n">
-        <v>185.885504260076</v>
+        <v>185.8855042600761</v>
       </c>
       <c r="M16" t="n">
         <v>195.9902011713642</v>
@@ -32178,16 +32178,16 @@
         <v>104.6955717096466</v>
       </c>
       <c r="R16" t="n">
-        <v>56.21803253456864</v>
+        <v>56.21803253456866</v>
       </c>
       <c r="S16" t="n">
         <v>21.78931831151801</v>
       </c>
       <c r="T16" t="n">
-        <v>5.342190718003895</v>
+        <v>5.342190718003896</v>
       </c>
       <c r="U16" t="n">
-        <v>0.06819817937877322</v>
+        <v>0.06819817937877323</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.787329274442317</v>
+        <v>2.787329274442318</v>
       </c>
       <c r="H17" t="n">
-        <v>28.54573593188239</v>
+        <v>28.5457359318824</v>
       </c>
       <c r="I17" t="n">
-        <v>107.4585118529375</v>
+        <v>107.4585118529376</v>
       </c>
       <c r="J17" t="n">
         <v>236.5710880066989</v>
       </c>
       <c r="K17" t="n">
-        <v>354.5587361938422</v>
+        <v>354.5587361938423</v>
       </c>
       <c r="L17" t="n">
-        <v>439.8614644765564</v>
+        <v>439.8614644765565</v>
       </c>
       <c r="M17" t="n">
-        <v>489.4306314609199</v>
+        <v>489.43063146092</v>
       </c>
       <c r="N17" t="n">
-        <v>497.3501307619292</v>
+        <v>497.3501307619293</v>
       </c>
       <c r="O17" t="n">
         <v>469.6336252891934</v>
       </c>
       <c r="P17" t="n">
-        <v>400.8214338263986</v>
+        <v>400.8214338263987</v>
       </c>
       <c r="Q17" t="n">
-        <v>301.000204185433</v>
+        <v>301.0002041854331</v>
       </c>
       <c r="R17" t="n">
         <v>175.0895725356874</v>
@@ -32303,13 +32303,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.491352639622605</v>
+        <v>1.491352639622606</v>
       </c>
       <c r="H18" t="n">
-        <v>14.40332680898674</v>
+        <v>14.40332680898675</v>
       </c>
       <c r="I18" t="n">
-        <v>51.34700974139233</v>
+        <v>51.34700974139235</v>
       </c>
       <c r="J18" t="n">
         <v>140.9001193425901</v>
@@ -32324,7 +32324,7 @@
         <v>377.8747455745522</v>
       </c>
       <c r="N18" t="n">
-        <v>387.8759656885126</v>
+        <v>387.8759656885127</v>
       </c>
       <c r="O18" t="n">
         <v>354.8307308842433</v>
@@ -32333,19 +32333,19 @@
         <v>284.7829439644254</v>
       </c>
       <c r="Q18" t="n">
-        <v>190.3698562437557</v>
+        <v>190.3698562437558</v>
       </c>
       <c r="R18" t="n">
-        <v>92.594684063586</v>
+        <v>92.59468406358602</v>
       </c>
       <c r="S18" t="n">
-        <v>27.70122117895495</v>
+        <v>27.70122117895496</v>
       </c>
       <c r="T18" t="n">
-        <v>6.011197700934972</v>
+        <v>6.011197700934973</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09811530523832933</v>
+        <v>0.09811530523832936</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32388,16 +32388,16 @@
         <v>11.11630323874003</v>
       </c>
       <c r="I19" t="n">
-        <v>37.5999295641636</v>
+        <v>37.59992956416361</v>
       </c>
       <c r="J19" t="n">
-        <v>88.39620683811978</v>
+        <v>88.3962068381198</v>
       </c>
       <c r="K19" t="n">
         <v>145.2621220767868</v>
       </c>
       <c r="L19" t="n">
-        <v>185.885504260076</v>
+        <v>185.8855042600761</v>
       </c>
       <c r="M19" t="n">
         <v>195.9902011713642</v>
@@ -32415,16 +32415,16 @@
         <v>104.6955717096466</v>
       </c>
       <c r="R19" t="n">
-        <v>56.21803253456864</v>
+        <v>56.21803253456866</v>
       </c>
       <c r="S19" t="n">
         <v>21.78931831151801</v>
       </c>
       <c r="T19" t="n">
-        <v>5.342190718003895</v>
+        <v>5.342190718003896</v>
       </c>
       <c r="U19" t="n">
-        <v>0.06819817937877322</v>
+        <v>0.06819817937877323</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.787329274442317</v>
+        <v>2.787329274442318</v>
       </c>
       <c r="H20" t="n">
-        <v>28.54573593188239</v>
+        <v>28.5457359318824</v>
       </c>
       <c r="I20" t="n">
-        <v>107.4585118529375</v>
+        <v>107.4585118529376</v>
       </c>
       <c r="J20" t="n">
         <v>236.5710880066989</v>
       </c>
       <c r="K20" t="n">
-        <v>354.5587361938422</v>
+        <v>354.5587361938423</v>
       </c>
       <c r="L20" t="n">
-        <v>439.8614644765564</v>
+        <v>439.8614644765565</v>
       </c>
       <c r="M20" t="n">
-        <v>489.4306314609199</v>
+        <v>489.43063146092</v>
       </c>
       <c r="N20" t="n">
-        <v>497.3501307619292</v>
+        <v>497.3501307619293</v>
       </c>
       <c r="O20" t="n">
         <v>469.6336252891934</v>
       </c>
       <c r="P20" t="n">
-        <v>400.8214338263986</v>
+        <v>400.8214338263987</v>
       </c>
       <c r="Q20" t="n">
-        <v>301.000204185433</v>
+        <v>301.0002041854331</v>
       </c>
       <c r="R20" t="n">
         <v>175.0895725356874</v>
@@ -32540,13 +32540,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.491352639622605</v>
+        <v>1.491352639622606</v>
       </c>
       <c r="H21" t="n">
-        <v>14.40332680898674</v>
+        <v>14.40332680898675</v>
       </c>
       <c r="I21" t="n">
-        <v>51.34700974139233</v>
+        <v>51.34700974139235</v>
       </c>
       <c r="J21" t="n">
         <v>140.9001193425901</v>
@@ -32561,7 +32561,7 @@
         <v>377.8747455745522</v>
       </c>
       <c r="N21" t="n">
-        <v>387.8759656885126</v>
+        <v>387.8759656885127</v>
       </c>
       <c r="O21" t="n">
         <v>354.8307308842433</v>
@@ -32570,19 +32570,19 @@
         <v>284.7829439644254</v>
       </c>
       <c r="Q21" t="n">
-        <v>190.3698562437557</v>
+        <v>190.3698562437558</v>
       </c>
       <c r="R21" t="n">
-        <v>92.594684063586</v>
+        <v>92.59468406358602</v>
       </c>
       <c r="S21" t="n">
-        <v>27.70122117895495</v>
+        <v>27.70122117895496</v>
       </c>
       <c r="T21" t="n">
-        <v>6.011197700934972</v>
+        <v>6.011197700934973</v>
       </c>
       <c r="U21" t="n">
-        <v>0.09811530523832933</v>
+        <v>0.09811530523832936</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32625,16 +32625,16 @@
         <v>11.11630323874003</v>
       </c>
       <c r="I22" t="n">
-        <v>37.5999295641636</v>
+        <v>37.59992956416361</v>
       </c>
       <c r="J22" t="n">
-        <v>88.39620683811978</v>
+        <v>88.3962068381198</v>
       </c>
       <c r="K22" t="n">
         <v>145.2621220767868</v>
       </c>
       <c r="L22" t="n">
-        <v>185.885504260076</v>
+        <v>185.8855042600761</v>
       </c>
       <c r="M22" t="n">
         <v>195.9902011713642</v>
@@ -32652,16 +32652,16 @@
         <v>104.6955717096466</v>
       </c>
       <c r="R22" t="n">
-        <v>56.21803253456864</v>
+        <v>56.21803253456866</v>
       </c>
       <c r="S22" t="n">
         <v>21.78931831151801</v>
       </c>
       <c r="T22" t="n">
-        <v>5.342190718003895</v>
+        <v>5.342190718003896</v>
       </c>
       <c r="U22" t="n">
-        <v>0.06819817937877322</v>
+        <v>0.06819817937877323</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,37 +32698,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.787329274442317</v>
+        <v>2.787329274442318</v>
       </c>
       <c r="H23" t="n">
-        <v>28.54573593188239</v>
+        <v>28.5457359318824</v>
       </c>
       <c r="I23" t="n">
-        <v>107.4585118529375</v>
+        <v>107.4585118529376</v>
       </c>
       <c r="J23" t="n">
         <v>236.5710880066989</v>
       </c>
       <c r="K23" t="n">
-        <v>354.5587361938422</v>
+        <v>354.5587361938423</v>
       </c>
       <c r="L23" t="n">
-        <v>439.8614644765564</v>
+        <v>439.8614644765565</v>
       </c>
       <c r="M23" t="n">
-        <v>489.4306314609199</v>
+        <v>489.43063146092</v>
       </c>
       <c r="N23" t="n">
-        <v>497.3501307619292</v>
+        <v>497.3501307619293</v>
       </c>
       <c r="O23" t="n">
         <v>469.6336252891934</v>
       </c>
       <c r="P23" t="n">
-        <v>400.8214338263986</v>
+        <v>400.8214338263987</v>
       </c>
       <c r="Q23" t="n">
-        <v>301.000204185433</v>
+        <v>301.0002041854331</v>
       </c>
       <c r="R23" t="n">
         <v>175.0895725356874</v>
@@ -32777,13 +32777,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.491352639622605</v>
+        <v>1.491352639622606</v>
       </c>
       <c r="H24" t="n">
-        <v>14.40332680898674</v>
+        <v>14.40332680898675</v>
       </c>
       <c r="I24" t="n">
-        <v>51.34700974139233</v>
+        <v>51.34700974139235</v>
       </c>
       <c r="J24" t="n">
         <v>140.9001193425901</v>
@@ -32798,7 +32798,7 @@
         <v>377.8747455745522</v>
       </c>
       <c r="N24" t="n">
-        <v>387.8759656885126</v>
+        <v>387.8759656885127</v>
       </c>
       <c r="O24" t="n">
         <v>354.8307308842433</v>
@@ -32807,19 +32807,19 @@
         <v>284.7829439644254</v>
       </c>
       <c r="Q24" t="n">
-        <v>190.3698562437557</v>
+        <v>190.3698562437558</v>
       </c>
       <c r="R24" t="n">
-        <v>92.594684063586</v>
+        <v>92.59468406358602</v>
       </c>
       <c r="S24" t="n">
-        <v>27.70122117895495</v>
+        <v>27.70122117895496</v>
       </c>
       <c r="T24" t="n">
-        <v>6.011197700934972</v>
+        <v>6.011197700934973</v>
       </c>
       <c r="U24" t="n">
-        <v>0.09811530523832933</v>
+        <v>0.09811530523832936</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32862,16 +32862,16 @@
         <v>11.11630323874003</v>
       </c>
       <c r="I25" t="n">
-        <v>37.5999295641636</v>
+        <v>37.59992956416361</v>
       </c>
       <c r="J25" t="n">
-        <v>88.39620683811978</v>
+        <v>88.3962068381198</v>
       </c>
       <c r="K25" t="n">
         <v>145.2621220767868</v>
       </c>
       <c r="L25" t="n">
-        <v>185.885504260076</v>
+        <v>185.8855042600761</v>
       </c>
       <c r="M25" t="n">
         <v>195.9902011713642</v>
@@ -32889,16 +32889,16 @@
         <v>104.6955717096466</v>
       </c>
       <c r="R25" t="n">
-        <v>56.21803253456864</v>
+        <v>56.21803253456866</v>
       </c>
       <c r="S25" t="n">
         <v>21.78931831151801</v>
       </c>
       <c r="T25" t="n">
-        <v>5.342190718003895</v>
+        <v>5.342190718003896</v>
       </c>
       <c r="U25" t="n">
-        <v>0.06819817937877322</v>
+        <v>0.06819817937877323</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,37 +32935,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.787329274442317</v>
+        <v>2.787329274442318</v>
       </c>
       <c r="H26" t="n">
-        <v>28.54573593188239</v>
+        <v>28.5457359318824</v>
       </c>
       <c r="I26" t="n">
-        <v>107.4585118529375</v>
+        <v>107.4585118529376</v>
       </c>
       <c r="J26" t="n">
         <v>236.5710880066989</v>
       </c>
       <c r="K26" t="n">
-        <v>354.5587361938422</v>
+        <v>354.5587361938423</v>
       </c>
       <c r="L26" t="n">
-        <v>439.8614644765564</v>
+        <v>439.8614644765565</v>
       </c>
       <c r="M26" t="n">
-        <v>489.4306314609199</v>
+        <v>489.43063146092</v>
       </c>
       <c r="N26" t="n">
-        <v>497.3501307619292</v>
+        <v>497.3501307619293</v>
       </c>
       <c r="O26" t="n">
         <v>469.6336252891934</v>
       </c>
       <c r="P26" t="n">
-        <v>400.8214338263986</v>
+        <v>400.8214338263987</v>
       </c>
       <c r="Q26" t="n">
-        <v>301.000204185433</v>
+        <v>301.0002041854331</v>
       </c>
       <c r="R26" t="n">
         <v>175.0895725356874</v>
@@ -33014,13 +33014,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.491352639622605</v>
+        <v>1.491352639622606</v>
       </c>
       <c r="H27" t="n">
-        <v>14.40332680898674</v>
+        <v>14.40332680898675</v>
       </c>
       <c r="I27" t="n">
-        <v>51.34700974139233</v>
+        <v>51.34700974139235</v>
       </c>
       <c r="J27" t="n">
         <v>140.9001193425901</v>
@@ -33035,7 +33035,7 @@
         <v>377.8747455745522</v>
       </c>
       <c r="N27" t="n">
-        <v>387.8759656885126</v>
+        <v>387.8759656885127</v>
       </c>
       <c r="O27" t="n">
         <v>354.8307308842433</v>
@@ -33044,19 +33044,19 @@
         <v>284.7829439644254</v>
       </c>
       <c r="Q27" t="n">
-        <v>190.3698562437557</v>
+        <v>190.3698562437558</v>
       </c>
       <c r="R27" t="n">
-        <v>92.594684063586</v>
+        <v>92.59468406358602</v>
       </c>
       <c r="S27" t="n">
-        <v>27.70122117895495</v>
+        <v>27.70122117895496</v>
       </c>
       <c r="T27" t="n">
-        <v>6.011197700934972</v>
+        <v>6.011197700934973</v>
       </c>
       <c r="U27" t="n">
-        <v>0.09811530523832933</v>
+        <v>0.09811530523832936</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33099,16 +33099,16 @@
         <v>11.11630323874003</v>
       </c>
       <c r="I28" t="n">
-        <v>37.5999295641636</v>
+        <v>37.59992956416361</v>
       </c>
       <c r="J28" t="n">
-        <v>88.39620683811978</v>
+        <v>88.3962068381198</v>
       </c>
       <c r="K28" t="n">
         <v>145.2621220767868</v>
       </c>
       <c r="L28" t="n">
-        <v>185.885504260076</v>
+        <v>185.8855042600761</v>
       </c>
       <c r="M28" t="n">
         <v>195.9902011713642</v>
@@ -33126,16 +33126,16 @@
         <v>104.6955717096466</v>
       </c>
       <c r="R28" t="n">
-        <v>56.21803253456864</v>
+        <v>56.21803253456866</v>
       </c>
       <c r="S28" t="n">
         <v>21.78931831151801</v>
       </c>
       <c r="T28" t="n">
-        <v>5.342190718003895</v>
+        <v>5.342190718003896</v>
       </c>
       <c r="U28" t="n">
-        <v>0.06819817937877322</v>
+        <v>0.06819817937877323</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.787329274442317</v>
+        <v>2.787329274442318</v>
       </c>
       <c r="H29" t="n">
-        <v>28.54573593188239</v>
+        <v>28.5457359318824</v>
       </c>
       <c r="I29" t="n">
-        <v>107.4585118529375</v>
+        <v>107.4585118529376</v>
       </c>
       <c r="J29" t="n">
-        <v>236.5710880066988</v>
+        <v>236.5710880066989</v>
       </c>
       <c r="K29" t="n">
-        <v>354.5587361938422</v>
+        <v>354.5587361938423</v>
       </c>
       <c r="L29" t="n">
-        <v>439.8614644765563</v>
+        <v>439.8614644765565</v>
       </c>
       <c r="M29" t="n">
-        <v>489.4306314609199</v>
+        <v>489.43063146092</v>
       </c>
       <c r="N29" t="n">
-        <v>497.3501307619291</v>
+        <v>497.3501307619293</v>
       </c>
       <c r="O29" t="n">
-        <v>469.6336252891933</v>
+        <v>469.6336252891934</v>
       </c>
       <c r="P29" t="n">
-        <v>400.8214338263986</v>
+        <v>400.8214338263987</v>
       </c>
       <c r="Q29" t="n">
-        <v>301.0002041854329</v>
+        <v>301.0002041854331</v>
       </c>
       <c r="R29" t="n">
         <v>175.0895725356874</v>
       </c>
       <c r="S29" t="n">
-        <v>63.51626584135436</v>
+        <v>63.51626584135438</v>
       </c>
       <c r="T29" t="n">
         <v>12.20153389887125</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2229863419553853</v>
+        <v>0.2229863419553854</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.491352639622605</v>
+        <v>1.491352639622606</v>
       </c>
       <c r="H30" t="n">
-        <v>14.40332680898674</v>
+        <v>14.40332680898675</v>
       </c>
       <c r="I30" t="n">
-        <v>51.34700974139233</v>
+        <v>51.34700974139235</v>
       </c>
       <c r="J30" t="n">
         <v>140.9001193425901</v>
       </c>
       <c r="K30" t="n">
-        <v>240.8207461973046</v>
+        <v>240.8207461973047</v>
       </c>
       <c r="L30" t="n">
         <v>323.8132123882328</v>
       </c>
       <c r="M30" t="n">
-        <v>377.8747455745521</v>
+        <v>377.8747455745522</v>
       </c>
       <c r="N30" t="n">
-        <v>387.8759656885126</v>
+        <v>387.8759656885127</v>
       </c>
       <c r="O30" t="n">
-        <v>354.8307308842432</v>
+        <v>354.8307308842433</v>
       </c>
       <c r="P30" t="n">
         <v>284.7829439644254</v>
       </c>
       <c r="Q30" t="n">
-        <v>190.3698562437557</v>
+        <v>190.3698562437558</v>
       </c>
       <c r="R30" t="n">
-        <v>92.59468406358599</v>
+        <v>92.59468406358602</v>
       </c>
       <c r="S30" t="n">
-        <v>27.70122117895495</v>
+        <v>27.70122117895496</v>
       </c>
       <c r="T30" t="n">
-        <v>6.011197700934972</v>
+        <v>6.011197700934973</v>
       </c>
       <c r="U30" t="n">
-        <v>0.09811530523832931</v>
+        <v>0.09811530523832936</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.250299955277507</v>
+        <v>1.250299955277508</v>
       </c>
       <c r="H31" t="n">
         <v>11.11630323874003</v>
       </c>
       <c r="I31" t="n">
-        <v>37.5999295641636</v>
+        <v>37.59992956416361</v>
       </c>
       <c r="J31" t="n">
-        <v>88.39620683811977</v>
+        <v>88.3962068381198</v>
       </c>
       <c r="K31" t="n">
-        <v>145.2621220767867</v>
+        <v>145.2621220767868</v>
       </c>
       <c r="L31" t="n">
-        <v>185.885504260076</v>
+        <v>185.8855042600761</v>
       </c>
       <c r="M31" t="n">
         <v>195.9902011713642</v>
       </c>
       <c r="N31" t="n">
-        <v>191.3299922471481</v>
+        <v>191.3299922471482</v>
       </c>
       <c r="O31" t="n">
-        <v>176.7242154968608</v>
+        <v>176.7242154968609</v>
       </c>
       <c r="P31" t="n">
-        <v>151.2180964091995</v>
+        <v>151.2180964091996</v>
       </c>
       <c r="Q31" t="n">
         <v>104.6955717096466</v>
       </c>
       <c r="R31" t="n">
-        <v>56.21803253456864</v>
+        <v>56.21803253456866</v>
       </c>
       <c r="S31" t="n">
         <v>21.78931831151801</v>
       </c>
       <c r="T31" t="n">
-        <v>5.342190718003894</v>
+        <v>5.342190718003896</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0681981793787732</v>
+        <v>0.06819817937877323</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.787329274442317</v>
+        <v>2.787329274442318</v>
       </c>
       <c r="H32" t="n">
-        <v>28.54573593188239</v>
+        <v>28.5457359318824</v>
       </c>
       <c r="I32" t="n">
-        <v>107.4585118529375</v>
+        <v>107.4585118529376</v>
       </c>
       <c r="J32" t="n">
-        <v>236.5710880066988</v>
+        <v>236.5710880066989</v>
       </c>
       <c r="K32" t="n">
-        <v>354.5587361938422</v>
+        <v>354.5587361938423</v>
       </c>
       <c r="L32" t="n">
-        <v>439.8614644765563</v>
+        <v>439.8614644765565</v>
       </c>
       <c r="M32" t="n">
-        <v>489.4306314609199</v>
+        <v>489.43063146092</v>
       </c>
       <c r="N32" t="n">
-        <v>497.3501307619291</v>
+        <v>497.3501307619293</v>
       </c>
       <c r="O32" t="n">
-        <v>469.6336252891933</v>
+        <v>469.6336252891934</v>
       </c>
       <c r="P32" t="n">
-        <v>400.8214338263986</v>
+        <v>400.8214338263987</v>
       </c>
       <c r="Q32" t="n">
-        <v>301.0002041854329</v>
+        <v>301.0002041854331</v>
       </c>
       <c r="R32" t="n">
         <v>175.0895725356874</v>
       </c>
       <c r="S32" t="n">
-        <v>63.51626584135436</v>
+        <v>63.51626584135438</v>
       </c>
       <c r="T32" t="n">
         <v>12.20153389887125</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2229863419553853</v>
+        <v>0.2229863419553854</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.491352639622605</v>
+        <v>1.491352639622606</v>
       </c>
       <c r="H33" t="n">
-        <v>14.40332680898674</v>
+        <v>14.40332680898675</v>
       </c>
       <c r="I33" t="n">
-        <v>51.34700974139233</v>
+        <v>51.34700974139235</v>
       </c>
       <c r="J33" t="n">
         <v>140.9001193425901</v>
       </c>
       <c r="K33" t="n">
-        <v>240.8207461973046</v>
+        <v>240.8207461973047</v>
       </c>
       <c r="L33" t="n">
         <v>323.8132123882328</v>
       </c>
       <c r="M33" t="n">
-        <v>377.8747455745521</v>
+        <v>377.8747455745522</v>
       </c>
       <c r="N33" t="n">
-        <v>387.8759656885126</v>
+        <v>387.8759656885127</v>
       </c>
       <c r="O33" t="n">
-        <v>354.8307308842432</v>
+        <v>354.8307308842433</v>
       </c>
       <c r="P33" t="n">
         <v>284.7829439644254</v>
       </c>
       <c r="Q33" t="n">
-        <v>190.3698562437557</v>
+        <v>190.3698562437558</v>
       </c>
       <c r="R33" t="n">
-        <v>92.59468406358599</v>
+        <v>92.59468406358602</v>
       </c>
       <c r="S33" t="n">
-        <v>27.70122117895495</v>
+        <v>27.70122117895496</v>
       </c>
       <c r="T33" t="n">
-        <v>6.011197700934972</v>
+        <v>6.011197700934973</v>
       </c>
       <c r="U33" t="n">
-        <v>0.09811530523832931</v>
+        <v>0.09811530523832936</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.250299955277507</v>
+        <v>1.250299955277508</v>
       </c>
       <c r="H34" t="n">
         <v>11.11630323874003</v>
       </c>
       <c r="I34" t="n">
-        <v>37.5999295641636</v>
+        <v>37.59992956416361</v>
       </c>
       <c r="J34" t="n">
-        <v>88.39620683811977</v>
+        <v>88.3962068381198</v>
       </c>
       <c r="K34" t="n">
-        <v>145.2621220767867</v>
+        <v>145.2621220767868</v>
       </c>
       <c r="L34" t="n">
-        <v>185.885504260076</v>
+        <v>185.8855042600761</v>
       </c>
       <c r="M34" t="n">
         <v>195.9902011713642</v>
       </c>
       <c r="N34" t="n">
-        <v>191.3299922471481</v>
+        <v>191.3299922471482</v>
       </c>
       <c r="O34" t="n">
-        <v>176.7242154968608</v>
+        <v>176.7242154968609</v>
       </c>
       <c r="P34" t="n">
-        <v>151.2180964091995</v>
+        <v>151.2180964091996</v>
       </c>
       <c r="Q34" t="n">
         <v>104.6955717096466</v>
       </c>
       <c r="R34" t="n">
-        <v>56.21803253456864</v>
+        <v>56.21803253456866</v>
       </c>
       <c r="S34" t="n">
         <v>21.78931831151801</v>
       </c>
       <c r="T34" t="n">
-        <v>5.342190718003894</v>
+        <v>5.342190718003896</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0681981793787732</v>
+        <v>0.06819817937877323</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.787329274442317</v>
+        <v>2.787329274442318</v>
       </c>
       <c r="H35" t="n">
-        <v>28.54573593188239</v>
+        <v>28.5457359318824</v>
       </c>
       <c r="I35" t="n">
-        <v>107.4585118529375</v>
+        <v>107.4585118529376</v>
       </c>
       <c r="J35" t="n">
-        <v>236.5710880066988</v>
+        <v>236.5710880066989</v>
       </c>
       <c r="K35" t="n">
-        <v>354.5587361938422</v>
+        <v>354.5587361938423</v>
       </c>
       <c r="L35" t="n">
-        <v>439.8614644765563</v>
+        <v>439.8614644765565</v>
       </c>
       <c r="M35" t="n">
-        <v>489.4306314609199</v>
+        <v>489.43063146092</v>
       </c>
       <c r="N35" t="n">
-        <v>497.3501307619291</v>
+        <v>497.3501307619293</v>
       </c>
       <c r="O35" t="n">
-        <v>469.6336252891933</v>
+        <v>469.6336252891934</v>
       </c>
       <c r="P35" t="n">
-        <v>400.8214338263986</v>
+        <v>400.8214338263987</v>
       </c>
       <c r="Q35" t="n">
-        <v>301.0002041854329</v>
+        <v>301.0002041854331</v>
       </c>
       <c r="R35" t="n">
         <v>175.0895725356874</v>
       </c>
       <c r="S35" t="n">
-        <v>63.51626584135436</v>
+        <v>63.51626584135438</v>
       </c>
       <c r="T35" t="n">
         <v>12.20153389887125</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2229863419553853</v>
+        <v>0.2229863419553854</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.491352639622605</v>
+        <v>1.491352639622606</v>
       </c>
       <c r="H36" t="n">
-        <v>14.40332680898674</v>
+        <v>14.40332680898675</v>
       </c>
       <c r="I36" t="n">
-        <v>51.34700974139233</v>
+        <v>51.34700974139235</v>
       </c>
       <c r="J36" t="n">
         <v>140.9001193425901</v>
       </c>
       <c r="K36" t="n">
-        <v>240.8207461973046</v>
+        <v>240.8207461973047</v>
       </c>
       <c r="L36" t="n">
         <v>323.8132123882328</v>
       </c>
       <c r="M36" t="n">
-        <v>377.8747455745521</v>
+        <v>377.8747455745522</v>
       </c>
       <c r="N36" t="n">
-        <v>387.8759656885126</v>
+        <v>387.8759656885127</v>
       </c>
       <c r="O36" t="n">
-        <v>354.8307308842432</v>
+        <v>354.8307308842433</v>
       </c>
       <c r="P36" t="n">
         <v>284.7829439644254</v>
       </c>
       <c r="Q36" t="n">
-        <v>190.3698562437557</v>
+        <v>190.3698562437558</v>
       </c>
       <c r="R36" t="n">
-        <v>92.59468406358599</v>
+        <v>92.59468406358602</v>
       </c>
       <c r="S36" t="n">
-        <v>27.70122117895495</v>
+        <v>27.70122117895496</v>
       </c>
       <c r="T36" t="n">
-        <v>6.011197700934972</v>
+        <v>6.011197700934973</v>
       </c>
       <c r="U36" t="n">
-        <v>0.09811530523832931</v>
+        <v>0.09811530523832936</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.250299955277507</v>
+        <v>1.250299955277508</v>
       </c>
       <c r="H37" t="n">
         <v>11.11630323874003</v>
       </c>
       <c r="I37" t="n">
-        <v>37.5999295641636</v>
+        <v>37.59992956416361</v>
       </c>
       <c r="J37" t="n">
-        <v>88.39620683811977</v>
+        <v>88.3962068381198</v>
       </c>
       <c r="K37" t="n">
-        <v>145.2621220767867</v>
+        <v>145.2621220767868</v>
       </c>
       <c r="L37" t="n">
-        <v>185.885504260076</v>
+        <v>185.8855042600761</v>
       </c>
       <c r="M37" t="n">
         <v>195.9902011713642</v>
       </c>
       <c r="N37" t="n">
-        <v>191.3299922471481</v>
+        <v>191.3299922471482</v>
       </c>
       <c r="O37" t="n">
-        <v>176.7242154968608</v>
+        <v>176.7242154968609</v>
       </c>
       <c r="P37" t="n">
-        <v>151.2180964091995</v>
+        <v>151.2180964091996</v>
       </c>
       <c r="Q37" t="n">
         <v>104.6955717096466</v>
       </c>
       <c r="R37" t="n">
-        <v>56.21803253456864</v>
+        <v>56.21803253456866</v>
       </c>
       <c r="S37" t="n">
         <v>21.78931831151801</v>
       </c>
       <c r="T37" t="n">
-        <v>5.342190718003894</v>
+        <v>5.342190718003896</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0681981793787732</v>
+        <v>0.06819817937877323</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.787329274442317</v>
+        <v>2.787329274442318</v>
       </c>
       <c r="H38" t="n">
-        <v>28.54573593188239</v>
+        <v>28.5457359318824</v>
       </c>
       <c r="I38" t="n">
-        <v>107.4585118529375</v>
+        <v>107.4585118529376</v>
       </c>
       <c r="J38" t="n">
-        <v>236.5710880066988</v>
+        <v>236.5710880066989</v>
       </c>
       <c r="K38" t="n">
-        <v>354.5587361938422</v>
+        <v>354.5587361938423</v>
       </c>
       <c r="L38" t="n">
-        <v>439.8614644765563</v>
+        <v>439.8614644765565</v>
       </c>
       <c r="M38" t="n">
-        <v>489.4306314609199</v>
+        <v>489.43063146092</v>
       </c>
       <c r="N38" t="n">
-        <v>497.3501307619291</v>
+        <v>497.3501307619293</v>
       </c>
       <c r="O38" t="n">
-        <v>469.6336252891933</v>
+        <v>469.6336252891934</v>
       </c>
       <c r="P38" t="n">
-        <v>400.8214338263986</v>
+        <v>400.8214338263987</v>
       </c>
       <c r="Q38" t="n">
-        <v>301.0002041854329</v>
+        <v>301.0002041854331</v>
       </c>
       <c r="R38" t="n">
         <v>175.0895725356874</v>
       </c>
       <c r="S38" t="n">
-        <v>63.51626584135436</v>
+        <v>63.51626584135438</v>
       </c>
       <c r="T38" t="n">
         <v>12.20153389887125</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2229863419553853</v>
+        <v>0.2229863419553854</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.491352639622605</v>
+        <v>1.491352639622606</v>
       </c>
       <c r="H39" t="n">
-        <v>14.40332680898674</v>
+        <v>14.40332680898675</v>
       </c>
       <c r="I39" t="n">
-        <v>51.34700974139233</v>
+        <v>51.34700974139235</v>
       </c>
       <c r="J39" t="n">
         <v>140.9001193425901</v>
       </c>
       <c r="K39" t="n">
-        <v>240.8207461973046</v>
+        <v>240.8207461973047</v>
       </c>
       <c r="L39" t="n">
         <v>323.8132123882328</v>
       </c>
       <c r="M39" t="n">
-        <v>377.8747455745521</v>
+        <v>377.8747455745522</v>
       </c>
       <c r="N39" t="n">
-        <v>387.8759656885126</v>
+        <v>387.8759656885127</v>
       </c>
       <c r="O39" t="n">
-        <v>354.8307308842432</v>
+        <v>354.8307308842433</v>
       </c>
       <c r="P39" t="n">
         <v>284.7829439644254</v>
       </c>
       <c r="Q39" t="n">
-        <v>190.3698562437557</v>
+        <v>190.3698562437558</v>
       </c>
       <c r="R39" t="n">
-        <v>92.59468406358599</v>
+        <v>92.59468406358602</v>
       </c>
       <c r="S39" t="n">
-        <v>27.70122117895495</v>
+        <v>27.70122117895496</v>
       </c>
       <c r="T39" t="n">
-        <v>6.011197700934972</v>
+        <v>6.011197700934973</v>
       </c>
       <c r="U39" t="n">
-        <v>0.09811530523832931</v>
+        <v>0.09811530523832936</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.250299955277507</v>
+        <v>1.250299955277508</v>
       </c>
       <c r="H40" t="n">
         <v>11.11630323874003</v>
       </c>
       <c r="I40" t="n">
-        <v>37.5999295641636</v>
+        <v>37.59992956416361</v>
       </c>
       <c r="J40" t="n">
-        <v>88.39620683811977</v>
+        <v>88.3962068381198</v>
       </c>
       <c r="K40" t="n">
-        <v>145.2621220767867</v>
+        <v>145.2621220767868</v>
       </c>
       <c r="L40" t="n">
-        <v>185.885504260076</v>
+        <v>185.8855042600761</v>
       </c>
       <c r="M40" t="n">
         <v>195.9902011713642</v>
       </c>
       <c r="N40" t="n">
-        <v>191.3299922471481</v>
+        <v>191.3299922471482</v>
       </c>
       <c r="O40" t="n">
-        <v>176.7242154968608</v>
+        <v>176.7242154968609</v>
       </c>
       <c r="P40" t="n">
-        <v>151.2180964091995</v>
+        <v>151.2180964091996</v>
       </c>
       <c r="Q40" t="n">
         <v>104.6955717096466</v>
       </c>
       <c r="R40" t="n">
-        <v>56.21803253456864</v>
+        <v>56.21803253456866</v>
       </c>
       <c r="S40" t="n">
         <v>21.78931831151801</v>
       </c>
       <c r="T40" t="n">
-        <v>5.342190718003894</v>
+        <v>5.342190718003896</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0681981793787732</v>
+        <v>0.06819817937877323</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.787329274442317</v>
+        <v>2.787329274442318</v>
       </c>
       <c r="H41" t="n">
-        <v>28.54573593188239</v>
+        <v>28.5457359318824</v>
       </c>
       <c r="I41" t="n">
-        <v>107.4585118529375</v>
+        <v>107.4585118529376</v>
       </c>
       <c r="J41" t="n">
-        <v>236.5710880066988</v>
+        <v>236.5710880066989</v>
       </c>
       <c r="K41" t="n">
-        <v>354.5587361938422</v>
+        <v>354.5587361938423</v>
       </c>
       <c r="L41" t="n">
-        <v>439.8614644765563</v>
+        <v>439.8614644765565</v>
       </c>
       <c r="M41" t="n">
-        <v>489.4306314609199</v>
+        <v>489.43063146092</v>
       </c>
       <c r="N41" t="n">
-        <v>497.3501307619291</v>
+        <v>497.3501307619293</v>
       </c>
       <c r="O41" t="n">
-        <v>469.6336252891933</v>
+        <v>469.6336252891934</v>
       </c>
       <c r="P41" t="n">
-        <v>400.8214338263986</v>
+        <v>400.8214338263987</v>
       </c>
       <c r="Q41" t="n">
-        <v>301.0002041854329</v>
+        <v>301.0002041854331</v>
       </c>
       <c r="R41" t="n">
         <v>175.0895725356874</v>
       </c>
       <c r="S41" t="n">
-        <v>63.51626584135436</v>
+        <v>63.51626584135438</v>
       </c>
       <c r="T41" t="n">
         <v>12.20153389887125</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2229863419553853</v>
+        <v>0.2229863419553854</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.491352639622605</v>
+        <v>1.491352639622606</v>
       </c>
       <c r="H42" t="n">
-        <v>14.40332680898674</v>
+        <v>14.40332680898675</v>
       </c>
       <c r="I42" t="n">
-        <v>51.34700974139233</v>
+        <v>51.34700974139235</v>
       </c>
       <c r="J42" t="n">
         <v>140.9001193425901</v>
       </c>
       <c r="K42" t="n">
-        <v>240.8207461973046</v>
+        <v>240.8207461973047</v>
       </c>
       <c r="L42" t="n">
         <v>323.8132123882328</v>
       </c>
       <c r="M42" t="n">
-        <v>377.8747455745521</v>
+        <v>377.8747455745522</v>
       </c>
       <c r="N42" t="n">
-        <v>387.8759656885126</v>
+        <v>387.8759656885127</v>
       </c>
       <c r="O42" t="n">
-        <v>354.8307308842432</v>
+        <v>354.8307308842433</v>
       </c>
       <c r="P42" t="n">
         <v>284.7829439644254</v>
       </c>
       <c r="Q42" t="n">
-        <v>190.3698562437557</v>
+        <v>190.3698562437558</v>
       </c>
       <c r="R42" t="n">
-        <v>92.59468406358599</v>
+        <v>92.59468406358602</v>
       </c>
       <c r="S42" t="n">
-        <v>27.70122117895495</v>
+        <v>27.70122117895496</v>
       </c>
       <c r="T42" t="n">
-        <v>6.011197700934972</v>
+        <v>6.011197700934973</v>
       </c>
       <c r="U42" t="n">
-        <v>0.09811530523832931</v>
+        <v>0.09811530523832936</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.250299955277507</v>
+        <v>1.250299955277508</v>
       </c>
       <c r="H43" t="n">
         <v>11.11630323874003</v>
       </c>
       <c r="I43" t="n">
-        <v>37.5999295641636</v>
+        <v>37.59992956416361</v>
       </c>
       <c r="J43" t="n">
-        <v>88.39620683811977</v>
+        <v>88.3962068381198</v>
       </c>
       <c r="K43" t="n">
-        <v>145.2621220767867</v>
+        <v>145.2621220767868</v>
       </c>
       <c r="L43" t="n">
-        <v>185.885504260076</v>
+        <v>185.8855042600761</v>
       </c>
       <c r="M43" t="n">
         <v>195.9902011713642</v>
       </c>
       <c r="N43" t="n">
-        <v>191.3299922471481</v>
+        <v>191.3299922471482</v>
       </c>
       <c r="O43" t="n">
-        <v>176.7242154968608</v>
+        <v>176.7242154968609</v>
       </c>
       <c r="P43" t="n">
-        <v>151.2180964091995</v>
+        <v>151.2180964091996</v>
       </c>
       <c r="Q43" t="n">
         <v>104.6955717096466</v>
       </c>
       <c r="R43" t="n">
-        <v>56.21803253456864</v>
+        <v>56.21803253456866</v>
       </c>
       <c r="S43" t="n">
         <v>21.78931831151801</v>
       </c>
       <c r="T43" t="n">
-        <v>5.342190718003894</v>
+        <v>5.342190718003896</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0681981793787732</v>
+        <v>0.06819817937877323</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.787329274442317</v>
+        <v>2.787329274442318</v>
       </c>
       <c r="H44" t="n">
-        <v>28.54573593188239</v>
+        <v>28.5457359318824</v>
       </c>
       <c r="I44" t="n">
-        <v>107.4585118529375</v>
+        <v>107.4585118529376</v>
       </c>
       <c r="J44" t="n">
-        <v>236.5710880066988</v>
+        <v>236.5710880066989</v>
       </c>
       <c r="K44" t="n">
-        <v>354.5587361938422</v>
+        <v>354.5587361938423</v>
       </c>
       <c r="L44" t="n">
-        <v>439.8614644765563</v>
+        <v>439.8614644765565</v>
       </c>
       <c r="M44" t="n">
-        <v>489.4306314609199</v>
+        <v>489.43063146092</v>
       </c>
       <c r="N44" t="n">
-        <v>497.3501307619291</v>
+        <v>497.3501307619293</v>
       </c>
       <c r="O44" t="n">
-        <v>469.6336252891933</v>
+        <v>469.6336252891934</v>
       </c>
       <c r="P44" t="n">
-        <v>400.8214338263986</v>
+        <v>400.8214338263987</v>
       </c>
       <c r="Q44" t="n">
-        <v>301.0002041854329</v>
+        <v>301.0002041854331</v>
       </c>
       <c r="R44" t="n">
         <v>175.0895725356874</v>
       </c>
       <c r="S44" t="n">
-        <v>63.51626584135436</v>
+        <v>63.51626584135438</v>
       </c>
       <c r="T44" t="n">
         <v>12.20153389887125</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2229863419553853</v>
+        <v>0.2229863419553854</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.491352639622605</v>
+        <v>1.491352639622606</v>
       </c>
       <c r="H45" t="n">
-        <v>14.40332680898674</v>
+        <v>14.40332680898675</v>
       </c>
       <c r="I45" t="n">
-        <v>51.34700974139233</v>
+        <v>51.34700974139235</v>
       </c>
       <c r="J45" t="n">
         <v>140.9001193425901</v>
       </c>
       <c r="K45" t="n">
-        <v>240.8207461973046</v>
+        <v>240.8207461973047</v>
       </c>
       <c r="L45" t="n">
         <v>323.8132123882328</v>
       </c>
       <c r="M45" t="n">
-        <v>377.8747455745521</v>
+        <v>377.8747455745522</v>
       </c>
       <c r="N45" t="n">
-        <v>387.8759656885126</v>
+        <v>387.8759656885127</v>
       </c>
       <c r="O45" t="n">
-        <v>354.8307308842432</v>
+        <v>354.8307308842433</v>
       </c>
       <c r="P45" t="n">
         <v>284.7829439644254</v>
       </c>
       <c r="Q45" t="n">
-        <v>190.3698562437557</v>
+        <v>190.3698562437558</v>
       </c>
       <c r="R45" t="n">
-        <v>92.59468406358599</v>
+        <v>92.59468406358602</v>
       </c>
       <c r="S45" t="n">
-        <v>27.70122117895495</v>
+        <v>27.70122117895496</v>
       </c>
       <c r="T45" t="n">
-        <v>6.011197700934972</v>
+        <v>6.011197700934973</v>
       </c>
       <c r="U45" t="n">
-        <v>0.09811530523832931</v>
+        <v>0.09811530523832936</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.250299955277507</v>
+        <v>1.250299955277508</v>
       </c>
       <c r="H46" t="n">
         <v>11.11630323874003</v>
       </c>
       <c r="I46" t="n">
-        <v>37.5999295641636</v>
+        <v>37.59992956416361</v>
       </c>
       <c r="J46" t="n">
-        <v>88.39620683811977</v>
+        <v>88.3962068381198</v>
       </c>
       <c r="K46" t="n">
-        <v>145.2621220767867</v>
+        <v>145.2621220767868</v>
       </c>
       <c r="L46" t="n">
-        <v>185.885504260076</v>
+        <v>185.8855042600761</v>
       </c>
       <c r="M46" t="n">
         <v>195.9902011713642</v>
       </c>
       <c r="N46" t="n">
-        <v>191.3299922471481</v>
+        <v>191.3299922471482</v>
       </c>
       <c r="O46" t="n">
-        <v>176.7242154968608</v>
+        <v>176.7242154968609</v>
       </c>
       <c r="P46" t="n">
-        <v>151.2180964091995</v>
+        <v>151.2180964091996</v>
       </c>
       <c r="Q46" t="n">
         <v>104.6955717096466</v>
       </c>
       <c r="R46" t="n">
-        <v>56.21803253456864</v>
+        <v>56.21803253456866</v>
       </c>
       <c r="S46" t="n">
         <v>21.78931831151801</v>
       </c>
       <c r="T46" t="n">
-        <v>5.342190718003894</v>
+        <v>5.342190718003896</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0681981793787732</v>
+        <v>0.06819817937877323</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>55.52518348001257</v>
+        <v>55.5251834800126</v>
       </c>
       <c r="K11" t="n">
         <v>134.4688851488617</v>
@@ -35416,10 +35416,10 @@
         <v>204.0950495065692</v>
       </c>
       <c r="M11" t="n">
-        <v>259.0843982336472</v>
+        <v>259.0843982336473</v>
       </c>
       <c r="N11" t="n">
-        <v>267.9370671653383</v>
+        <v>267.9370671653384</v>
       </c>
       <c r="O11" t="n">
         <v>239.5354138675067</v>
@@ -35428,7 +35428,7 @@
         <v>169.5884380711291</v>
       </c>
       <c r="Q11" t="n">
-        <v>78.69451431098352</v>
+        <v>78.69451431098358</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>14.06249267592341</v>
+        <v>14.06249267592344</v>
       </c>
       <c r="K12" t="n">
-        <v>102.9793072229457</v>
+        <v>303.901554094425</v>
       </c>
       <c r="L12" t="n">
-        <v>185.2588326083586</v>
+        <v>185.2588326083587</v>
       </c>
       <c r="M12" t="n">
-        <v>235.7407116525338</v>
+        <v>235.7407116525339</v>
       </c>
       <c r="N12" t="n">
-        <v>256.5342536051793</v>
+        <v>256.5342536051794</v>
       </c>
       <c r="O12" t="n">
-        <v>212.2344864397988</v>
+        <v>212.2344864397989</v>
       </c>
       <c r="P12" t="n">
         <v>150.8085365500952</v>
       </c>
       <c r="Q12" t="n">
-        <v>251.3103290292136</v>
+        <v>50.38808215773426</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>25.90102793811233</v>
       </c>
       <c r="K13" t="n">
-        <v>122.9926302509039</v>
+        <v>226.5846261369604</v>
       </c>
       <c r="L13" t="n">
-        <v>317.0675254064487</v>
+        <v>213.4755295203922</v>
       </c>
       <c r="M13" t="n">
         <v>235.5740781332048</v>
       </c>
       <c r="N13" t="n">
-        <v>235.4621646263768</v>
+        <v>339.0541605124332</v>
       </c>
       <c r="O13" t="n">
-        <v>201.3093434109005</v>
+        <v>201.3093434109006</v>
       </c>
       <c r="P13" t="n">
-        <v>252.0886515601495</v>
+        <v>148.4966556740931</v>
       </c>
       <c r="Q13" t="n">
-        <v>44.43455639606433</v>
+        <v>18.5335284579522</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>224.6217986520863</v>
+        <v>55.5251834800126</v>
       </c>
       <c r="K14" t="n">
         <v>134.4688851488617</v>
       </c>
       <c r="L14" t="n">
-        <v>543.6111966698313</v>
+        <v>204.0950495065692</v>
       </c>
       <c r="M14" t="n">
-        <v>468.802929444714</v>
+        <v>259.0843982336473</v>
       </c>
       <c r="N14" t="n">
-        <v>267.9370671653383</v>
+        <v>452.1546618803538</v>
       </c>
       <c r="O14" t="n">
         <v>239.5354138675067</v>
       </c>
       <c r="P14" t="n">
-        <v>169.5884380711291</v>
+        <v>491.3871462426118</v>
       </c>
       <c r="Q14" t="n">
-        <v>78.69451431098352</v>
+        <v>291.0095049708883</v>
       </c>
       <c r="R14" t="n">
-        <v>25.2204545945377</v>
+        <v>25.22045459453773</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>140.1535280163322</v>
+        <v>140.1535280163323</v>
       </c>
       <c r="K15" t="n">
         <v>367.4445442355243</v>
       </c>
       <c r="L15" t="n">
-        <v>210.6364988920046</v>
+        <v>242.0223244672896</v>
       </c>
       <c r="M15" t="n">
-        <v>235.7407116525338</v>
+        <v>235.7407116525339</v>
       </c>
       <c r="N15" t="n">
-        <v>256.5342536051793</v>
+        <v>543.6111966698314</v>
       </c>
       <c r="O15" t="n">
-        <v>212.2344864397988</v>
+        <v>212.2344864397989</v>
       </c>
       <c r="P15" t="n">
-        <v>469.2713051900324</v>
+        <v>150.8085365500952</v>
       </c>
       <c r="Q15" t="n">
         <v>260.4653698935833</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>98.62902260750347</v>
+        <v>98.62902260750346</v>
       </c>
       <c r="K16" t="n">
-        <v>122.9926302509039</v>
+        <v>153.8566314675691</v>
       </c>
       <c r="L16" t="n">
-        <v>244.3395307370575</v>
+        <v>213.4755295203922</v>
       </c>
       <c r="M16" t="n">
-        <v>235.5740781332048</v>
+        <v>339.1660740192613</v>
       </c>
       <c r="N16" t="n">
         <v>235.4621646263768</v>
       </c>
       <c r="O16" t="n">
-        <v>201.3093434109005</v>
+        <v>201.3093434109006</v>
       </c>
       <c r="P16" t="n">
         <v>148.4966556740931</v>
       </c>
       <c r="Q16" t="n">
-        <v>122.1255243440087</v>
+        <v>18.5335284579522</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>224.6217986520863</v>
+        <v>224.6217986520864</v>
       </c>
       <c r="K17" t="n">
-        <v>174.8103192863408</v>
+        <v>458.6142977200265</v>
       </c>
       <c r="L17" t="n">
         <v>204.0950495065692</v>
       </c>
       <c r="M17" t="n">
-        <v>259.0843982336472</v>
+        <v>259.0843982336473</v>
       </c>
       <c r="N17" t="n">
-        <v>267.9370671653383</v>
+        <v>267.9370671653384</v>
       </c>
       <c r="O17" t="n">
         <v>239.5354138675067</v>
       </c>
       <c r="P17" t="n">
-        <v>491.3871462426117</v>
+        <v>182.3627132143886</v>
       </c>
       <c r="Q17" t="n">
-        <v>291.0095049708882</v>
+        <v>291.0095049708883</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>25.22045459453773</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>140.1535280163322</v>
+        <v>140.1535280163323</v>
       </c>
       <c r="K18" t="n">
         <v>367.4445442355243</v>
       </c>
       <c r="L18" t="n">
-        <v>210.6364988920046</v>
+        <v>185.2588326083587</v>
       </c>
       <c r="M18" t="n">
-        <v>235.7407116525338</v>
+        <v>543.6111966698314</v>
       </c>
       <c r="N18" t="n">
-        <v>256.5342536051793</v>
+        <v>256.5342536051794</v>
       </c>
       <c r="O18" t="n">
-        <v>212.2344864397988</v>
+        <v>212.2344864397989</v>
       </c>
       <c r="P18" t="n">
-        <v>469.2713051900324</v>
+        <v>186.7784864563807</v>
       </c>
       <c r="Q18" t="n">
         <v>260.4653698935833</v>
@@ -36054,13 +36054,13 @@
         <v>235.4621646263768</v>
       </c>
       <c r="O19" t="n">
-        <v>201.3093434109005</v>
+        <v>201.3093434109006</v>
       </c>
       <c r="P19" t="n">
         <v>148.4966556740931</v>
       </c>
       <c r="Q19" t="n">
-        <v>18.53352845795219</v>
+        <v>18.5335284579522</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,19 +36118,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>224.6217986520863</v>
+        <v>224.6217986520864</v>
       </c>
       <c r="K20" t="n">
-        <v>212.0822290216394</v>
+        <v>186.8617744271018</v>
       </c>
       <c r="L20" t="n">
         <v>204.0950495065692</v>
       </c>
       <c r="M20" t="n">
-        <v>543.6111966698313</v>
+        <v>543.6111966698314</v>
       </c>
       <c r="N20" t="n">
-        <v>267.9370671653383</v>
+        <v>267.9370671653384</v>
       </c>
       <c r="O20" t="n">
         <v>239.5354138675067</v>
@@ -36139,10 +36139,10 @@
         <v>169.5884380711291</v>
       </c>
       <c r="Q20" t="n">
-        <v>291.0095049708882</v>
+        <v>291.0095049708883</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>25.22045459453773</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,22 +36197,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>140.1535280163322</v>
+        <v>140.1535280163323</v>
       </c>
       <c r="K21" t="n">
         <v>367.4445442355243</v>
       </c>
       <c r="L21" t="n">
-        <v>210.6364988920046</v>
+        <v>210.6364988920044</v>
       </c>
       <c r="M21" t="n">
-        <v>235.7407116525338</v>
+        <v>235.7407116525339</v>
       </c>
       <c r="N21" t="n">
-        <v>256.5342536051793</v>
+        <v>256.5342536051794</v>
       </c>
       <c r="O21" t="n">
-        <v>212.2344864397988</v>
+        <v>212.2344864397989</v>
       </c>
       <c r="P21" t="n">
         <v>469.2713051900324</v>
@@ -36291,13 +36291,13 @@
         <v>235.4621646263768</v>
       </c>
       <c r="O22" t="n">
-        <v>201.3093434109005</v>
+        <v>201.3093434109006</v>
       </c>
       <c r="P22" t="n">
         <v>148.4966556740931</v>
       </c>
       <c r="Q22" t="n">
-        <v>18.53352845795219</v>
+        <v>18.5335284579522</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>224.6217986520863</v>
+        <v>224.6217986520864</v>
       </c>
       <c r="K23" t="n">
-        <v>134.4688851488617</v>
+        <v>204.07009275959</v>
       </c>
       <c r="L23" t="n">
         <v>204.0950495065692</v>
       </c>
       <c r="M23" t="n">
-        <v>259.0843982336472</v>
+        <v>549.4256113965083</v>
       </c>
       <c r="N23" t="n">
-        <v>267.9370671653383</v>
+        <v>267.9370671653384</v>
       </c>
       <c r="O23" t="n">
-        <v>302.8995810641519</v>
+        <v>239.5354138675067</v>
       </c>
       <c r="P23" t="n">
-        <v>491.3871462426117</v>
+        <v>169.5884380711291</v>
       </c>
       <c r="Q23" t="n">
-        <v>291.0095049708882</v>
+        <v>291.0095049708883</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>25.22045459453773</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>140.1535280163322</v>
+        <v>33.01396935953259</v>
       </c>
       <c r="K24" t="n">
-        <v>367.4445442355243</v>
+        <v>102.9793072229457</v>
       </c>
       <c r="L24" t="n">
-        <v>238.4371008471331</v>
+        <v>185.2588326083587</v>
       </c>
       <c r="M24" t="n">
-        <v>549.4256113965084</v>
+        <v>235.7407116525339</v>
       </c>
       <c r="N24" t="n">
-        <v>256.5342536051793</v>
+        <v>549.4256113965083</v>
       </c>
       <c r="O24" t="n">
-        <v>212.2344864397988</v>
+        <v>549.4256113965083</v>
       </c>
       <c r="P24" t="n">
-        <v>150.8085365500952</v>
+        <v>469.2713051900324</v>
       </c>
       <c r="Q24" t="n">
-        <v>260.4653698935833</v>
+        <v>50.38808215773426</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36528,13 +36528,13 @@
         <v>235.4621646263768</v>
       </c>
       <c r="O25" t="n">
-        <v>201.3093434109005</v>
+        <v>201.3093434109006</v>
       </c>
       <c r="P25" t="n">
         <v>148.4966556740931</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.53352845795219</v>
+        <v>18.5335284579522</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>224.6217986520863</v>
+        <v>55.5251834800126</v>
       </c>
       <c r="K26" t="n">
-        <v>458.6142977200264</v>
+        <v>458.6142977200265</v>
       </c>
       <c r="L26" t="n">
-        <v>621.7562640570196</v>
+        <v>621.7562640570197</v>
       </c>
       <c r="M26" t="n">
-        <v>708.5979317264797</v>
+        <v>708.5979317264798</v>
       </c>
       <c r="N26" t="n">
-        <v>521.527674713676</v>
+        <v>705.2839915773225</v>
       </c>
       <c r="O26" t="n">
-        <v>620.335595130252</v>
+        <v>605.6758934386785</v>
       </c>
       <c r="P26" t="n">
         <v>169.5884380711291</v>
       </c>
       <c r="Q26" t="n">
-        <v>291.0095049708882</v>
+        <v>291.0095049708883</v>
       </c>
       <c r="R26" t="n">
-        <v>25.2204545945377</v>
+        <v>25.22045459453773</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>140.1535280163322</v>
+        <v>140.1535280163323</v>
       </c>
       <c r="K27" t="n">
         <v>367.4445442355243</v>
@@ -36680,13 +36680,13 @@
         <v>556.0991779118178</v>
       </c>
       <c r="M27" t="n">
-        <v>317.7668227063208</v>
+        <v>235.7407116525339</v>
       </c>
       <c r="N27" t="n">
-        <v>256.5342536051793</v>
+        <v>338.5603646589659</v>
       </c>
       <c r="O27" t="n">
-        <v>212.2344864397988</v>
+        <v>212.2344864397989</v>
       </c>
       <c r="P27" t="n">
         <v>469.2713051900324</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>74.34572324611085</v>
+        <v>74.34572324611086</v>
       </c>
       <c r="K28" t="n">
         <v>202.3013267755678</v>
@@ -36759,19 +36759,19 @@
         <v>292.784226045056</v>
       </c>
       <c r="M28" t="n">
-        <v>314.8827746578686</v>
+        <v>314.8827746578687</v>
       </c>
       <c r="N28" t="n">
-        <v>314.7708611510406</v>
+        <v>314.7708611510407</v>
       </c>
       <c r="O28" t="n">
-        <v>280.6180399355634</v>
+        <v>280.6180399355644</v>
       </c>
       <c r="P28" t="n">
         <v>227.8053521987569</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.84222498261603</v>
+        <v>97.84222498261475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>224.6217986520863</v>
+        <v>224.6217986520864</v>
       </c>
       <c r="K29" t="n">
-        <v>458.6142977200263</v>
+        <v>458.6142977200265</v>
       </c>
       <c r="L29" t="n">
-        <v>497.0014202846352</v>
+        <v>553.548163433873</v>
       </c>
       <c r="M29" t="n">
-        <v>708.5979317264796</v>
+        <v>708.5979317264798</v>
       </c>
       <c r="N29" t="n">
-        <v>705.2839915773224</v>
+        <v>267.9370671653384</v>
       </c>
       <c r="O29" t="n">
-        <v>239.5354138675066</v>
+        <v>620.335595130252</v>
       </c>
       <c r="P29" t="n">
-        <v>491.3871462426117</v>
+        <v>491.3871462426118</v>
       </c>
       <c r="Q29" t="n">
-        <v>291.0095049708881</v>
+        <v>291.0095049708883</v>
       </c>
       <c r="R29" t="n">
-        <v>25.22045459453767</v>
+        <v>25.22045459453773</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>140.1535280163322</v>
+        <v>140.1535280163323</v>
       </c>
       <c r="K30" t="n">
-        <v>367.4445442355242</v>
+        <v>367.4445442355243</v>
       </c>
       <c r="L30" t="n">
         <v>556.0991779118178</v>
       </c>
       <c r="M30" t="n">
-        <v>235.7407116525338</v>
+        <v>235.7407116525339</v>
       </c>
       <c r="N30" t="n">
-        <v>256.5342536051793</v>
+        <v>256.5342536051794</v>
       </c>
       <c r="O30" t="n">
-        <v>294.2605974935858</v>
+        <v>294.2605974935854</v>
       </c>
       <c r="P30" t="n">
-        <v>469.2713051900323</v>
+        <v>469.2713051900324</v>
       </c>
       <c r="Q30" t="n">
         <v>260.4653698935833</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>74.34572324611084</v>
+        <v>74.34572324611086</v>
       </c>
       <c r="K31" t="n">
-        <v>202.3013267755677</v>
+        <v>202.3013267755678</v>
       </c>
       <c r="L31" t="n">
         <v>292.784226045056</v>
       </c>
       <c r="M31" t="n">
-        <v>314.8827746578686</v>
+        <v>314.8827746578687</v>
       </c>
       <c r="N31" t="n">
-        <v>314.7708611510405</v>
+        <v>314.7708611510407</v>
       </c>
       <c r="O31" t="n">
         <v>280.6180399355644</v>
@@ -37008,7 +37008,7 @@
         <v>227.8053521987569</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.84222498261602</v>
+        <v>97.84222498261605</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>224.6217986520863</v>
+        <v>224.6217986520864</v>
       </c>
       <c r="K32" t="n">
-        <v>458.6142977200263</v>
+        <v>458.6142977200265</v>
       </c>
       <c r="L32" t="n">
-        <v>621.7562640570195</v>
+        <v>204.0950495065692</v>
       </c>
       <c r="M32" t="n">
-        <v>708.5979317264796</v>
+        <v>708.5979317264798</v>
       </c>
       <c r="N32" t="n">
-        <v>705.2839915773224</v>
+        <v>705.2839915773225</v>
       </c>
       <c r="O32" t="n">
-        <v>239.5354138675066</v>
+        <v>620.335595130252</v>
       </c>
       <c r="P32" t="n">
-        <v>491.3871462426117</v>
+        <v>491.3871462426118</v>
       </c>
       <c r="Q32" t="n">
-        <v>191.4751157930419</v>
+        <v>203.1156944862081</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>25.22045459453773</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>140.1535280163322</v>
+        <v>140.1535280163323</v>
       </c>
       <c r="K33" t="n">
-        <v>367.4445442355242</v>
+        <v>367.4445442355243</v>
       </c>
       <c r="L33" t="n">
         <v>556.0991779118178</v>
       </c>
       <c r="M33" t="n">
-        <v>317.7668227063208</v>
+        <v>317.7668227063203</v>
       </c>
       <c r="N33" t="n">
-        <v>256.5342536051793</v>
+        <v>256.5342536051794</v>
       </c>
       <c r="O33" t="n">
-        <v>212.2344864397988</v>
+        <v>212.2344864397989</v>
       </c>
       <c r="P33" t="n">
-        <v>469.2713051900323</v>
+        <v>469.2713051900324</v>
       </c>
       <c r="Q33" t="n">
         <v>260.4653698935833</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>74.34572324611078</v>
+        <v>74.34572324611088</v>
       </c>
       <c r="K34" t="n">
-        <v>202.3013267755677</v>
+        <v>202.3013267755678</v>
       </c>
       <c r="L34" t="n">
-        <v>292.7842260450559</v>
+        <v>292.7842260450561</v>
       </c>
       <c r="M34" t="n">
-        <v>314.8827746578685</v>
+        <v>314.8827746578687</v>
       </c>
       <c r="N34" t="n">
-        <v>314.7708611510405</v>
+        <v>314.7708611510407</v>
       </c>
       <c r="O34" t="n">
-        <v>280.6180399355643</v>
+        <v>280.6180399355627</v>
       </c>
       <c r="P34" t="n">
-        <v>227.8053521987568</v>
+        <v>227.805352198757</v>
       </c>
       <c r="Q34" t="n">
-        <v>97.84222498261636</v>
+        <v>97.84222498261606</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>224.6217986520863</v>
+        <v>224.6217986520864</v>
       </c>
       <c r="K35" t="n">
-        <v>134.4688851488616</v>
+        <v>134.4688851488617</v>
       </c>
       <c r="L35" t="n">
-        <v>204.0950495065691</v>
+        <v>621.7562640570197</v>
       </c>
       <c r="M35" t="n">
-        <v>651.5739268159701</v>
+        <v>259.0843982336473</v>
       </c>
       <c r="N35" t="n">
-        <v>651.5739268159701</v>
+        <v>267.9370671653384</v>
       </c>
       <c r="O35" t="n">
-        <v>239.5354138675066</v>
+        <v>289.7044235281363</v>
       </c>
       <c r="P35" t="n">
-        <v>183.0909822207366</v>
+        <v>491.3871462426118</v>
       </c>
       <c r="Q35" t="n">
-        <v>291.0095049708881</v>
+        <v>291.0095049708883</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>140.1535280163322</v>
+        <v>140.1535280163323</v>
       </c>
       <c r="K36" t="n">
-        <v>367.4445442355242</v>
+        <v>367.4445442355243</v>
       </c>
       <c r="L36" t="n">
         <v>556.0991779118178</v>
       </c>
       <c r="M36" t="n">
-        <v>317.766822706321</v>
+        <v>317.7668227063203</v>
       </c>
       <c r="N36" t="n">
-        <v>256.5342536051793</v>
+        <v>256.5342536051794</v>
       </c>
       <c r="O36" t="n">
-        <v>212.2344864397988</v>
+        <v>212.2344864397989</v>
       </c>
       <c r="P36" t="n">
-        <v>469.2713051900323</v>
+        <v>469.2713051900324</v>
       </c>
       <c r="Q36" t="n">
         <v>260.4653698935833</v>
@@ -37467,22 +37467,22 @@
         <v>122.9926302509039</v>
       </c>
       <c r="L37" t="n">
-        <v>213.4755295203921</v>
+        <v>213.4755295203922</v>
       </c>
       <c r="M37" t="n">
         <v>235.5740781332048</v>
       </c>
       <c r="N37" t="n">
-        <v>235.4621646263767</v>
+        <v>235.4621646263768</v>
       </c>
       <c r="O37" t="n">
-        <v>201.3093434109005</v>
+        <v>201.3093434109006</v>
       </c>
       <c r="P37" t="n">
-        <v>148.496655674093</v>
+        <v>148.4966556740931</v>
       </c>
       <c r="Q37" t="n">
-        <v>18.53352845795217</v>
+        <v>18.5335284579522</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>224.6217986520863</v>
+        <v>55.5251834800126</v>
       </c>
       <c r="K38" t="n">
-        <v>458.6142977200263</v>
+        <v>134.4688851488617</v>
       </c>
       <c r="L38" t="n">
-        <v>347.7798611464846</v>
+        <v>621.7562640570197</v>
       </c>
       <c r="M38" t="n">
-        <v>259.0843982336471</v>
+        <v>651.5739268159701</v>
       </c>
       <c r="N38" t="n">
-        <v>267.9370671653382</v>
+        <v>267.9370671653384</v>
       </c>
       <c r="O38" t="n">
-        <v>239.5354138675066</v>
+        <v>239.5354138675067</v>
       </c>
       <c r="P38" t="n">
-        <v>491.3871462426117</v>
+        <v>292.9427878984538</v>
       </c>
       <c r="Q38" t="n">
-        <v>291.0095049708881</v>
+        <v>291.0095049708883</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>25.22045459453773</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>140.1535280163322</v>
+        <v>140.1535280163323</v>
       </c>
       <c r="K39" t="n">
-        <v>367.4445442355242</v>
+        <v>367.4445442355243</v>
       </c>
       <c r="L39" t="n">
         <v>556.0991779118178</v>
       </c>
       <c r="M39" t="n">
-        <v>317.766822706321</v>
+        <v>317.7668227063203</v>
       </c>
       <c r="N39" t="n">
-        <v>256.5342536051793</v>
+        <v>256.5342536051794</v>
       </c>
       <c r="O39" t="n">
-        <v>212.2344864397988</v>
+        <v>212.2344864397989</v>
       </c>
       <c r="P39" t="n">
-        <v>469.2713051900323</v>
+        <v>469.2713051900324</v>
       </c>
       <c r="Q39" t="n">
         <v>260.4653698935833</v>
@@ -37704,22 +37704,22 @@
         <v>122.9926302509039</v>
       </c>
       <c r="L40" t="n">
-        <v>213.4755295203921</v>
+        <v>213.4755295203922</v>
       </c>
       <c r="M40" t="n">
         <v>235.5740781332048</v>
       </c>
       <c r="N40" t="n">
-        <v>235.4621646263767</v>
+        <v>235.4621646263768</v>
       </c>
       <c r="O40" t="n">
-        <v>201.3093434109005</v>
+        <v>201.3093434109006</v>
       </c>
       <c r="P40" t="n">
-        <v>148.496655674093</v>
+        <v>148.4966556740931</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.53352845795217</v>
+        <v>18.5335284579522</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>224.6217986520863</v>
+        <v>224.6217986520864</v>
       </c>
       <c r="K41" t="n">
-        <v>209.8095807776194</v>
+        <v>458.6142977200265</v>
       </c>
       <c r="L41" t="n">
-        <v>204.0950495065691</v>
+        <v>204.0950495065692</v>
       </c>
       <c r="M41" t="n">
-        <v>651.5739268159704</v>
+        <v>259.0843982336473</v>
       </c>
       <c r="N41" t="n">
-        <v>267.9370671653382</v>
+        <v>267.9370671653384</v>
       </c>
       <c r="O41" t="n">
-        <v>239.5354138675066</v>
+        <v>383.2202255074219</v>
       </c>
       <c r="P41" t="n">
-        <v>491.3871462426117</v>
+        <v>491.3871462426118</v>
       </c>
       <c r="Q41" t="n">
-        <v>291.0095049708881</v>
+        <v>291.0095049708883</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>140.1535280163322</v>
+        <v>140.1535280163323</v>
       </c>
       <c r="K42" t="n">
-        <v>367.4445442355242</v>
+        <v>367.4445442355243</v>
       </c>
       <c r="L42" t="n">
         <v>556.0991779118178</v>
       </c>
       <c r="M42" t="n">
-        <v>317.766822706321</v>
+        <v>235.7407116525339</v>
       </c>
       <c r="N42" t="n">
-        <v>256.5342536051793</v>
+        <v>256.5342536051794</v>
       </c>
       <c r="O42" t="n">
-        <v>212.2344864397988</v>
+        <v>294.2605974935863</v>
       </c>
       <c r="P42" t="n">
-        <v>469.2713051900323</v>
+        <v>469.2713051900324</v>
       </c>
       <c r="Q42" t="n">
         <v>260.4653698935833</v>
@@ -37941,22 +37941,22 @@
         <v>122.9926302509039</v>
       </c>
       <c r="L43" t="n">
-        <v>213.4755295203921</v>
+        <v>213.4755295203922</v>
       </c>
       <c r="M43" t="n">
         <v>235.5740781332048</v>
       </c>
       <c r="N43" t="n">
-        <v>235.4621646263767</v>
+        <v>235.4621646263768</v>
       </c>
       <c r="O43" t="n">
-        <v>201.3093434109005</v>
+        <v>201.3093434109006</v>
       </c>
       <c r="P43" t="n">
-        <v>148.496655674093</v>
+        <v>148.4966556740931</v>
       </c>
       <c r="Q43" t="n">
-        <v>18.53352845795217</v>
+        <v>18.5335284579522</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>224.6217986520863</v>
+        <v>224.6217986520864</v>
       </c>
       <c r="K44" t="n">
-        <v>458.6142977200263</v>
+        <v>458.6142977200265</v>
       </c>
       <c r="L44" t="n">
-        <v>204.0950495065691</v>
+        <v>204.0950495065692</v>
       </c>
       <c r="M44" t="n">
-        <v>259.0843982336471</v>
+        <v>259.0843982336473</v>
       </c>
       <c r="N44" t="n">
-        <v>267.9370671653382</v>
+        <v>352.6204057139898</v>
       </c>
       <c r="O44" t="n">
-        <v>383.2202255074221</v>
+        <v>620.335595130252</v>
       </c>
       <c r="P44" t="n">
-        <v>491.3871462426117</v>
+        <v>169.5884380711291</v>
       </c>
       <c r="Q44" t="n">
-        <v>291.0095049708881</v>
+        <v>291.0095049708883</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>140.1535280163322</v>
+        <v>140.1535280163323</v>
       </c>
       <c r="K45" t="n">
-        <v>367.4445442355242</v>
+        <v>367.4445442355243</v>
       </c>
       <c r="L45" t="n">
-        <v>244.2629696888753</v>
+        <v>556.0991779118178</v>
       </c>
       <c r="M45" t="n">
-        <v>235.7407116525338</v>
+        <v>235.7407116525339</v>
       </c>
       <c r="N45" t="n">
-        <v>256.5342536051793</v>
+        <v>256.5342536051794</v>
       </c>
       <c r="O45" t="n">
-        <v>606.0968057165283</v>
+        <v>294.2605974935854</v>
       </c>
       <c r="P45" t="n">
-        <v>469.2713051900323</v>
+        <v>469.2713051900324</v>
       </c>
       <c r="Q45" t="n">
         <v>260.4653698935833</v>
@@ -38178,22 +38178,22 @@
         <v>122.9926302509039</v>
       </c>
       <c r="L46" t="n">
-        <v>213.4755295203921</v>
+        <v>213.4755295203922</v>
       </c>
       <c r="M46" t="n">
         <v>235.5740781332048</v>
       </c>
       <c r="N46" t="n">
-        <v>235.4621646263767</v>
+        <v>235.4621646263768</v>
       </c>
       <c r="O46" t="n">
-        <v>201.3093434109005</v>
+        <v>201.3093434109006</v>
       </c>
       <c r="P46" t="n">
-        <v>148.496655674093</v>
+        <v>148.4966556740931</v>
       </c>
       <c r="Q46" t="n">
-        <v>18.53352845795217</v>
+        <v>18.5335284579522</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
